--- a/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
+++ b/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D6BDDF-4A91-437A-8C8B-8369DE468E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75FD609-1029-49C4-9089-0CA38DB0FD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
+    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>오늘자 뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>EUR환율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;-파이썬 데이터 들어갈 부분부분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경제전망리포트 업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,12 +207,40 @@
     <t>실시간 뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>WTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 요  뉴 스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언론사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,15 +401,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,8 +448,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -498,13 +550,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,27 +707,48 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,9 +758,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="제목 2" xfId="1" builtinId="17"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1929,8 +2025,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:W51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1947,20 +2043,20 @@
   <sheetData>
     <row r="2" spans="2:23" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="E3" s="46" t="s">
+      <c r="C3" s="54"/>
+      <c r="E3" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="H3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="H3" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="54"/>
       <c r="L3" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="13"/>
@@ -1969,29 +2065,29 @@
       <c r="S3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="49">
+      <c r="T3" s="57">
         <f>O6</f>
         <v>0</v>
       </c>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
     </row>
     <row r="4" spans="2:23" ht="17.25" thickBot="1">
       <c r="D4" s="15"/>
-      <c r="L4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="S4" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
+      <c r="L4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="S4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
       <c r="W4" s="16"/>
     </row>
     <row r="5" spans="2:23">
@@ -2003,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>5</v>
@@ -2011,11 +2107,11 @@
       <c r="P5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="S5" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
       <c r="V5" s="41"/>
       <c r="W5" s="42"/>
     </row>
@@ -2023,7 +2119,7 @@
       <c r="L6" s="17">
         <v>1</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="59" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="17">
@@ -2037,11 +2133,11 @@
         <f>KOSPI!C2</f>
         <v>0</v>
       </c>
-      <c r="S6" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
+      <c r="S6" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
       <c r="V6" s="42"/>
       <c r="W6" s="43"/>
     </row>
@@ -2049,7 +2145,7 @@
       <c r="L7" s="17">
         <v>2</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="60"/>
       <c r="N7" s="17">
         <v>2</v>
       </c>
@@ -2063,13 +2159,13 @@
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
+      <c r="S7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W7" s="43"/>
     </row>
@@ -2077,7 +2173,7 @@
       <c r="L8" s="17">
         <v>3</v>
       </c>
-      <c r="M8" s="53"/>
+      <c r="M8" s="60"/>
       <c r="N8" s="17">
         <v>3</v>
       </c>
@@ -2089,13 +2185,13 @@
         <f>KOSPI!C4</f>
         <v>0</v>
       </c>
-      <c r="S8" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
+      <c r="S8" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W8" s="43"/>
     </row>
@@ -2103,7 +2199,7 @@
       <c r="L9" s="17">
         <v>4</v>
       </c>
-      <c r="M9" s="53"/>
+      <c r="M9" s="60"/>
       <c r="N9" s="17">
         <v>4</v>
       </c>
@@ -2115,31 +2211,31 @@
         <f>KOSPI!C5</f>
         <v>0</v>
       </c>
-      <c r="S9" s="48" t="s">
+      <c r="S9" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
       <c r="V9" s="43"/>
       <c r="W9" s="43"/>
     </row>
     <row r="10" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="46" t="s">
+      <c r="C10" s="54"/>
+      <c r="E10" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="H10" s="46" t="s">
+      <c r="F10" s="54"/>
+      <c r="H10" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="54"/>
       <c r="L10" s="17">
         <v>5</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="60"/>
       <c r="N10" s="17">
         <v>5</v>
       </c>
@@ -2151,11 +2247,11 @@
         <f>KOSPI!C6</f>
         <v>0</v>
       </c>
-      <c r="S10" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
+      <c r="S10" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="43"/>
       <c r="W10" s="43"/>
     </row>
@@ -2164,18 +2260,18 @@
         <v>43828.06</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="20">
         <v>19926.72</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="17">
         <v>6</v>
       </c>
-      <c r="M11" s="53"/>
+      <c r="M11" s="60"/>
       <c r="N11" s="17">
         <v>6</v>
       </c>
@@ -2187,11 +2283,11 @@
         <f>KOSPI!C7</f>
         <v>0</v>
       </c>
-      <c r="S11" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
+      <c r="S11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="43"/>
       <c r="W11" s="43"/>
     </row>
@@ -2199,7 +2295,7 @@
       <c r="L12" s="17">
         <v>7</v>
       </c>
-      <c r="M12" s="53"/>
+      <c r="M12" s="60"/>
       <c r="N12" s="17">
         <v>7</v>
       </c>
@@ -2211,11 +2307,11 @@
         <f>KOSPI!C8</f>
         <v>0</v>
       </c>
-      <c r="S12" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
+      <c r="S12" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
       <c r="V12" s="43"/>
       <c r="W12" s="43"/>
     </row>
@@ -2223,7 +2319,7 @@
       <c r="L13" s="17">
         <v>8</v>
       </c>
-      <c r="M13" s="53"/>
+      <c r="M13" s="60"/>
       <c r="N13" s="17">
         <v>8</v>
       </c>
@@ -2235,11 +2331,11 @@
         <f>KOSPI!C9</f>
         <v>0</v>
       </c>
-      <c r="S13" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
+      <c r="S13" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
       <c r="V13" s="43"/>
       <c r="W13" s="43"/>
     </row>
@@ -2247,7 +2343,7 @@
       <c r="L14" s="17">
         <v>9</v>
       </c>
-      <c r="M14" s="53"/>
+      <c r="M14" s="60"/>
       <c r="N14" s="17">
         <v>9</v>
       </c>
@@ -2259,11 +2355,11 @@
         <f>KOSPI!C10</f>
         <v>0</v>
       </c>
-      <c r="S14" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
+      <c r="S14" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
       <c r="V14" s="43"/>
       <c r="W14" s="43"/>
     </row>
@@ -2271,7 +2367,7 @@
       <c r="L15" s="17">
         <v>10</v>
       </c>
-      <c r="M15" s="54"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="17">
         <v>10</v>
       </c>
@@ -2293,7 +2389,7 @@
       <c r="L16" s="17">
         <v>11</v>
       </c>
-      <c r="M16" s="52" t="s">
+      <c r="M16" s="59" t="s">
         <v>4</v>
       </c>
       <c r="N16" s="17">
@@ -2309,22 +2405,22 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="E17" s="46" t="s">
+      <c r="C17" s="54"/>
+      <c r="E17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="H17" s="46" t="s">
+      <c r="F17" s="54"/>
+      <c r="H17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="46"/>
+      <c r="I17" s="54"/>
       <c r="L17" s="17">
         <v>12</v>
       </c>
-      <c r="M17" s="53"/>
+      <c r="M17" s="60"/>
       <c r="N17" s="17">
         <v>2</v>
       </c>
@@ -2341,7 +2437,7 @@
       <c r="L18" s="17">
         <v>13</v>
       </c>
-      <c r="M18" s="53"/>
+      <c r="M18" s="60"/>
       <c r="N18" s="17">
         <v>3</v>
       </c>
@@ -2353,19 +2449,19 @@
         <f>KOSDAQ!C9</f>
         <v>0</v>
       </c>
-      <c r="S18" s="50" t="s">
+      <c r="S18" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
     </row>
     <row r="19" spans="2:23" ht="17.25" thickBot="1">
       <c r="L19" s="17">
         <v>14</v>
       </c>
-      <c r="M19" s="53"/>
+      <c r="M19" s="60"/>
       <c r="N19" s="17">
         <v>4</v>
       </c>
@@ -2377,21 +2473,21 @@
         <f>KOSDAQ!C10</f>
         <v>0</v>
       </c>
-      <c r="S19" s="49" t="s">
+      <c r="S19" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49" t="s">
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="57"/>
     </row>
     <row r="20" spans="2:23">
       <c r="L20" s="17">
         <v>15</v>
       </c>
-      <c r="M20" s="53"/>
+      <c r="M20" s="60"/>
       <c r="N20" s="17">
         <v>5</v>
       </c>
@@ -2408,7 +2504,7 @@
       <c r="L21" s="17">
         <v>16</v>
       </c>
-      <c r="M21" s="53"/>
+      <c r="M21" s="60"/>
       <c r="N21" s="17">
         <v>6</v>
       </c>
@@ -2425,7 +2521,7 @@
       <c r="L22" s="17">
         <v>17</v>
       </c>
-      <c r="M22" s="53"/>
+      <c r="M22" s="60"/>
       <c r="N22" s="17">
         <v>7</v>
       </c>
@@ -2437,19 +2533,19 @@
         <f>KOSDAQ!C13</f>
         <v>0</v>
       </c>
-      <c r="S22" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
+      <c r="S22" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" thickBot="1">
       <c r="L23" s="17">
         <v>18</v>
       </c>
-      <c r="M23" s="53"/>
+      <c r="M23" s="60"/>
       <c r="N23" s="17">
         <v>8</v>
       </c>
@@ -2462,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T23" s="21" t="s">
         <v>8</v>
@@ -2478,22 +2574,22 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="E24" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="E24" s="46" t="s">
+      <c r="F24" s="54"/>
+      <c r="H24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="H24" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="46"/>
+      <c r="I24" s="54"/>
       <c r="L24" s="17">
         <v>19</v>
       </c>
-      <c r="M24" s="53"/>
+      <c r="M24" s="60"/>
       <c r="N24" s="17">
         <v>9</v>
       </c>
@@ -2510,7 +2606,7 @@
       <c r="L25" s="17">
         <v>20</v>
       </c>
-      <c r="M25" s="54"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="17">
         <v>10</v>
       </c>
@@ -2525,57 +2621,57 @@
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1"/>
     <row r="27" spans="2:23" ht="17.25" thickBot="1">
-      <c r="L27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
+      <c r="L27" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1">
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28" s="46"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="54"/>
       <c r="P28" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:23">
       <c r="K29" s="9"/>
-      <c r="L29" s="47">
-        <f>주요뉴스!C2</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47">
-        <f>주요뉴스!A2</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="47"/>
-      <c r="P29" s="45">
-        <f>주요뉴스!E2</f>
+      <c r="L29" s="62">
+        <f>주요뉴스!E4</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62">
+        <f>주요뉴스!C4</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63">
+        <f>주요뉴스!B4</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1">
-      <c r="L30" s="47">
-        <f>주요뉴스!C3</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47">
-        <f>주요뉴스!A3</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="47"/>
-      <c r="P30" s="45">
-        <f>주요뉴스!E3</f>
+      <c r="L30" s="62">
+        <f>주요뉴스!E5</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62">
+        <f>주요뉴스!C5</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63">
+        <f>주요뉴스!B5</f>
         <v>0</v>
       </c>
     </row>
@@ -2584,40 +2680,40 @@
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
-      <c r="L31" s="47">
-        <f>주요뉴스!C4</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47">
-        <f>주요뉴스!A4</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="47"/>
-      <c r="P31" s="45">
-        <f>주요뉴스!E4</f>
+      <c r="L31" s="62">
+        <f>주요뉴스!E6</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62">
+        <f>주요뉴스!C6</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63">
+        <f>주요뉴스!B6</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:23">
-      <c r="L32" s="47">
-        <f>주요뉴스!C5</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47">
-        <f>주요뉴스!A5</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="47"/>
-      <c r="P32" s="45">
-        <f>주요뉴스!E5</f>
+      <c r="L32" s="62">
+        <f>주요뉴스!E7</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62">
+        <f>주요뉴스!C7</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63">
+        <f>주요뉴스!B7</f>
         <v>0</v>
       </c>
     </row>
@@ -2632,163 +2728,163 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="L33" s="47">
-        <f>주요뉴스!C6</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47">
-        <f>주요뉴스!A6</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="47"/>
-      <c r="P33" s="45">
-        <f>주요뉴스!E6</f>
+      <c r="L33" s="62">
+        <f>주요뉴스!E8</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62">
+        <f>주요뉴스!C8</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63">
+        <f>주요뉴스!B8</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23">
-      <c r="L34" s="47">
-        <f>주요뉴스!C7</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47">
-        <f>주요뉴스!A7</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="47"/>
-      <c r="P34" s="45">
-        <f>주요뉴스!E7</f>
+      <c r="L34" s="62">
+        <f>주요뉴스!E9</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62">
+        <f>주요뉴스!C9</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="62"/>
+      <c r="P34" s="63">
+        <f>주요뉴스!B9</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23">
-      <c r="L35" s="47">
-        <f>주요뉴스!C8</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47">
-        <f>주요뉴스!A8</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="47"/>
-      <c r="P35" s="45">
-        <f>주요뉴스!E8</f>
+      <c r="L35" s="62">
+        <f>주요뉴스!E10</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62">
+        <f>주요뉴스!C10</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="62"/>
+      <c r="P35" s="63">
+        <f>주요뉴스!B10</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
-      <c r="L36" s="47">
-        <f>주요뉴스!C9</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47">
-        <f>주요뉴스!A9</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="47"/>
-      <c r="P36" s="45">
-        <f>주요뉴스!E9</f>
+      <c r="L36" s="62">
+        <f>주요뉴스!E11</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62">
+        <f>주요뉴스!C11</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="62"/>
+      <c r="P36" s="63">
+        <f>주요뉴스!B11</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:23">
-      <c r="L37" s="47">
-        <f>주요뉴스!C10</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47">
-        <f>주요뉴스!A10</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="47"/>
-      <c r="P37" s="45">
-        <f>주요뉴스!E10</f>
+      <c r="L37" s="62">
+        <f>주요뉴스!E12</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62">
+        <f>주요뉴스!C12</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="62"/>
+      <c r="P37" s="63">
+        <f>주요뉴스!B12</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
-      <c r="L38" s="47">
-        <f>주요뉴스!C11</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47">
-        <f>주요뉴스!A11</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="47"/>
-      <c r="P38" s="45">
-        <f>주요뉴스!E11</f>
+      <c r="L38" s="62">
+        <f>주요뉴스!E13</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62">
+        <f>주요뉴스!C13</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="62"/>
+      <c r="P38" s="63">
+        <f>주요뉴스!B13</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23">
-      <c r="L39" s="47">
-        <f>주요뉴스!C12</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47">
-        <f>주요뉴스!A12</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="47"/>
-      <c r="P39" s="45">
-        <f>주요뉴스!E12</f>
+      <c r="L39" s="62">
+        <f>주요뉴스!E14</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62">
+        <f>주요뉴스!C14</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="62"/>
+      <c r="P39" s="63">
+        <f>주요뉴스!B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
-      <c r="L40" s="47">
-        <f>주요뉴스!C13</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47">
-        <f>주요뉴스!A13</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="47"/>
-      <c r="P40" s="45">
-        <f>주요뉴스!E13</f>
+      <c r="L40" s="62">
+        <f>주요뉴스!E15</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62">
+        <f>주요뉴스!C15</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="62"/>
+      <c r="P40" s="63">
+        <f>주요뉴스!B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23">
-      <c r="L41" s="47">
-        <f>주요뉴스!C14</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47">
-        <f>주요뉴스!A14</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="47"/>
-      <c r="P41" s="45">
-        <f>주요뉴스!E14</f>
+      <c r="L41" s="62">
+        <f>주요뉴스!E16</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62">
+        <f>주요뉴스!C16</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63">
+        <f>주요뉴스!B16</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="27"/>
-      <c r="L42" s="47">
-        <f>주요뉴스!C15</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47">
-        <f>주요뉴스!A15</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="47"/>
-      <c r="P42" s="45">
-        <f>주요뉴스!E15</f>
+      <c r="L42" s="62">
+        <f>주요뉴스!E17</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62">
+        <f>주요뉴스!C17</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="62"/>
+      <c r="P42" s="63">
+        <f>주요뉴스!B17</f>
         <v>0</v>
       </c>
     </row>
@@ -2804,18 +2900,18 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
-      <c r="L43" s="47">
-        <f>주요뉴스!C16</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47">
-        <f>주요뉴스!A16</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="47"/>
-      <c r="P43" s="45">
-        <f>주요뉴스!E16</f>
+      <c r="L43" s="62">
+        <f>주요뉴스!E18</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62">
+        <f>주요뉴스!C18</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="62"/>
+      <c r="P43" s="63">
+        <f>주요뉴스!B18</f>
         <v>0</v>
       </c>
       <c r="Q43"/>
@@ -2828,18 +2924,18 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="28"/>
-      <c r="L44" s="47">
-        <f>주요뉴스!C17</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47">
-        <f>주요뉴스!A17</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="47"/>
-      <c r="P44" s="45">
-        <f>주요뉴스!E17</f>
+      <c r="L44" s="62">
+        <f>주요뉴스!E19</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62">
+        <f>주요뉴스!C19</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="62"/>
+      <c r="P44" s="63">
+        <f>주요뉴스!B19</f>
         <v>0</v>
       </c>
       <c r="S44" s="9"/>
@@ -2850,90 +2946,94 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="28"/>
-      <c r="L45" s="47">
-        <f>주요뉴스!C18</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47">
-        <f>주요뉴스!A18</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="47"/>
-      <c r="P45" s="45">
-        <f>주요뉴스!E18</f>
+      <c r="L45" s="62">
+        <f>주요뉴스!E20</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62">
+        <f>주요뉴스!C20</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="62"/>
+      <c r="P45" s="63">
+        <f>주요뉴스!B20</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1">
       <c r="A46" s="28"/>
-      <c r="L46" s="47">
-        <f>주요뉴스!C19</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47">
-        <f>주요뉴스!A19</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="47"/>
-      <c r="P46" s="45">
-        <f>주요뉴스!E19</f>
+      <c r="L46" s="62">
+        <f>주요뉴스!E21</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62">
+        <f>주요뉴스!C21</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="62"/>
+      <c r="P46" s="63">
+        <f>주요뉴스!B21</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23">
-      <c r="L47" s="47">
-        <f>주요뉴스!C20</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47">
-        <f>주요뉴스!A20</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="47"/>
-      <c r="P47" s="45">
-        <f>주요뉴스!E20</f>
+      <c r="L47" s="62">
+        <f>주요뉴스!E22</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62">
+        <f>주요뉴스!C22</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="62"/>
+      <c r="P47" s="63">
+        <f>주요뉴스!B22</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23">
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
     </row>
     <row r="51" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="L27:P27"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="S14:U14"/>
@@ -2950,37 +3050,33 @@
     <mergeCell ref="M6:M15"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="S6:U6"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4273,23 +4369,922 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AFCA0E-1A64-4DD2-A0BA-335CFE4B02F3}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="G1"/>
+  <dimension ref="B1:F218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="47"/>
+    <col min="3" max="3" width="35.625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="59.75" style="45" customWidth="1"/>
+    <col min="5" max="6" width="19.875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:7" s="1" customFormat="1" ht="42.6" customHeight="1">
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="1" spans="2:6" ht="31.5">
+      <c r="D1" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="20.25" thickBot="1">
+      <c r="B3" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" thickTop="1">
+      <c r="B4" s="50"/>
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="50"/>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="50"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="50"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="50"/>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="50"/>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="50"/>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="50"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="50"/>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="50"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="50"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="50"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="50"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="50"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="50"/>
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="50"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="50"/>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="50"/>
+      <c r="D21" s="52"/>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="50"/>
+      <c r="C22" s="52"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="50"/>
+      <c r="F23" s="51"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="50"/>
+      <c r="F24" s="51"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="50"/>
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="50"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="50"/>
+      <c r="D27" s="52"/>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="50"/>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="50"/>
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="50"/>
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="50"/>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="50"/>
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="50"/>
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="50"/>
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="50"/>
+      <c r="F35" s="51"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="50"/>
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="50"/>
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="50"/>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="50"/>
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="50"/>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="50"/>
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="50"/>
+      <c r="F42" s="51"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="50"/>
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="50"/>
+      <c r="F44" s="51"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="50"/>
+      <c r="F45" s="51"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="50"/>
+      <c r="F46" s="51"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="50"/>
+      <c r="F47" s="51"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="50"/>
+      <c r="F48" s="51"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="50"/>
+      <c r="F49" s="51"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="50"/>
+      <c r="F50" s="51"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="50"/>
+      <c r="F51" s="51"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="50"/>
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="50"/>
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="50"/>
+      <c r="F54" s="51"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="50"/>
+      <c r="F55" s="51"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="50"/>
+      <c r="C56" s="52"/>
+      <c r="F56" s="51"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="50"/>
+      <c r="F57" s="51"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="50"/>
+      <c r="C58" s="52"/>
+      <c r="F58" s="51"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="50"/>
+      <c r="F59" s="51"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="50"/>
+      <c r="F60" s="51"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="50"/>
+      <c r="F61" s="51"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="50"/>
+      <c r="F62" s="51"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="50"/>
+      <c r="F63" s="51"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="50"/>
+      <c r="F64" s="51"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="50"/>
+      <c r="F65" s="51"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="50"/>
+      <c r="F66" s="51"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="50"/>
+      <c r="C67" s="52"/>
+      <c r="F67" s="51"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="50"/>
+      <c r="C68" s="52"/>
+      <c r="F68" s="51"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="50"/>
+      <c r="F69" s="51"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="50"/>
+      <c r="F70" s="51"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="50"/>
+      <c r="F71" s="51"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="50"/>
+      <c r="C72" s="52"/>
+      <c r="F72" s="51"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="50"/>
+      <c r="F73" s="51"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="50"/>
+      <c r="F74" s="51"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="50"/>
+      <c r="F75" s="51"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="50"/>
+      <c r="F76" s="51"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="50"/>
+      <c r="F77" s="51"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="50"/>
+      <c r="F78" s="51"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="50"/>
+      <c r="F79" s="51"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="50"/>
+      <c r="C80" s="52"/>
+      <c r="F80" s="51"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="50"/>
+      <c r="F81" s="51"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="50"/>
+      <c r="F82" s="51"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="50"/>
+      <c r="F83" s="51"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="50"/>
+      <c r="C84" s="52"/>
+      <c r="F84" s="51"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="50"/>
+      <c r="F85" s="51"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="50"/>
+      <c r="F86" s="51"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="50"/>
+      <c r="F87" s="51"/>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="50"/>
+      <c r="F88" s="51"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="50"/>
+      <c r="F89" s="51"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="50"/>
+      <c r="F90" s="51"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="50"/>
+      <c r="F91" s="51"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="50"/>
+      <c r="F92" s="51"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="50"/>
+      <c r="F93" s="51"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="50"/>
+      <c r="F94" s="51"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="50"/>
+      <c r="F95" s="51"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="50"/>
+      <c r="F96" s="51"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="50"/>
+      <c r="F97" s="51"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="50"/>
+      <c r="C98" s="52"/>
+      <c r="F98" s="51"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="50"/>
+      <c r="F99" s="51"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="50"/>
+      <c r="F100" s="51"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="50"/>
+      <c r="F101" s="51"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="50"/>
+      <c r="C102" s="52"/>
+      <c r="F102" s="51"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="50"/>
+      <c r="F103" s="51"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="50"/>
+      <c r="F104" s="51"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="50"/>
+      <c r="F105" s="51"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="50"/>
+      <c r="F106" s="51"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="50"/>
+      <c r="F107" s="51"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="50"/>
+      <c r="F108" s="51"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="50"/>
+      <c r="F109" s="51"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="50"/>
+      <c r="F110" s="51"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="50"/>
+      <c r="F111" s="51"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="50"/>
+      <c r="F112" s="51"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="50"/>
+      <c r="F113" s="51"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="50"/>
+      <c r="F114" s="51"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="50"/>
+      <c r="C115" s="52"/>
+      <c r="F115" s="51"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="50"/>
+      <c r="F116" s="51"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="50"/>
+      <c r="F117" s="51"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="50"/>
+      <c r="F118" s="51"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="50"/>
+      <c r="F119" s="51"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="50"/>
+      <c r="F120" s="51"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="50"/>
+      <c r="F121" s="51"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="50"/>
+      <c r="F122" s="51"/>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="50"/>
+      <c r="F123" s="51"/>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="50"/>
+      <c r="F124" s="51"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="50"/>
+      <c r="F125" s="51"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="50"/>
+      <c r="F126" s="51"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="50"/>
+      <c r="F127" s="51"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="50"/>
+      <c r="F128" s="51"/>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="50"/>
+      <c r="F129" s="51"/>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="50"/>
+      <c r="F130" s="51"/>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="50"/>
+      <c r="F131" s="51"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="50"/>
+      <c r="F132" s="51"/>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="50"/>
+      <c r="F133" s="51"/>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" s="50"/>
+      <c r="F134" s="51"/>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="50"/>
+      <c r="F135" s="51"/>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" s="50"/>
+      <c r="F136" s="51"/>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="50"/>
+      <c r="F137" s="51"/>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" s="50"/>
+      <c r="F138" s="51"/>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="50"/>
+      <c r="F139" s="51"/>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="50"/>
+      <c r="F140" s="51"/>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="50"/>
+      <c r="F141" s="51"/>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="50"/>
+      <c r="F142" s="51"/>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="50"/>
+      <c r="F143" s="51"/>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="50"/>
+      <c r="F144" s="51"/>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="50"/>
+      <c r="F145" s="51"/>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="50"/>
+      <c r="F146" s="51"/>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="50"/>
+      <c r="F147" s="51"/>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" s="50"/>
+      <c r="F148" s="51"/>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="50"/>
+      <c r="C149" s="52"/>
+      <c r="F149" s="51"/>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="50"/>
+      <c r="F150" s="51"/>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="50"/>
+      <c r="F151" s="51"/>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="50"/>
+      <c r="F152" s="51"/>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="50"/>
+      <c r="F153" s="51"/>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="50"/>
+      <c r="F154" s="51"/>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="50"/>
+      <c r="C155" s="52"/>
+      <c r="F155" s="51"/>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" s="50"/>
+      <c r="F156" s="51"/>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="50"/>
+      <c r="F157" s="51"/>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="50"/>
+      <c r="F158" s="51"/>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="50"/>
+      <c r="F159" s="51"/>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" s="50"/>
+      <c r="F160" s="51"/>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" s="50"/>
+      <c r="F161" s="51"/>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162" s="50"/>
+      <c r="F162" s="51"/>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="50"/>
+      <c r="F163" s="51"/>
+    </row>
+    <row r="164" spans="2:6">
+      <c r="B164" s="50"/>
+      <c r="F164" s="51"/>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" s="50"/>
+      <c r="F165" s="51"/>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" s="50"/>
+      <c r="F166" s="51"/>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="B167" s="50"/>
+      <c r="F167" s="51"/>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" s="50"/>
+      <c r="F168" s="51"/>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" s="50"/>
+      <c r="F169" s="51"/>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" s="50"/>
+      <c r="F170" s="51"/>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" s="50"/>
+      <c r="F171" s="51"/>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="B172" s="50"/>
+      <c r="F172" s="51"/>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" s="50"/>
+      <c r="F173" s="51"/>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" s="50"/>
+      <c r="F174" s="51"/>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" s="50"/>
+      <c r="F175" s="51"/>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" s="50"/>
+      <c r="F176" s="51"/>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" s="50"/>
+      <c r="F177" s="51"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="50"/>
+      <c r="F178" s="51"/>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" s="50"/>
+      <c r="F179" s="51"/>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" s="50"/>
+      <c r="F180" s="51"/>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" s="50"/>
+      <c r="F181" s="51"/>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" s="50"/>
+      <c r="F182" s="51"/>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" s="50"/>
+      <c r="F183" s="51"/>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" s="50"/>
+      <c r="F184" s="51"/>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" s="50"/>
+      <c r="F185" s="51"/>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" s="50"/>
+      <c r="F186" s="51"/>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="B187" s="50"/>
+      <c r="F187" s="51"/>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" s="50"/>
+      <c r="F188" s="51"/>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" s="50"/>
+      <c r="C189" s="52"/>
+      <c r="F189" s="51"/>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190" s="50"/>
+      <c r="F190" s="51"/>
+    </row>
+    <row r="191" spans="2:6">
+      <c r="B191" s="50"/>
+      <c r="D191" s="52"/>
+      <c r="F191" s="51"/>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" s="50"/>
+      <c r="C192" s="52"/>
+      <c r="F192" s="51"/>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193" s="50"/>
+      <c r="F193" s="51"/>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194" s="50"/>
+      <c r="F194" s="51"/>
+    </row>
+    <row r="195" spans="2:6">
+      <c r="B195" s="50"/>
+      <c r="F195" s="51"/>
+    </row>
+    <row r="196" spans="2:6">
+      <c r="B196" s="50"/>
+      <c r="F196" s="51"/>
+    </row>
+    <row r="197" spans="2:6">
+      <c r="B197" s="50"/>
+      <c r="C197" s="52"/>
+      <c r="F197" s="51"/>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="B198" s="50"/>
+      <c r="F198" s="51"/>
+    </row>
+    <row r="199" spans="2:6">
+      <c r="B199" s="50"/>
+      <c r="F199" s="51"/>
+    </row>
+    <row r="200" spans="2:6">
+      <c r="B200" s="50"/>
+      <c r="F200" s="51"/>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="B201" s="50"/>
+      <c r="F201" s="51"/>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202" s="50"/>
+      <c r="F202" s="51"/>
+    </row>
+    <row r="203" spans="2:6">
+      <c r="B203" s="50"/>
+      <c r="F203" s="51"/>
+    </row>
+    <row r="204" spans="2:6">
+      <c r="B204" s="50"/>
+      <c r="F204" s="51"/>
+    </row>
+    <row r="205" spans="2:6">
+      <c r="B205" s="50"/>
+      <c r="F205" s="51"/>
+    </row>
+    <row r="206" spans="2:6">
+      <c r="B206" s="50"/>
+      <c r="F206" s="51"/>
+    </row>
+    <row r="207" spans="2:6">
+      <c r="B207" s="50"/>
+      <c r="F207" s="51"/>
+    </row>
+    <row r="208" spans="2:6">
+      <c r="B208" s="50"/>
+      <c r="C208" s="52"/>
+      <c r="F208" s="51"/>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="B209" s="50"/>
+      <c r="F209" s="51"/>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="B210" s="50"/>
+      <c r="F210" s="51"/>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" s="50"/>
+      <c r="F211" s="51"/>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" s="50"/>
+      <c r="F212" s="51"/>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="B213" s="50"/>
+      <c r="F213" s="51"/>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="B214" s="50"/>
+      <c r="F214" s="51"/>
+    </row>
+    <row r="215" spans="2:6">
+      <c r="B215" s="50"/>
+      <c r="F215" s="51"/>
+    </row>
+    <row r="216" spans="2:6">
+      <c r="B216" s="50"/>
+      <c r="C216" s="52"/>
+      <c r="F216" s="51"/>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="B217" s="50"/>
+      <c r="F217" s="51"/>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="B218" s="50"/>
+      <c r="F218" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
+++ b/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C1FA0-E888-44BE-BC06-6DBAD89D4B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A426A25-0FB1-4923-A98F-192EAC544C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="시황정보" sheetId="11" r:id="rId7"/>
     <sheet name="투자정보" sheetId="12" r:id="rId8"/>
     <sheet name="종목분석" sheetId="13" r:id="rId9"/>
-    <sheet name="배경화면저장페이지 나중에 입력해서 수정-디자인중" sheetId="19" r:id="rId10"/>
+    <sheet name="산업분석" sheetId="20" r:id="rId10"/>
+    <sheet name="경제분석" sheetId="21" r:id="rId11"/>
+    <sheet name="배경화면저장페이지 나중에 입력해서 수정-디자인중" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>오늘자 뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,9 +263,6 @@
     <t>제목</t>
   </si>
   <si>
-    <t>제목 Url</t>
-  </si>
-  <si>
     <t>증권사</t>
   </si>
   <si>
@@ -297,6 +296,18 @@
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>종목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +317,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +474,41 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -600,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,12 +770,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,12 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -763,12 +797,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,22 +806,13 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -805,7 +824,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2158,7 +2201,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2184,49 +2227,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32">
-      <c r="Z1" s="50" t="s">
+      <c r="Z1" s="46" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="2:32" ht="35.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="E3" s="62" t="s">
+      <c r="C3" s="55"/>
+      <c r="E3" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="H3" s="62" t="s">
+      <c r="F3" s="55"/>
+      <c r="H3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="K3" s="62" t="s">
+      <c r="I3" s="55"/>
+      <c r="K3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AB3" s="64" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AB3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1">
       <c r="D4" s="11"/>
@@ -2281,18 +2324,18 @@
       <c r="AB4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="63" t="s">
+      <c r="AC4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
     </row>
     <row r="5" spans="2:32">
       <c r="K5" s="23">
         <v>1</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="57" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="23">
@@ -2350,11 +2393,11 @@
         <f>KOSPI!C2</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="46" t="s">
+      <c r="AB5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
       <c r="AE5" s="28"/>
       <c r="AF5" s="33" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,2,0)</f>
@@ -2365,7 +2408,7 @@
       <c r="K6" s="12">
         <v>2</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="57"/>
       <c r="M6" s="12">
         <v>2</v>
       </c>
@@ -2421,11 +2464,11 @@
         <f>KOSPI!C3</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="46" t="s">
+      <c r="AB6" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
       <c r="AE6" s="29"/>
       <c r="AF6" s="32" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,3,0)</f>
@@ -2436,7 +2479,7 @@
       <c r="K7" s="12">
         <v>3</v>
       </c>
-      <c r="L7" s="66"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="12">
         <v>3</v>
       </c>
@@ -2492,11 +2535,11 @@
         <f>KOSPI!C4</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="46" t="s">
+      <c r="AB7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
       <c r="AE7" s="29"/>
       <c r="AF7" s="34" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,4,0)</f>
@@ -2507,7 +2550,7 @@
       <c r="K8" s="12">
         <v>4</v>
       </c>
-      <c r="L8" s="66"/>
+      <c r="L8" s="57"/>
       <c r="M8" s="12">
         <v>4</v>
       </c>
@@ -2563,11 +2606,11 @@
         <f>KOSPI!C5</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="46" t="s">
+      <c r="AB8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
       <c r="AE8" s="29"/>
       <c r="AF8" s="35" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,5,0)</f>
@@ -2575,22 +2618,22 @@
       </c>
     </row>
     <row r="9" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="E9" s="62" t="s">
+      <c r="C9" s="55"/>
+      <c r="E9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="H9" s="62" t="s">
+      <c r="F9" s="55"/>
+      <c r="H9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="62"/>
+      <c r="I9" s="55"/>
       <c r="K9" s="12">
         <v>5</v>
       </c>
-      <c r="L9" s="66"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="12">
         <v>5</v>
       </c>
@@ -2646,11 +2689,11 @@
         <f>KOSPI!C6</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="46" t="s">
+      <c r="AB9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
       <c r="AF9" s="35" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,6,0)</f>
         <v>#N/A</v>
@@ -2664,7 +2707,7 @@
       <c r="K10" s="12">
         <v>6</v>
       </c>
-      <c r="L10" s="66"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="12">
         <v>6</v>
       </c>
@@ -2720,11 +2763,11 @@
         <f>KOSPI!C7</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="46" t="s">
+      <c r="AB10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
       <c r="AF10" s="36" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,7,0)</f>
         <v>#N/A</v>
@@ -2734,7 +2777,7 @@
       <c r="K11" s="12">
         <v>7</v>
       </c>
-      <c r="L11" s="66"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="12">
         <v>7</v>
       </c>
@@ -2790,11 +2833,11 @@
         <f>KOSPI!C8</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
+      <c r="AB11" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
       <c r="AF11" s="33" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,8,0)</f>
         <v>#N/A</v>
@@ -2804,7 +2847,7 @@
       <c r="K12" s="12">
         <v>8</v>
       </c>
-      <c r="L12" s="66"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="12">
         <v>8</v>
       </c>
@@ -2860,11 +2903,11 @@
         <f>KOSPI!C9</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="46" t="s">
+      <c r="AB12" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
       <c r="AF12" s="33" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,9,0)</f>
         <v>#N/A</v>
@@ -2874,7 +2917,7 @@
       <c r="K13" s="12">
         <v>9</v>
       </c>
-      <c r="L13" s="66"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="12">
         <v>9</v>
       </c>
@@ -2930,11 +2973,11 @@
         <f>KOSPI!C10</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="46" t="s">
+      <c r="AB13" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
       <c r="AF13" s="33" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,10,0)</f>
         <v>#N/A</v>
@@ -2944,7 +2987,7 @@
       <c r="K14" s="12">
         <v>10</v>
       </c>
-      <c r="L14" s="67"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="12">
         <v>10</v>
       </c>
@@ -3000,33 +3043,33 @@
         <f>KOSPI!C11</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="46" t="s">
+      <c r="AB14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
       <c r="AF14" s="33" t="e">
         <f>VLOOKUP($AC$4,$N$5:$Y$24,11,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="E15" s="62" t="s">
+      <c r="C15" s="55"/>
+      <c r="E15" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="H15" s="62" t="s">
+      <c r="F15" s="55"/>
+      <c r="H15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="55"/>
       <c r="K15" s="12">
         <v>11</v>
       </c>
-      <c r="L15" s="65" t="s">
+      <c r="L15" s="56" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="12">
@@ -3084,16 +3127,16 @@
         <f>KOSDAQ!C7</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
       <c r="AF15" s="33"/>
     </row>
     <row r="16" spans="2:32" ht="17.25" thickBot="1">
       <c r="K16" s="12">
         <v>12</v>
       </c>
-      <c r="L16" s="66"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="12">
         <v>2</v>
       </c>
@@ -3149,21 +3192,21 @@
         <f>KOSDAQ!C8</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="64" t="s">
+      <c r="AB16" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AC16" s="64"/>
+      <c r="AC16" s="59"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="64" t="s">
+      <c r="AE16" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AF16" s="64"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1">
       <c r="K17" s="12">
         <v>13</v>
       </c>
-      <c r="L17" s="66"/>
+      <c r="L17" s="57"/>
       <c r="M17" s="12">
         <v>3</v>
       </c>
@@ -3237,7 +3280,7 @@
       <c r="K18" s="12">
         <v>14</v>
       </c>
-      <c r="L18" s="66"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="12">
         <v>4</v>
       </c>
@@ -3309,7 +3352,7 @@
       <c r="K19" s="12">
         <v>15</v>
       </c>
-      <c r="L19" s="66"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="12">
         <v>5</v>
       </c>
@@ -3377,7 +3420,7 @@
       <c r="K20" s="12">
         <v>16</v>
       </c>
-      <c r="L20" s="66"/>
+      <c r="L20" s="57"/>
       <c r="M20" s="12">
         <v>6</v>
       </c>
@@ -3437,27 +3480,27 @@
         <v>40</v>
       </c>
       <c r="AF20" s="9">
-        <f>COUNTA(종목분석!A4:A253)</f>
+        <f>COUNTA(종목분석!B4:B253)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="17.25" thickBot="1">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="E21" s="62" t="s">
+      <c r="C21" s="55"/>
+      <c r="E21" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="H21" s="62" t="s">
+      <c r="F21" s="55"/>
+      <c r="H21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="62"/>
+      <c r="I21" s="55"/>
       <c r="K21" s="12">
         <v>17</v>
       </c>
-      <c r="L21" s="66"/>
+      <c r="L21" s="57"/>
       <c r="M21" s="12">
         <v>7</v>
       </c>
@@ -3518,7 +3561,7 @@
       <c r="K22" s="12">
         <v>18</v>
       </c>
-      <c r="L22" s="66"/>
+      <c r="L22" s="57"/>
       <c r="M22" s="12">
         <v>8</v>
       </c>
@@ -3574,16 +3617,16 @@
         <f>KOSDAQ!C14</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="64" t="s">
+      <c r="AE22" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AF22" s="64"/>
+      <c r="AF22" s="59"/>
     </row>
     <row r="23" spans="1:33" ht="17.25" thickBot="1">
       <c r="K23" s="12">
         <v>19</v>
       </c>
-      <c r="L23" s="66"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="12">
         <v>9</v>
       </c>
@@ -3650,7 +3693,7 @@
       <c r="K24" s="12">
         <v>20</v>
       </c>
-      <c r="L24" s="67"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="12">
         <v>10</v>
       </c>
@@ -3719,8 +3762,8 @@
       <c r="M25" s="9"/>
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
       <c r="R25" s="26"/>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
@@ -3729,7 +3772,7 @@
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="44"/>
+      <c r="Z25" s="42"/>
     </row>
     <row r="26" spans="1:33" ht="17.25" thickBot="1"/>
     <row r="27" spans="1:33" ht="17.25" thickBot="1">
@@ -3743,44 +3786,44 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
-      <c r="K27" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AB27" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
+      <c r="K27" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AB27" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1">
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62" t="s">
+      <c r="L28" s="55"/>
+      <c r="M28" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -3815,19 +3858,19 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="60">
+      <c r="K29" s="54">
         <f>주요뉴스!E4</f>
         <v>0</v>
       </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="61">
+      <c r="L29" s="54"/>
+      <c r="M29" s="53">
         <f>주요뉴스!C4</f>
         <v>0</v>
       </c>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
@@ -3836,7 +3879,7 @@
       <c r="W29" s="25"/>
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
-      <c r="Z29" s="56" t="str">
+      <c r="Z29" s="50" t="str">
         <f>IF(주요뉴스!G4="","",HYPERLINK(주요뉴스!G4, "▶"))</f>
         <v/>
       </c>
@@ -3854,19 +3897,19 @@
       <c r="AF29" s="26"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="60">
+      <c r="K30" s="54">
         <f>주요뉴스!E5</f>
         <v>0</v>
       </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="61">
+      <c r="L30" s="54"/>
+      <c r="M30" s="53">
         <f>주요뉴스!C5</f>
         <v>0</v>
       </c>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -3875,7 +3918,7 @@
       <c r="W30" s="25"/>
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
-      <c r="Z30" s="56" t="str">
+      <c r="Z30" s="50" t="str">
         <f>IF(주요뉴스!G5="","",HYPERLINK(주요뉴스!G5, "▶"))</f>
         <v/>
       </c>
@@ -3894,19 +3937,19 @@
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="60">
+      <c r="K31" s="54">
         <f>주요뉴스!E6</f>
         <v>0</v>
       </c>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61">
+      <c r="L31" s="54"/>
+      <c r="M31" s="53">
         <f>주요뉴스!C6</f>
         <v>0</v>
       </c>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
@@ -3915,17 +3958,17 @@
       <c r="W31" s="25"/>
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
-      <c r="Z31" s="56" t="str">
+      <c r="Z31" s="50" t="str">
         <f>IF(주요뉴스!G6="","",HYPERLINK(주요뉴스!G6, "▶"))</f>
         <v/>
       </c>
       <c r="AA31" s="26"/>
-      <c r="AB31" s="60">
+      <c r="AB31" s="54">
         <f>종목별이슈!A5</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="60"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
       <c r="AE31" s="26">
         <f>종목별이슈!D5</f>
         <v>0</v>
@@ -3934,19 +3977,19 @@
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="60">
+      <c r="K32" s="54">
         <f>주요뉴스!E7</f>
         <v>0</v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="61">
+      <c r="L32" s="54"/>
+      <c r="M32" s="53">
         <f>주요뉴스!C7</f>
         <v>0</v>
       </c>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
@@ -3955,17 +3998,17 @@
       <c r="W32" s="25"/>
       <c r="X32" s="25"/>
       <c r="Y32" s="25"/>
-      <c r="Z32" s="56" t="str">
+      <c r="Z32" s="50" t="str">
         <f>IF(주요뉴스!G7="","",HYPERLINK(주요뉴스!G7, "▶"))</f>
         <v/>
       </c>
       <c r="AA32" s="26"/>
-      <c r="AB32" s="60">
+      <c r="AB32" s="54">
         <f>종목별이슈!A6</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="60"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
       <c r="AE32" s="26">
         <f>종목별이슈!D6</f>
         <v>0</v>
@@ -3974,19 +4017,19 @@
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="K33" s="60">
+      <c r="K33" s="54">
         <f>주요뉴스!E8</f>
         <v>0</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="61">
+      <c r="L33" s="54"/>
+      <c r="M33" s="53">
         <f>주요뉴스!C8</f>
         <v>0</v>
       </c>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
@@ -3995,17 +4038,17 @@
       <c r="W33" s="25"/>
       <c r="X33" s="25"/>
       <c r="Y33" s="25"/>
-      <c r="Z33" s="56" t="str">
+      <c r="Z33" s="50" t="str">
         <f>IF(주요뉴스!G8="","",HYPERLINK(주요뉴스!G8, "▶"))</f>
         <v/>
       </c>
       <c r="AA33" s="26"/>
-      <c r="AB33" s="60">
+      <c r="AB33" s="54">
         <f>종목별이슈!A7</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="60"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
       <c r="AE33" s="26">
         <f>종목별이슈!D7</f>
         <v>0</v>
@@ -4014,19 +4057,19 @@
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="K34" s="60">
+      <c r="K34" s="54">
         <f>주요뉴스!E9</f>
         <v>0</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="61">
+      <c r="L34" s="54"/>
+      <c r="M34" s="53">
         <f>주요뉴스!C9</f>
         <v>0</v>
       </c>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
@@ -4035,17 +4078,17 @@
       <c r="W34" s="25"/>
       <c r="X34" s="25"/>
       <c r="Y34" s="25"/>
-      <c r="Z34" s="56" t="str">
+      <c r="Z34" s="50" t="str">
         <f>IF(주요뉴스!G9="","",HYPERLINK(주요뉴스!G9, "▶"))</f>
         <v/>
       </c>
       <c r="AA34" s="26"/>
-      <c r="AB34" s="60">
+      <c r="AB34" s="54">
         <f>종목별이슈!A8</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
       <c r="AE34" s="26">
         <f>종목별이슈!D8</f>
         <v>0</v>
@@ -4054,19 +4097,19 @@
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="K35" s="60">
+      <c r="K35" s="54">
         <f>주요뉴스!E10</f>
         <v>0</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="61">
+      <c r="L35" s="54"/>
+      <c r="M35" s="53">
         <f>주요뉴스!C10</f>
         <v>0</v>
       </c>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
@@ -4075,17 +4118,17 @@
       <c r="W35" s="25"/>
       <c r="X35" s="25"/>
       <c r="Y35" s="25"/>
-      <c r="Z35" s="56" t="str">
+      <c r="Z35" s="50" t="str">
         <f>IF(주요뉴스!G10="","",HYPERLINK(주요뉴스!G10, "▶"))</f>
         <v/>
       </c>
       <c r="AA35" s="26"/>
-      <c r="AB35" s="60">
+      <c r="AB35" s="54">
         <f>종목별이슈!A9</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
       <c r="AE35" s="26">
         <f>종목별이슈!D9</f>
         <v>0</v>
@@ -4094,19 +4137,19 @@
       <c r="AG35" s="26"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="K36" s="60">
+      <c r="K36" s="54">
         <f>주요뉴스!E11</f>
         <v>0</v>
       </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="61">
+      <c r="L36" s="54"/>
+      <c r="M36" s="53">
         <f>주요뉴스!C11</f>
         <v>0</v>
       </c>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
@@ -4115,17 +4158,17 @@
       <c r="W36" s="25"/>
       <c r="X36" s="25"/>
       <c r="Y36" s="25"/>
-      <c r="Z36" s="56" t="str">
+      <c r="Z36" s="50" t="str">
         <f>IF(주요뉴스!G11="","",HYPERLINK(주요뉴스!G11, "▶"))</f>
         <v/>
       </c>
       <c r="AA36" s="26"/>
-      <c r="AB36" s="60">
+      <c r="AB36" s="54">
         <f>종목별이슈!A10</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
       <c r="AE36" s="26">
         <f>종목별이슈!D10</f>
         <v>0</v>
@@ -4134,19 +4177,19 @@
       <c r="AG36" s="26"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="K37" s="60">
+      <c r="K37" s="54">
         <f>주요뉴스!E12</f>
         <v>0</v>
       </c>
-      <c r="L37" s="60"/>
-      <c r="M37" s="61">
+      <c r="L37" s="54"/>
+      <c r="M37" s="53">
         <f>주요뉴스!C12</f>
         <v>0</v>
       </c>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
@@ -4155,17 +4198,17 @@
       <c r="W37" s="25"/>
       <c r="X37" s="25"/>
       <c r="Y37" s="25"/>
-      <c r="Z37" s="56" t="str">
+      <c r="Z37" s="50" t="str">
         <f>IF(주요뉴스!G12="","",HYPERLINK(주요뉴스!G12, "▶"))</f>
         <v/>
       </c>
       <c r="AA37" s="26"/>
-      <c r="AB37" s="60">
+      <c r="AB37" s="54">
         <f>종목별이슈!A11</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
       <c r="AE37" s="26">
         <f>종목별이슈!D11</f>
         <v>0</v>
@@ -4175,19 +4218,19 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="20"/>
-      <c r="K38" s="60">
+      <c r="K38" s="54">
         <f>주요뉴스!E13</f>
         <v>0</v>
       </c>
-      <c r="L38" s="60"/>
-      <c r="M38" s="61">
+      <c r="L38" s="54"/>
+      <c r="M38" s="53">
         <f>주요뉴스!C13</f>
         <v>0</v>
       </c>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
@@ -4196,17 +4239,17 @@
       <c r="W38" s="25"/>
       <c r="X38" s="25"/>
       <c r="Y38" s="25"/>
-      <c r="Z38" s="56" t="str">
+      <c r="Z38" s="50" t="str">
         <f>IF(주요뉴스!G13="","",HYPERLINK(주요뉴스!G13, "▶"))</f>
         <v/>
       </c>
       <c r="AA38" s="26"/>
-      <c r="AB38" s="60">
+      <c r="AB38" s="54">
         <f>종목별이슈!A12</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
       <c r="AE38" s="26">
         <f>종목별이슈!D12</f>
         <v>0</v>
@@ -4216,19 +4259,19 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="21"/>
-      <c r="K39" s="60">
+      <c r="K39" s="54">
         <f>주요뉴스!E14</f>
         <v>0</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="61">
+      <c r="L39" s="54"/>
+      <c r="M39" s="53">
         <f>주요뉴스!C14</f>
         <v>0</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
@@ -4237,17 +4280,17 @@
       <c r="W39" s="25"/>
       <c r="X39" s="25"/>
       <c r="Y39" s="25"/>
-      <c r="Z39" s="56" t="str">
+      <c r="Z39" s="50" t="str">
         <f>IF(주요뉴스!G14="","",HYPERLINK(주요뉴스!G14, "▶"))</f>
         <v/>
       </c>
       <c r="AA39" s="26"/>
-      <c r="AB39" s="60">
+      <c r="AB39" s="54">
         <f>종목별이슈!A13</f>
         <v>0</v>
       </c>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
       <c r="AE39" s="26">
         <f>종목별이슈!D13</f>
         <v>0</v>
@@ -4257,19 +4300,19 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="21"/>
-      <c r="K40" s="60">
+      <c r="K40" s="54">
         <f>주요뉴스!E15</f>
         <v>0</v>
       </c>
-      <c r="L40" s="60"/>
-      <c r="M40" s="61">
+      <c r="L40" s="54"/>
+      <c r="M40" s="53">
         <f>주요뉴스!C15</f>
         <v>0</v>
       </c>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
@@ -4278,17 +4321,17 @@
       <c r="W40" s="25"/>
       <c r="X40" s="25"/>
       <c r="Y40" s="25"/>
-      <c r="Z40" s="56" t="str">
+      <c r="Z40" s="50" t="str">
         <f>IF(주요뉴스!G15="","",HYPERLINK(주요뉴스!G15, "▶"))</f>
         <v/>
       </c>
       <c r="AA40" s="26"/>
-      <c r="AB40" s="60">
+      <c r="AB40" s="54">
         <f>종목별이슈!A14</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="60"/>
-      <c r="AD40" s="60"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
       <c r="AE40" s="26">
         <f>종목별이슈!D14</f>
         <v>0</v>
@@ -4298,19 +4341,19 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="21"/>
-      <c r="K41" s="60">
+      <c r="K41" s="54">
         <f>주요뉴스!E16</f>
         <v>0</v>
       </c>
-      <c r="L41" s="60"/>
-      <c r="M41" s="61">
+      <c r="L41" s="54"/>
+      <c r="M41" s="53">
         <f>주요뉴스!C16</f>
         <v>0</v>
       </c>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
@@ -4319,17 +4362,17 @@
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
-      <c r="Z41" s="56" t="str">
+      <c r="Z41" s="50" t="str">
         <f>IF(주요뉴스!G16="","",HYPERLINK(주요뉴스!G16, "▶"))</f>
         <v/>
       </c>
       <c r="AA41" s="26"/>
-      <c r="AB41" s="60">
+      <c r="AB41" s="54">
         <f>종목별이슈!A15</f>
         <v>0</v>
       </c>
-      <c r="AC41" s="60"/>
-      <c r="AD41" s="60"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
       <c r="AE41" s="26">
         <f>종목별이슈!D15</f>
         <v>0</v>
@@ -4339,19 +4382,19 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="21"/>
-      <c r="K42" s="60">
+      <c r="K42" s="54">
         <f>주요뉴스!E17</f>
         <v>0</v>
       </c>
-      <c r="L42" s="60"/>
-      <c r="M42" s="61">
+      <c r="L42" s="54"/>
+      <c r="M42" s="53">
         <f>주요뉴스!C17</f>
         <v>0</v>
       </c>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
@@ -4360,17 +4403,17 @@
       <c r="W42" s="25"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
-      <c r="Z42" s="56" t="str">
+      <c r="Z42" s="50" t="str">
         <f>IF(주요뉴스!G17="","",HYPERLINK(주요뉴스!G17, "▶"))</f>
         <v/>
       </c>
       <c r="AA42" s="26"/>
-      <c r="AB42" s="60">
+      <c r="AB42" s="54">
         <f>종목별이슈!A16</f>
         <v>0</v>
       </c>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
       <c r="AE42" s="26">
         <f>종목별이슈!D16</f>
         <v>0</v>
@@ -4389,19 +4432,19 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" s="60">
+      <c r="K43" s="54">
         <f>주요뉴스!E18</f>
         <v>0</v>
       </c>
-      <c r="L43" s="60"/>
-      <c r="M43" s="61">
+      <c r="L43" s="54"/>
+      <c r="M43" s="53">
         <f>주요뉴스!C18</f>
         <v>0</v>
       </c>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
@@ -4410,17 +4453,17 @@
       <c r="W43" s="25"/>
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
-      <c r="Z43" s="56" t="str">
+      <c r="Z43" s="50" t="str">
         <f>IF(주요뉴스!G18="","",HYPERLINK(주요뉴스!G18, "▶"))</f>
         <v/>
       </c>
       <c r="AA43" s="26"/>
-      <c r="AB43" s="60">
+      <c r="AB43" s="54">
         <f>종목별이슈!A17</f>
         <v>0</v>
       </c>
-      <c r="AC43" s="60"/>
-      <c r="AD43" s="60"/>
+      <c r="AC43" s="54"/>
+      <c r="AD43" s="54"/>
       <c r="AE43" s="26">
         <f>종목별이슈!D17</f>
         <v>0</v>
@@ -4429,19 +4472,19 @@
       <c r="AG43" s="26"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="K44" s="60">
+      <c r="K44" s="54">
         <f>주요뉴스!E19</f>
         <v>0</v>
       </c>
-      <c r="L44" s="60"/>
-      <c r="M44" s="61">
+      <c r="L44" s="54"/>
+      <c r="M44" s="53">
         <f>주요뉴스!C19</f>
         <v>0</v>
       </c>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
@@ -4450,17 +4493,17 @@
       <c r="W44" s="25"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="25"/>
-      <c r="Z44" s="56" t="str">
+      <c r="Z44" s="50" t="str">
         <f>IF(주요뉴스!G19="","",HYPERLINK(주요뉴스!G19, "▶"))</f>
         <v/>
       </c>
       <c r="AA44" s="26"/>
-      <c r="AB44" s="60">
+      <c r="AB44" s="54">
         <f>종목별이슈!A18</f>
         <v>0</v>
       </c>
-      <c r="AC44" s="60"/>
-      <c r="AD44" s="60"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="54"/>
       <c r="AE44" s="26">
         <f>종목별이슈!D18</f>
         <v>0</v>
@@ -4469,19 +4512,19 @@
       <c r="AG44" s="26"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="K45" s="60">
+      <c r="K45" s="54">
         <f>주요뉴스!E20</f>
         <v>0</v>
       </c>
-      <c r="L45" s="60"/>
-      <c r="M45" s="61">
+      <c r="L45" s="54"/>
+      <c r="M45" s="53">
         <f>주요뉴스!C20</f>
         <v>0</v>
       </c>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
@@ -4490,17 +4533,17 @@
       <c r="W45" s="25"/>
       <c r="X45" s="25"/>
       <c r="Y45" s="25"/>
-      <c r="Z45" s="56" t="str">
+      <c r="Z45" s="50" t="str">
         <f>IF(주요뉴스!G20="","",HYPERLINK(주요뉴스!G20, "▶"))</f>
         <v/>
       </c>
       <c r="AA45" s="26"/>
-      <c r="AB45" s="60">
+      <c r="AB45" s="54">
         <f>종목별이슈!A19</f>
         <v>0</v>
       </c>
-      <c r="AC45" s="60"/>
-      <c r="AD45" s="60"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
       <c r="AE45" s="26">
         <f>종목별이슈!D19</f>
         <v>0</v>
@@ -4509,19 +4552,19 @@
       <c r="AG45" s="26"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1">
-      <c r="K46" s="60">
+      <c r="K46" s="54">
         <f>주요뉴스!E21</f>
         <v>0</v>
       </c>
-      <c r="L46" s="60"/>
-      <c r="M46" s="61">
+      <c r="L46" s="54"/>
+      <c r="M46" s="53">
         <f>주요뉴스!C21</f>
         <v>0</v>
       </c>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
@@ -4530,17 +4573,17 @@
       <c r="W46" s="25"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="25"/>
-      <c r="Z46" s="56" t="str">
+      <c r="Z46" s="50" t="str">
         <f>IF(주요뉴스!G21="","",HYPERLINK(주요뉴스!G21, "▶"))</f>
         <v/>
       </c>
       <c r="AA46" s="26"/>
-      <c r="AB46" s="60">
+      <c r="AB46" s="54">
         <f>종목별이슈!A20</f>
         <v>0</v>
       </c>
-      <c r="AC46" s="60"/>
-      <c r="AD46" s="60"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
       <c r="AE46" s="26">
         <f>종목별이슈!D20</f>
         <v>0</v>
@@ -4549,19 +4592,19 @@
       <c r="AG46" s="26"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="K47" s="60">
+      <c r="K47" s="54">
         <f>주요뉴스!E22</f>
         <v>0</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="61">
+      <c r="L47" s="54"/>
+      <c r="M47" s="53">
         <f>주요뉴스!C22</f>
         <v>0</v>
       </c>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
@@ -4570,17 +4613,17 @@
       <c r="W47" s="25"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="25"/>
-      <c r="Z47" s="56" t="str">
+      <c r="Z47" s="50" t="str">
         <f>IF(주요뉴스!G22="","",HYPERLINK(주요뉴스!G22, "▶"))</f>
         <v/>
       </c>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="60">
+      <c r="AB47" s="54">
         <f>종목별이슈!A21</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="60"/>
-      <c r="AD47" s="60"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
       <c r="AE47" s="26">
         <f>종목별이슈!D21</f>
         <v>0</v>
@@ -4589,37 +4632,85 @@
       <c r="AG47" s="26"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
       <c r="M48" s="26"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="60"/>
-      <c r="V48" s="60"/>
-      <c r="W48" s="60"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="60"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
       <c r="AA48" s="26"/>
       <c r="AG48" s="26"/>
     </row>
     <row r="51" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="M44:Q44"/>
-    <mergeCell ref="M45:Q45"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="M40:Q40"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="N48:Z48"/>
+    <mergeCell ref="M47:Q47"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="K3:Z3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="K27:Z27"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M31:Q31"/>
     <mergeCell ref="AB44:AD44"/>
     <mergeCell ref="AB45:AD45"/>
     <mergeCell ref="AB37:AD37"/>
@@ -4636,63 +4727,15 @@
     <mergeCell ref="M35:Q35"/>
     <mergeCell ref="M36:Q36"/>
     <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="K27:Z27"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="K3:Z3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N48:Z48"/>
-    <mergeCell ref="M47:Q47"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="M44:Q44"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="M42:Q42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4706,6 +4749,140 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53030438-0B1E-4A8A-83A3-6BDB4FAACADE}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="45" customWidth="1"/>
+    <col min="2" max="2" width="43.875" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE6CA88-1CFA-4AE2-821A-C78C90C5A167}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9770AB-D3FB-4B88-A7AC-0BFDAC606607}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4714,7 +4891,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="45"/>
+      <c r="A1" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6078,6091 +6255,6091 @@
   <dimension ref="B1:G971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="51"/>
-    <col min="3" max="3" width="35.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="59.75" style="52" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="47"/>
+    <col min="3" max="3" width="35.625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="59.75" style="48" customWidth="1"/>
     <col min="5" max="5" width="19.875" style="9" customWidth="1"/>
     <col min="6" max="6" width="19.75" style="9" customWidth="1"/>
     <col min="7" max="7" width="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="31.5">
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="63" customFormat="1" ht="21" thickBot="1">
+      <c r="B3" s="64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="20.25" thickBot="1">
-      <c r="B3" s="54" t="s">
+      <c r="C3" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="55" t="s">
+      <c r="E3" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="F3" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickTop="1">
-      <c r="B4" s="56" t="str">
+      <c r="B4" s="50" t="str">
         <f>IF(G4="","",HYPERLINK(G4, "▶"))</f>
         <v/>
       </c>
-      <c r="C4" s="57"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="51"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="56" t="str">
+      <c r="B5" s="50" t="str">
         <f t="shared" ref="B5:B68" si="0">IF(G5="","",HYPERLINK(G5, "▶"))</f>
         <v/>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="56" t="str">
+      <c r="B6" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="C6" s="51"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="56" t="str">
+      <c r="B7" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="51"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="56" t="str">
+      <c r="B8" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="56" t="str">
+      <c r="B9" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="51"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="56" t="str">
+      <c r="B10" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="56" t="str">
+      <c r="B11" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="56" t="str">
+      <c r="B12" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="56" t="str">
+      <c r="B13" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="56" t="str">
+      <c r="B14" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="56" t="str">
+      <c r="B15" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="56" t="str">
+      <c r="B16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="56" t="str">
+      <c r="B17" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="C17" s="51"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="56" t="str">
+      <c r="B18" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="56" t="str">
+      <c r="B19" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="56" t="str">
+      <c r="B20" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="56" t="str">
+      <c r="B21" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="57"/>
-      <c r="F21" s="58"/>
+      <c r="D21" s="51"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="56" t="str">
+      <c r="B22" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="C22" s="51"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="56" t="str">
+      <c r="B23" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="56" t="str">
+      <c r="B24" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="58"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="56" t="str">
+      <c r="B25" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="56" t="str">
+      <c r="B26" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="56" t="str">
+      <c r="B27" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="D27" s="51"/>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="56" t="str">
+      <c r="B28" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="56" t="str">
+      <c r="B29" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="56" t="str">
+      <c r="B30" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="52"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="56" t="str">
+      <c r="B31" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="56" t="str">
+      <c r="B32" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="56" t="str">
+      <c r="B33" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="56" t="str">
+      <c r="B34" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="56" t="str">
+      <c r="B35" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="52"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="56" t="str">
+      <c r="B36" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="58"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="56" t="str">
+      <c r="B37" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="58"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="56" t="str">
+      <c r="B38" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="52"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="56" t="str">
+      <c r="B39" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="56" t="str">
+      <c r="B40" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="56" t="str">
+      <c r="B41" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="52"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="56" t="str">
+      <c r="B42" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="56" t="str">
+      <c r="B43" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="56" t="str">
+      <c r="B44" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C44" s="57"/>
-      <c r="F44" s="58"/>
+      <c r="C44" s="51"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="56" t="str">
+      <c r="B45" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F45" s="58"/>
+      <c r="F45" s="52"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="56" t="str">
+      <c r="B46" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="52"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="56" t="str">
+      <c r="B47" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F47" s="58"/>
+      <c r="F47" s="52"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="56" t="str">
+      <c r="B48" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C48" s="57"/>
-      <c r="F48" s="58"/>
+      <c r="C48" s="51"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="56" t="str">
+      <c r="B49" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F49" s="58"/>
+      <c r="F49" s="52"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="56" t="str">
+      <c r="B50" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F50" s="58"/>
+      <c r="F50" s="52"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="56" t="str">
+      <c r="B51" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="56" t="str">
+      <c r="B52" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F52" s="58"/>
+      <c r="F52" s="52"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="56" t="str">
+      <c r="B53" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="52"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="56" t="str">
+      <c r="B54" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F54" s="58"/>
+      <c r="F54" s="52"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="56" t="str">
+      <c r="B55" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F55" s="58"/>
+      <c r="F55" s="52"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="56" t="str">
+      <c r="B56" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C56" s="57"/>
-      <c r="F56" s="58"/>
+      <c r="C56" s="51"/>
+      <c r="F56" s="52"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="56" t="str">
+      <c r="B57" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F57" s="58"/>
+      <c r="F57" s="52"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="56" t="str">
+      <c r="B58" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C58" s="57"/>
-      <c r="F58" s="58"/>
+      <c r="C58" s="51"/>
+      <c r="F58" s="52"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="56" t="str">
+      <c r="B59" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F59" s="58"/>
+      <c r="F59" s="52"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="56" t="str">
+      <c r="B60" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F60" s="58"/>
+      <c r="F60" s="52"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="56" t="str">
+      <c r="B61" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F61" s="58"/>
+      <c r="F61" s="52"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="56" t="str">
+      <c r="B62" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="52"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="56" t="str">
+      <c r="B63" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F63" s="58"/>
+      <c r="F63" s="52"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="56" t="str">
+      <c r="B64" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F64" s="58"/>
+      <c r="F64" s="52"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="56" t="str">
+      <c r="B65" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F65" s="58"/>
+      <c r="F65" s="52"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="56" t="str">
+      <c r="B66" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F66" s="58"/>
+      <c r="F66" s="52"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="56" t="str">
+      <c r="B67" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C67" s="57"/>
-      <c r="F67" s="58"/>
+      <c r="C67" s="51"/>
+      <c r="F67" s="52"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="56" t="str">
+      <c r="B68" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C68" s="57"/>
-      <c r="F68" s="58"/>
+      <c r="C68" s="51"/>
+      <c r="F68" s="52"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="56" t="str">
+      <c r="B69" s="50" t="str">
         <f t="shared" ref="B69:B132" si="1">IF(G69="","",HYPERLINK(G69, "▶"))</f>
         <v/>
       </c>
-      <c r="F69" s="58"/>
+      <c r="F69" s="52"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="56" t="str">
+      <c r="B70" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F70" s="58"/>
+      <c r="F70" s="52"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="56" t="str">
+      <c r="B71" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F71" s="58"/>
+      <c r="F71" s="52"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="56" t="str">
+      <c r="B72" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C72" s="57"/>
-      <c r="F72" s="58"/>
+      <c r="C72" s="51"/>
+      <c r="F72" s="52"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="56" t="str">
+      <c r="B73" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F73" s="58"/>
+      <c r="F73" s="52"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="56" t="str">
+      <c r="B74" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F74" s="58"/>
+      <c r="F74" s="52"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="56" t="str">
+      <c r="B75" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F75" s="58"/>
+      <c r="F75" s="52"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="56" t="str">
+      <c r="B76" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F76" s="58"/>
+      <c r="F76" s="52"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="56" t="str">
+      <c r="B77" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F77" s="58"/>
+      <c r="F77" s="52"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="56" t="str">
+      <c r="B78" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F78" s="58"/>
+      <c r="F78" s="52"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="56" t="str">
+      <c r="B79" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F79" s="58"/>
+      <c r="F79" s="52"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="56" t="str">
+      <c r="B80" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C80" s="57"/>
-      <c r="F80" s="58"/>
+      <c r="C80" s="51"/>
+      <c r="F80" s="52"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="56" t="str">
+      <c r="B81" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F81" s="58"/>
+      <c r="F81" s="52"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="56" t="str">
+      <c r="B82" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F82" s="58"/>
+      <c r="F82" s="52"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="56" t="str">
+      <c r="B83" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F83" s="58"/>
+      <c r="F83" s="52"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="56" t="str">
+      <c r="B84" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C84" s="57"/>
-      <c r="F84" s="58"/>
+      <c r="C84" s="51"/>
+      <c r="F84" s="52"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="56" t="str">
+      <c r="B85" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F85" s="58"/>
+      <c r="F85" s="52"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="56" t="str">
+      <c r="B86" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F86" s="58"/>
+      <c r="F86" s="52"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="56" t="str">
+      <c r="B87" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F87" s="58"/>
+      <c r="F87" s="52"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="56" t="str">
+      <c r="B88" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F88" s="58"/>
+      <c r="F88" s="52"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="56" t="str">
+      <c r="B89" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F89" s="58"/>
+      <c r="F89" s="52"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="56" t="str">
+      <c r="B90" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F90" s="58"/>
+      <c r="F90" s="52"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="56" t="str">
+      <c r="B91" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F91" s="58"/>
+      <c r="F91" s="52"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="56" t="str">
+      <c r="B92" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F92" s="58"/>
+      <c r="F92" s="52"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="56" t="str">
+      <c r="B93" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F93" s="58"/>
+      <c r="F93" s="52"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="56" t="str">
+      <c r="B94" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F94" s="58"/>
+      <c r="F94" s="52"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="56" t="str">
+      <c r="B95" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F95" s="58"/>
+      <c r="F95" s="52"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="56" t="str">
+      <c r="B96" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F96" s="58"/>
+      <c r="F96" s="52"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="56" t="str">
+      <c r="B97" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F97" s="58"/>
+      <c r="F97" s="52"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="56" t="str">
+      <c r="B98" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C98" s="57"/>
-      <c r="F98" s="58"/>
+      <c r="C98" s="51"/>
+      <c r="F98" s="52"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="56" t="str">
+      <c r="B99" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F99" s="58"/>
+      <c r="F99" s="52"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="56" t="str">
+      <c r="B100" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F100" s="58"/>
+      <c r="F100" s="52"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="56" t="str">
+      <c r="B101" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F101" s="58"/>
+      <c r="F101" s="52"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="56" t="str">
+      <c r="B102" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C102" s="57"/>
-      <c r="F102" s="58"/>
+      <c r="C102" s="51"/>
+      <c r="F102" s="52"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="56" t="str">
+      <c r="B103" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F103" s="58"/>
+      <c r="F103" s="52"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="56" t="str">
+      <c r="B104" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F104" s="58"/>
+      <c r="F104" s="52"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="56" t="str">
+      <c r="B105" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F105" s="58"/>
+      <c r="F105" s="52"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="56" t="str">
+      <c r="B106" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F106" s="58"/>
+      <c r="F106" s="52"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="56" t="str">
+      <c r="B107" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F107" s="58"/>
+      <c r="F107" s="52"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="56" t="str">
+      <c r="B108" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F108" s="58"/>
+      <c r="F108" s="52"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="56" t="str">
+      <c r="B109" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F109" s="58"/>
+      <c r="F109" s="52"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="56" t="str">
+      <c r="B110" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F110" s="58"/>
+      <c r="F110" s="52"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="56" t="str">
+      <c r="B111" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F111" s="58"/>
+      <c r="F111" s="52"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="56" t="str">
+      <c r="B112" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F112" s="58"/>
+      <c r="F112" s="52"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="56" t="str">
+      <c r="B113" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F113" s="58"/>
+      <c r="F113" s="52"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="56" t="str">
+      <c r="B114" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F114" s="58"/>
+      <c r="F114" s="52"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="56" t="str">
+      <c r="B115" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C115" s="57"/>
-      <c r="F115" s="58"/>
+      <c r="C115" s="51"/>
+      <c r="F115" s="52"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="56" t="str">
+      <c r="B116" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F116" s="58"/>
+      <c r="F116" s="52"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="56" t="str">
+      <c r="B117" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F117" s="58"/>
+      <c r="F117" s="52"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="56" t="str">
+      <c r="B118" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F118" s="58"/>
+      <c r="F118" s="52"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="56" t="str">
+      <c r="B119" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F119" s="58"/>
+      <c r="F119" s="52"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="56" t="str">
+      <c r="B120" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F120" s="58"/>
+      <c r="F120" s="52"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="56" t="str">
+      <c r="B121" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F121" s="58"/>
+      <c r="F121" s="52"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="56" t="str">
+      <c r="B122" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F122" s="58"/>
+      <c r="F122" s="52"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="56" t="str">
+      <c r="B123" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F123" s="58"/>
+      <c r="F123" s="52"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="56" t="str">
+      <c r="B124" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F124" s="58"/>
+      <c r="F124" s="52"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="56" t="str">
+      <c r="B125" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F125" s="58"/>
+      <c r="F125" s="52"/>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="56" t="str">
+      <c r="B126" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F126" s="58"/>
+      <c r="F126" s="52"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="56" t="str">
+      <c r="B127" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F127" s="58"/>
+      <c r="F127" s="52"/>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="56" t="str">
+      <c r="B128" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F128" s="58"/>
+      <c r="F128" s="52"/>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="56" t="str">
+      <c r="B129" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F129" s="58"/>
+      <c r="F129" s="52"/>
     </row>
     <row r="130" spans="2:6">
-      <c r="B130" s="56" t="str">
+      <c r="B130" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F130" s="58"/>
+      <c r="F130" s="52"/>
     </row>
     <row r="131" spans="2:6">
-      <c r="B131" s="56" t="str">
+      <c r="B131" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F131" s="58"/>
+      <c r="F131" s="52"/>
     </row>
     <row r="132" spans="2:6">
-      <c r="B132" s="56" t="str">
+      <c r="B132" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F132" s="58"/>
+      <c r="F132" s="52"/>
     </row>
     <row r="133" spans="2:6">
-      <c r="B133" s="56" t="str">
+      <c r="B133" s="50" t="str">
         <f t="shared" ref="B133:B196" si="2">IF(G133="","",HYPERLINK(G133, "▶"))</f>
         <v/>
       </c>
-      <c r="F133" s="58"/>
+      <c r="F133" s="52"/>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="56" t="str">
+      <c r="B134" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F134" s="58"/>
+      <c r="F134" s="52"/>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="56" t="str">
+      <c r="B135" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F135" s="58"/>
+      <c r="F135" s="52"/>
     </row>
     <row r="136" spans="2:6">
-      <c r="B136" s="56" t="str">
+      <c r="B136" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F136" s="58"/>
+      <c r="F136" s="52"/>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="56" t="str">
+      <c r="B137" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F137" s="58"/>
+      <c r="F137" s="52"/>
     </row>
     <row r="138" spans="2:6">
-      <c r="B138" s="56" t="str">
+      <c r="B138" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F138" s="58"/>
+      <c r="F138" s="52"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="56" t="str">
+      <c r="B139" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F139" s="58"/>
+      <c r="F139" s="52"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="56" t="str">
+      <c r="B140" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F140" s="58"/>
+      <c r="F140" s="52"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="56" t="str">
+      <c r="B141" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F141" s="58"/>
+      <c r="F141" s="52"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="56" t="str">
+      <c r="B142" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F142" s="58"/>
+      <c r="F142" s="52"/>
     </row>
     <row r="143" spans="2:6">
-      <c r="B143" s="56" t="str">
+      <c r="B143" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F143" s="58"/>
+      <c r="F143" s="52"/>
     </row>
     <row r="144" spans="2:6">
-      <c r="B144" s="56" t="str">
+      <c r="B144" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F144" s="58"/>
+      <c r="F144" s="52"/>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" s="56" t="str">
+      <c r="B145" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F145" s="58"/>
+      <c r="F145" s="52"/>
     </row>
     <row r="146" spans="2:6">
-      <c r="B146" s="56" t="str">
+      <c r="B146" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F146" s="58"/>
+      <c r="F146" s="52"/>
     </row>
     <row r="147" spans="2:6">
-      <c r="B147" s="56" t="str">
+      <c r="B147" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F147" s="58"/>
+      <c r="F147" s="52"/>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="56" t="str">
+      <c r="B148" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F148" s="58"/>
+      <c r="F148" s="52"/>
     </row>
     <row r="149" spans="2:6">
-      <c r="B149" s="56" t="str">
+      <c r="B149" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C149" s="57"/>
-      <c r="F149" s="58"/>
+      <c r="C149" s="51"/>
+      <c r="F149" s="52"/>
     </row>
     <row r="150" spans="2:6">
-      <c r="B150" s="56" t="str">
+      <c r="B150" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F150" s="58"/>
+      <c r="F150" s="52"/>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="56" t="str">
+      <c r="B151" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F151" s="58"/>
+      <c r="F151" s="52"/>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="56" t="str">
+      <c r="B152" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F152" s="58"/>
+      <c r="F152" s="52"/>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="56" t="str">
+      <c r="B153" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F153" s="58"/>
+      <c r="F153" s="52"/>
     </row>
     <row r="154" spans="2:6">
-      <c r="B154" s="56" t="str">
+      <c r="B154" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F154" s="58"/>
+      <c r="F154" s="52"/>
     </row>
     <row r="155" spans="2:6">
-      <c r="B155" s="56" t="str">
+      <c r="B155" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C155" s="57"/>
-      <c r="F155" s="58"/>
+      <c r="C155" s="51"/>
+      <c r="F155" s="52"/>
     </row>
     <row r="156" spans="2:6">
-      <c r="B156" s="56" t="str">
+      <c r="B156" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F156" s="58"/>
+      <c r="F156" s="52"/>
     </row>
     <row r="157" spans="2:6">
-      <c r="B157" s="56" t="str">
+      <c r="B157" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F157" s="58"/>
+      <c r="F157" s="52"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="56" t="str">
+      <c r="B158" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F158" s="58"/>
+      <c r="F158" s="52"/>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="56" t="str">
+      <c r="B159" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F159" s="58"/>
+      <c r="F159" s="52"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="56" t="str">
+      <c r="B160" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F160" s="58"/>
+      <c r="F160" s="52"/>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="56" t="str">
+      <c r="B161" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F161" s="58"/>
+      <c r="F161" s="52"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="56" t="str">
+      <c r="B162" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F162" s="58"/>
+      <c r="F162" s="52"/>
     </row>
     <row r="163" spans="2:6">
-      <c r="B163" s="56" t="str">
+      <c r="B163" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F163" s="58"/>
+      <c r="F163" s="52"/>
     </row>
     <row r="164" spans="2:6">
-      <c r="B164" s="56" t="str">
+      <c r="B164" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F164" s="58"/>
+      <c r="F164" s="52"/>
     </row>
     <row r="165" spans="2:6">
-      <c r="B165" s="56" t="str">
+      <c r="B165" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F165" s="58"/>
+      <c r="F165" s="52"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="56" t="str">
+      <c r="B166" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F166" s="58"/>
+      <c r="F166" s="52"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="56" t="str">
+      <c r="B167" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F167" s="58"/>
+      <c r="F167" s="52"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="56" t="str">
+      <c r="B168" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F168" s="58"/>
+      <c r="F168" s="52"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="56" t="str">
+      <c r="B169" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F169" s="58"/>
+      <c r="F169" s="52"/>
     </row>
     <row r="170" spans="2:6">
-      <c r="B170" s="56" t="str">
+      <c r="B170" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F170" s="58"/>
+      <c r="F170" s="52"/>
     </row>
     <row r="171" spans="2:6">
-      <c r="B171" s="56" t="str">
+      <c r="B171" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F171" s="58"/>
+      <c r="F171" s="52"/>
     </row>
     <row r="172" spans="2:6">
-      <c r="B172" s="56" t="str">
+      <c r="B172" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F172" s="58"/>
+      <c r="F172" s="52"/>
     </row>
     <row r="173" spans="2:6">
-      <c r="B173" s="56" t="str">
+      <c r="B173" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F173" s="58"/>
+      <c r="F173" s="52"/>
     </row>
     <row r="174" spans="2:6">
-      <c r="B174" s="56" t="str">
+      <c r="B174" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F174" s="58"/>
+      <c r="F174" s="52"/>
     </row>
     <row r="175" spans="2:6">
-      <c r="B175" s="56" t="str">
+      <c r="B175" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F175" s="58"/>
+      <c r="F175" s="52"/>
     </row>
     <row r="176" spans="2:6">
-      <c r="B176" s="56" t="str">
+      <c r="B176" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F176" s="58"/>
+      <c r="F176" s="52"/>
     </row>
     <row r="177" spans="2:6">
-      <c r="B177" s="56" t="str">
+      <c r="B177" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F177" s="58"/>
+      <c r="F177" s="52"/>
     </row>
     <row r="178" spans="2:6">
-      <c r="B178" s="56" t="str">
+      <c r="B178" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F178" s="58"/>
+      <c r="F178" s="52"/>
     </row>
     <row r="179" spans="2:6">
-      <c r="B179" s="56" t="str">
+      <c r="B179" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F179" s="58"/>
+      <c r="F179" s="52"/>
     </row>
     <row r="180" spans="2:6">
-      <c r="B180" s="56" t="str">
+      <c r="B180" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F180" s="58"/>
+      <c r="F180" s="52"/>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="56" t="str">
+      <c r="B181" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F181" s="58"/>
+      <c r="F181" s="52"/>
     </row>
     <row r="182" spans="2:6">
-      <c r="B182" s="56" t="str">
+      <c r="B182" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F182" s="58"/>
+      <c r="F182" s="52"/>
     </row>
     <row r="183" spans="2:6">
-      <c r="B183" s="56" t="str">
+      <c r="B183" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F183" s="58"/>
+      <c r="F183" s="52"/>
     </row>
     <row r="184" spans="2:6">
-      <c r="B184" s="56" t="str">
+      <c r="B184" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F184" s="58"/>
+      <c r="F184" s="52"/>
     </row>
     <row r="185" spans="2:6">
-      <c r="B185" s="56" t="str">
+      <c r="B185" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F185" s="58"/>
+      <c r="F185" s="52"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="56" t="str">
+      <c r="B186" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F186" s="58"/>
+      <c r="F186" s="52"/>
     </row>
     <row r="187" spans="2:6">
-      <c r="B187" s="56" t="str">
+      <c r="B187" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F187" s="58"/>
+      <c r="F187" s="52"/>
     </row>
     <row r="188" spans="2:6">
-      <c r="B188" s="56" t="str">
+      <c r="B188" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F188" s="58"/>
+      <c r="F188" s="52"/>
     </row>
     <row r="189" spans="2:6">
-      <c r="B189" s="56" t="str">
+      <c r="B189" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C189" s="57"/>
-      <c r="F189" s="58"/>
+      <c r="C189" s="51"/>
+      <c r="F189" s="52"/>
     </row>
     <row r="190" spans="2:6">
-      <c r="B190" s="56" t="str">
+      <c r="B190" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F190" s="58"/>
+      <c r="F190" s="52"/>
     </row>
     <row r="191" spans="2:6">
-      <c r="B191" s="56" t="str">
+      <c r="B191" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D191" s="57"/>
-      <c r="F191" s="58"/>
+      <c r="D191" s="51"/>
+      <c r="F191" s="52"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="56" t="str">
+      <c r="B192" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C192" s="57"/>
-      <c r="F192" s="58"/>
+      <c r="C192" s="51"/>
+      <c r="F192" s="52"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="56" t="str">
+      <c r="B193" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F193" s="58"/>
+      <c r="F193" s="52"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="56" t="str">
+      <c r="B194" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F194" s="58"/>
+      <c r="F194" s="52"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="56" t="str">
+      <c r="B195" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F195" s="58"/>
+      <c r="F195" s="52"/>
     </row>
     <row r="196" spans="2:6">
-      <c r="B196" s="56" t="str">
+      <c r="B196" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F196" s="58"/>
+      <c r="F196" s="52"/>
     </row>
     <row r="197" spans="2:6">
-      <c r="B197" s="56" t="str">
+      <c r="B197" s="50" t="str">
         <f t="shared" ref="B197:B260" si="3">IF(G197="","",HYPERLINK(G197, "▶"))</f>
         <v/>
       </c>
-      <c r="C197" s="57"/>
-      <c r="F197" s="58"/>
+      <c r="C197" s="51"/>
+      <c r="F197" s="52"/>
     </row>
     <row r="198" spans="2:6">
-      <c r="B198" s="56" t="str">
+      <c r="B198" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F198" s="58"/>
+      <c r="F198" s="52"/>
     </row>
     <row r="199" spans="2:6">
-      <c r="B199" s="56" t="str">
+      <c r="B199" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F199" s="58"/>
+      <c r="F199" s="52"/>
     </row>
     <row r="200" spans="2:6">
-      <c r="B200" s="56" t="str">
+      <c r="B200" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F200" s="58"/>
+      <c r="F200" s="52"/>
     </row>
     <row r="201" spans="2:6">
-      <c r="B201" s="56" t="str">
+      <c r="B201" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F201" s="58"/>
+      <c r="F201" s="52"/>
     </row>
     <row r="202" spans="2:6">
-      <c r="B202" s="56" t="str">
+      <c r="B202" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F202" s="58"/>
+      <c r="F202" s="52"/>
     </row>
     <row r="203" spans="2:6">
-      <c r="B203" s="56" t="str">
+      <c r="B203" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F203" s="58"/>
+      <c r="F203" s="52"/>
     </row>
     <row r="204" spans="2:6">
-      <c r="B204" s="56" t="str">
+      <c r="B204" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F204" s="58"/>
+      <c r="F204" s="52"/>
     </row>
     <row r="205" spans="2:6">
-      <c r="B205" s="56" t="str">
+      <c r="B205" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F205" s="58"/>
+      <c r="F205" s="52"/>
     </row>
     <row r="206" spans="2:6">
-      <c r="B206" s="56" t="str">
+      <c r="B206" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F206" s="58"/>
+      <c r="F206" s="52"/>
     </row>
     <row r="207" spans="2:6">
-      <c r="B207" s="56" t="str">
+      <c r="B207" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F207" s="58"/>
+      <c r="F207" s="52"/>
     </row>
     <row r="208" spans="2:6">
-      <c r="B208" s="56" t="str">
+      <c r="B208" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C208" s="57"/>
-      <c r="F208" s="58"/>
+      <c r="C208" s="51"/>
+      <c r="F208" s="52"/>
     </row>
     <row r="209" spans="2:6">
-      <c r="B209" s="56" t="str">
+      <c r="B209" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F209" s="58"/>
+      <c r="F209" s="52"/>
     </row>
     <row r="210" spans="2:6">
-      <c r="B210" s="56" t="str">
+      <c r="B210" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F210" s="58"/>
+      <c r="F210" s="52"/>
     </row>
     <row r="211" spans="2:6">
-      <c r="B211" s="56" t="str">
+      <c r="B211" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F211" s="58"/>
+      <c r="F211" s="52"/>
     </row>
     <row r="212" spans="2:6">
-      <c r="B212" s="56" t="str">
+      <c r="B212" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F212" s="58"/>
+      <c r="F212" s="52"/>
     </row>
     <row r="213" spans="2:6">
-      <c r="B213" s="56" t="str">
+      <c r="B213" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F213" s="58"/>
+      <c r="F213" s="52"/>
     </row>
     <row r="214" spans="2:6">
-      <c r="B214" s="56" t="str">
+      <c r="B214" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F214" s="58"/>
+      <c r="F214" s="52"/>
     </row>
     <row r="215" spans="2:6">
-      <c r="B215" s="56" t="str">
+      <c r="B215" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F215" s="58"/>
+      <c r="F215" s="52"/>
     </row>
     <row r="216" spans="2:6">
-      <c r="B216" s="56" t="str">
+      <c r="B216" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C216" s="57"/>
-      <c r="F216" s="58"/>
+      <c r="C216" s="51"/>
+      <c r="F216" s="52"/>
     </row>
     <row r="217" spans="2:6">
-      <c r="B217" s="56" t="str">
+      <c r="B217" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F217" s="58"/>
+      <c r="F217" s="52"/>
     </row>
     <row r="218" spans="2:6">
-      <c r="B218" s="56" t="str">
+      <c r="B218" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F218" s="58"/>
+      <c r="F218" s="52"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="56" t="str">
+      <c r="B219" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="56" t="str">
+      <c r="B220" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="56" t="str">
+      <c r="B221" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="56" t="str">
+      <c r="B222" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="2:6">
-      <c r="B223" s="56" t="str">
+      <c r="B223" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="2:6">
-      <c r="B224" s="56" t="str">
+      <c r="B224" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="2:2">
-      <c r="B225" s="56" t="str">
+      <c r="B225" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="2:2">
-      <c r="B226" s="56" t="str">
+      <c r="B226" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="56" t="str">
+      <c r="B227" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="2:2">
-      <c r="B228" s="56" t="str">
+      <c r="B228" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="2:2">
-      <c r="B229" s="56" t="str">
+      <c r="B229" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="2:2">
-      <c r="B230" s="56" t="str">
+      <c r="B230" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="2:2">
-      <c r="B231" s="56" t="str">
+      <c r="B231" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="2:2">
-      <c r="B232" s="56" t="str">
+      <c r="B232" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="2:2">
-      <c r="B233" s="56" t="str">
+      <c r="B233" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="2:2">
-      <c r="B234" s="56" t="str">
+      <c r="B234" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="2:2">
-      <c r="B235" s="56" t="str">
+      <c r="B235" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="2:2">
-      <c r="B236" s="56" t="str">
+      <c r="B236" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="2:2">
-      <c r="B237" s="56" t="str">
+      <c r="B237" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="2:2">
-      <c r="B238" s="56" t="str">
+      <c r="B238" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="2:2">
-      <c r="B239" s="56" t="str">
+      <c r="B239" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="2:2">
-      <c r="B240" s="56" t="str">
+      <c r="B240" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" s="56" t="str">
+      <c r="B241" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="2:2">
-      <c r="B242" s="56" t="str">
+      <c r="B242" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="2:2">
-      <c r="B243" s="56" t="str">
+      <c r="B243" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="2:2">
-      <c r="B244" s="56" t="str">
+      <c r="B244" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="2:2">
-      <c r="B245" s="56" t="str">
+      <c r="B245" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="2:2">
-      <c r="B246" s="56" t="str">
+      <c r="B246" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="2:2">
-      <c r="B247" s="56" t="str">
+      <c r="B247" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="2:2">
-      <c r="B248" s="56" t="str">
+      <c r="B248" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="2:2">
-      <c r="B249" s="56" t="str">
+      <c r="B249" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="2:2">
-      <c r="B250" s="56" t="str">
+      <c r="B250" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="2:2">
-      <c r="B251" s="56" t="str">
+      <c r="B251" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="2:2">
-      <c r="B252" s="56" t="str">
+      <c r="B252" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="2:2">
-      <c r="B253" s="56" t="str">
+      <c r="B253" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="2:2">
-      <c r="B254" s="56" t="str">
+      <c r="B254" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="2:2">
-      <c r="B255" s="56" t="str">
+      <c r="B255" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="2:2">
-      <c r="B256" s="56" t="str">
+      <c r="B256" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="2:2">
-      <c r="B257" s="56" t="str">
+      <c r="B257" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="2:2">
-      <c r="B258" s="56" t="str">
+      <c r="B258" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="2:2">
-      <c r="B259" s="56" t="str">
+      <c r="B259" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="2:2">
-      <c r="B260" s="56" t="str">
+      <c r="B260" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="2:2">
-      <c r="B261" s="56" t="str">
+      <c r="B261" s="50" t="str">
         <f t="shared" ref="B261:B324" si="4">IF(G261="","",HYPERLINK(G261, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="2:2">
-      <c r="B262" s="56" t="str">
+      <c r="B262" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="2:2">
-      <c r="B263" s="56" t="str">
+      <c r="B263" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="2:2">
-      <c r="B264" s="56" t="str">
+      <c r="B264" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="2:2">
-      <c r="B265" s="56" t="str">
+      <c r="B265" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="2:2">
-      <c r="B266" s="56" t="str">
+      <c r="B266" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="2:2">
-      <c r="B267" s="56" t="str">
+      <c r="B267" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="2:2">
-      <c r="B268" s="56" t="str">
+      <c r="B268" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="2:2">
-      <c r="B269" s="56" t="str">
+      <c r="B269" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="2:2">
-      <c r="B270" s="56" t="str">
+      <c r="B270" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="2:2">
-      <c r="B271" s="56" t="str">
+      <c r="B271" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="2:2">
-      <c r="B272" s="56" t="str">
+      <c r="B272" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="2:2">
-      <c r="B273" s="56" t="str">
+      <c r="B273" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="2:2">
-      <c r="B274" s="56" t="str">
+      <c r="B274" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="2:2">
-      <c r="B275" s="56" t="str">
+      <c r="B275" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="2:2">
-      <c r="B276" s="56" t="str">
+      <c r="B276" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="2:2">
-      <c r="B277" s="56" t="str">
+      <c r="B277" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="2:2">
-      <c r="B278" s="56" t="str">
+      <c r="B278" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="2:2">
-      <c r="B279" s="56" t="str">
+      <c r="B279" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="2:2">
-      <c r="B280" s="56" t="str">
+      <c r="B280" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="2:2">
-      <c r="B281" s="56" t="str">
+      <c r="B281" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="2:2">
-      <c r="B282" s="56" t="str">
+      <c r="B282" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="2:2">
-      <c r="B283" s="56" t="str">
+      <c r="B283" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="2:2">
-      <c r="B284" s="56" t="str">
+      <c r="B284" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="2:2">
-      <c r="B285" s="56" t="str">
+      <c r="B285" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="2:2">
-      <c r="B286" s="56" t="str">
+      <c r="B286" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="2:2">
-      <c r="B287" s="56" t="str">
+      <c r="B287" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="2:2">
-      <c r="B288" s="56" t="str">
+      <c r="B288" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="2:2">
-      <c r="B289" s="56" t="str">
+      <c r="B289" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="2:2">
-      <c r="B290" s="56" t="str">
+      <c r="B290" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="2:2">
-      <c r="B291" s="56" t="str">
+      <c r="B291" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="2:2">
-      <c r="B292" s="56" t="str">
+      <c r="B292" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="2:2">
-      <c r="B293" s="56" t="str">
+      <c r="B293" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="2:2">
-      <c r="B294" s="56" t="str">
+      <c r="B294" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" s="56" t="str">
+      <c r="B295" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="2:2">
-      <c r="B296" s="56" t="str">
+      <c r="B296" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="2:2">
-      <c r="B297" s="56" t="str">
+      <c r="B297" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="2:2">
-      <c r="B298" s="56" t="str">
+      <c r="B298" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="2:2">
-      <c r="B299" s="56" t="str">
+      <c r="B299" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="2:2">
-      <c r="B300" s="56" t="str">
+      <c r="B300" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="2:2">
-      <c r="B301" s="56" t="str">
+      <c r="B301" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="2:2">
-      <c r="B302" s="56" t="str">
+      <c r="B302" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="2:2">
-      <c r="B303" s="56" t="str">
+      <c r="B303" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="2:2">
-      <c r="B304" s="56" t="str">
+      <c r="B304" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="2:2">
-      <c r="B305" s="56" t="str">
+      <c r="B305" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="56" t="str">
+      <c r="B306" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="2:2">
-      <c r="B307" s="56" t="str">
+      <c r="B307" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="2:2">
-      <c r="B308" s="56" t="str">
+      <c r="B308" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="2:2">
-      <c r="B309" s="56" t="str">
+      <c r="B309" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="2:2">
-      <c r="B310" s="56" t="str">
+      <c r="B310" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="2:2">
-      <c r="B311" s="56" t="str">
+      <c r="B311" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="2:2">
-      <c r="B312" s="56" t="str">
+      <c r="B312" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="2:2">
-      <c r="B313" s="56" t="str">
+      <c r="B313" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="2:2">
-      <c r="B314" s="56" t="str">
+      <c r="B314" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="2:2">
-      <c r="B315" s="56" t="str">
+      <c r="B315" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="2:2">
-      <c r="B316" s="56" t="str">
+      <c r="B316" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="2:2">
-      <c r="B317" s="56" t="str">
+      <c r="B317" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="2:2">
-      <c r="B318" s="56" t="str">
+      <c r="B318" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="2:2">
-      <c r="B319" s="56" t="str">
+      <c r="B319" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="2:2">
-      <c r="B320" s="56" t="str">
+      <c r="B320" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="2:2">
-      <c r="B321" s="56" t="str">
+      <c r="B321" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="2:2">
-      <c r="B322" s="56" t="str">
+      <c r="B322" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="2:2">
-      <c r="B323" s="56" t="str">
+      <c r="B323" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="2:2">
-      <c r="B324" s="56" t="str">
+      <c r="B324" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="2:2">
-      <c r="B325" s="56" t="str">
+      <c r="B325" s="50" t="str">
         <f t="shared" ref="B325:B388" si="5">IF(G325="","",HYPERLINK(G325, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="2:2">
-      <c r="B326" s="56" t="str">
+      <c r="B326" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="2:2">
-      <c r="B327" s="56" t="str">
+      <c r="B327" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="2:2">
-      <c r="B328" s="56" t="str">
+      <c r="B328" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="2:2">
-      <c r="B329" s="56" t="str">
+      <c r="B329" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="2:2">
-      <c r="B330" s="56" t="str">
+      <c r="B330" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="2:2">
-      <c r="B331" s="56" t="str">
+      <c r="B331" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="2:2">
-      <c r="B332" s="56" t="str">
+      <c r="B332" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="2:2">
-      <c r="B333" s="56" t="str">
+      <c r="B333" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="2:2">
-      <c r="B334" s="56" t="str">
+      <c r="B334" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="2:2">
-      <c r="B335" s="56" t="str">
+      <c r="B335" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="2:2">
-      <c r="B336" s="56" t="str">
+      <c r="B336" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="2:2">
-      <c r="B337" s="56" t="str">
+      <c r="B337" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="2:2">
-      <c r="B338" s="56" t="str">
+      <c r="B338" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="2:2">
-      <c r="B339" s="56" t="str">
+      <c r="B339" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="2:2">
-      <c r="B340" s="56" t="str">
+      <c r="B340" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="2:2">
-      <c r="B341" s="56" t="str">
+      <c r="B341" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="2:2">
-      <c r="B342" s="56" t="str">
+      <c r="B342" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="2:2">
-      <c r="B343" s="56" t="str">
+      <c r="B343" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="2:2">
-      <c r="B344" s="56" t="str">
+      <c r="B344" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="2:2">
-      <c r="B345" s="56" t="str">
+      <c r="B345" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="2:2">
-      <c r="B346" s="56" t="str">
+      <c r="B346" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="2:2">
-      <c r="B347" s="56" t="str">
+      <c r="B347" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="2:2">
-      <c r="B348" s="56" t="str">
+      <c r="B348" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="2:2">
-      <c r="B349" s="56" t="str">
+      <c r="B349" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="2:2">
-      <c r="B350" s="56" t="str">
+      <c r="B350" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="2:2">
-      <c r="B351" s="56" t="str">
+      <c r="B351" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="2:2">
-      <c r="B352" s="56" t="str">
+      <c r="B352" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="2:2">
-      <c r="B353" s="56" t="str">
+      <c r="B353" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="2:2">
-      <c r="B354" s="56" t="str">
+      <c r="B354" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="2:2">
-      <c r="B355" s="56" t="str">
+      <c r="B355" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="2:2">
-      <c r="B356" s="56" t="str">
+      <c r="B356" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="2:2">
-      <c r="B357" s="56" t="str">
+      <c r="B357" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="2:2">
-      <c r="B358" s="56" t="str">
+      <c r="B358" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="2:2">
-      <c r="B359" s="56" t="str">
+      <c r="B359" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="2:2">
-      <c r="B360" s="56" t="str">
+      <c r="B360" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="2:2">
-      <c r="B361" s="56" t="str">
+      <c r="B361" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="2:2">
-      <c r="B362" s="56" t="str">
+      <c r="B362" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="2:2">
-      <c r="B363" s="56" t="str">
+      <c r="B363" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="2:2">
-      <c r="B364" s="56" t="str">
+      <c r="B364" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="2:2">
-      <c r="B365" s="56" t="str">
+      <c r="B365" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="2:2">
-      <c r="B366" s="56" t="str">
+      <c r="B366" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="2:2">
-      <c r="B367" s="56" t="str">
+      <c r="B367" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="2:2">
-      <c r="B368" s="56" t="str">
+      <c r="B368" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="2:2">
-      <c r="B369" s="56" t="str">
+      <c r="B369" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="2:2">
-      <c r="B370" s="56" t="str">
+      <c r="B370" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="2:2">
-      <c r="B371" s="56" t="str">
+      <c r="B371" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="2:2">
-      <c r="B372" s="56" t="str">
+      <c r="B372" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="2:2">
-      <c r="B373" s="56" t="str">
+      <c r="B373" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="2:2">
-      <c r="B374" s="56" t="str">
+      <c r="B374" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="2:2">
-      <c r="B375" s="56" t="str">
+      <c r="B375" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="2:2">
-      <c r="B376" s="56" t="str">
+      <c r="B376" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="2:2">
-      <c r="B377" s="56" t="str">
+      <c r="B377" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="2:2">
-      <c r="B378" s="56" t="str">
+      <c r="B378" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="2:2">
-      <c r="B379" s="56" t="str">
+      <c r="B379" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="2:2">
-      <c r="B380" s="56" t="str">
+      <c r="B380" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="2:2">
-      <c r="B381" s="56" t="str">
+      <c r="B381" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="2:2">
-      <c r="B382" s="56" t="str">
+      <c r="B382" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="2:2">
-      <c r="B383" s="56" t="str">
+      <c r="B383" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="2:2">
-      <c r="B384" s="56" t="str">
+      <c r="B384" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="2:2">
-      <c r="B385" s="56" t="str">
+      <c r="B385" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="2:2">
-      <c r="B386" s="56" t="str">
+      <c r="B386" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="2:2">
-      <c r="B387" s="56" t="str">
+      <c r="B387" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="2:2">
-      <c r="B388" s="56" t="str">
+      <c r="B388" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="2:2">
-      <c r="B389" s="56" t="str">
+      <c r="B389" s="50" t="str">
         <f t="shared" ref="B389:B452" si="6">IF(G389="","",HYPERLINK(G389, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="390" spans="2:2">
-      <c r="B390" s="56" t="str">
+      <c r="B390" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="2:2">
-      <c r="B391" s="56" t="str">
+      <c r="B391" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="2:2">
-      <c r="B392" s="56" t="str">
+      <c r="B392" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="2:2">
-      <c r="B393" s="56" t="str">
+      <c r="B393" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="2:2">
-      <c r="B394" s="56" t="str">
+      <c r="B394" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="2:2">
-      <c r="B395" s="56" t="str">
+      <c r="B395" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="2:2">
-      <c r="B396" s="56" t="str">
+      <c r="B396" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="2:2">
-      <c r="B397" s="56" t="str">
+      <c r="B397" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="2:2">
-      <c r="B398" s="56" t="str">
+      <c r="B398" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="2:2">
-      <c r="B399" s="56" t="str">
+      <c r="B399" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="2:2">
-      <c r="B400" s="56" t="str">
+      <c r="B400" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="2:2">
-      <c r="B401" s="56" t="str">
+      <c r="B401" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="2:2">
-      <c r="B402" s="56" t="str">
+      <c r="B402" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="2:2">
-      <c r="B403" s="56" t="str">
+      <c r="B403" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="2:2">
-      <c r="B404" s="56" t="str">
+      <c r="B404" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="2:2">
-      <c r="B405" s="56" t="str">
+      <c r="B405" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="2:2">
-      <c r="B406" s="56" t="str">
+      <c r="B406" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="2:2">
-      <c r="B407" s="56" t="str">
+      <c r="B407" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="2:2">
-      <c r="B408" s="56" t="str">
+      <c r="B408" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="2:2">
-      <c r="B409" s="56" t="str">
+      <c r="B409" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="2:2">
-      <c r="B410" s="56" t="str">
+      <c r="B410" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="2:2">
-      <c r="B411" s="56" t="str">
+      <c r="B411" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="2:2">
-      <c r="B412" s="56" t="str">
+      <c r="B412" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="2:2">
-      <c r="B413" s="56" t="str">
+      <c r="B413" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="2:2">
-      <c r="B414" s="56" t="str">
+      <c r="B414" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="2:2">
-      <c r="B415" s="56" t="str">
+      <c r="B415" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="2:2">
-      <c r="B416" s="56" t="str">
+      <c r="B416" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="2:2">
-      <c r="B417" s="56" t="str">
+      <c r="B417" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="2:2">
-      <c r="B418" s="56" t="str">
+      <c r="B418" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="2:2">
-      <c r="B419" s="56" t="str">
+      <c r="B419" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="2:2">
-      <c r="B420" s="56" t="str">
+      <c r="B420" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="2:2">
-      <c r="B421" s="56" t="str">
+      <c r="B421" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="2:2">
-      <c r="B422" s="56" t="str">
+      <c r="B422" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="2:2">
-      <c r="B423" s="56" t="str">
+      <c r="B423" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="2:2">
-      <c r="B424" s="56" t="str">
+      <c r="B424" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="2:2">
-      <c r="B425" s="56" t="str">
+      <c r="B425" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="2:2">
-      <c r="B426" s="56" t="str">
+      <c r="B426" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="2:2">
-      <c r="B427" s="56" t="str">
+      <c r="B427" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="2:2">
-      <c r="B428" s="56" t="str">
+      <c r="B428" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="2:2">
-      <c r="B429" s="56" t="str">
+      <c r="B429" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="2:2">
-      <c r="B430" s="56" t="str">
+      <c r="B430" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="2:2">
-      <c r="B431" s="56" t="str">
+      <c r="B431" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="2:2">
-      <c r="B432" s="56" t="str">
+      <c r="B432" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="2:2">
-      <c r="B433" s="56" t="str">
+      <c r="B433" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="2:2">
-      <c r="B434" s="56" t="str">
+      <c r="B434" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="2:2">
-      <c r="B435" s="56" t="str">
+      <c r="B435" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="2:2">
-      <c r="B436" s="56" t="str">
+      <c r="B436" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="2:2">
-      <c r="B437" s="56" t="str">
+      <c r="B437" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="2:2">
-      <c r="B438" s="56" t="str">
+      <c r="B438" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="2:2">
-      <c r="B439" s="56" t="str">
+      <c r="B439" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="2:2">
-      <c r="B440" s="56" t="str">
+      <c r="B440" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="2:2">
-      <c r="B441" s="56" t="str">
+      <c r="B441" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="2:2">
-      <c r="B442" s="56" t="str">
+      <c r="B442" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="2:2">
-      <c r="B443" s="56" t="str">
+      <c r="B443" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="2:2">
-      <c r="B444" s="56" t="str">
+      <c r="B444" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="2:2">
-      <c r="B445" s="56" t="str">
+      <c r="B445" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="2:2">
-      <c r="B446" s="56" t="str">
+      <c r="B446" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="2:2">
-      <c r="B447" s="56" t="str">
+      <c r="B447" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="2:2">
-      <c r="B448" s="56" t="str">
+      <c r="B448" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="2:2">
-      <c r="B449" s="56" t="str">
+      <c r="B449" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="2:2">
-      <c r="B450" s="56" t="str">
+      <c r="B450" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="2:2">
-      <c r="B451" s="56" t="str">
+      <c r="B451" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="2:2">
-      <c r="B452" s="56" t="str">
+      <c r="B452" s="50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="2:2">
-      <c r="B453" s="56" t="str">
+      <c r="B453" s="50" t="str">
         <f t="shared" ref="B453:B516" si="7">IF(G453="","",HYPERLINK(G453, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="454" spans="2:2">
-      <c r="B454" s="56" t="str">
+      <c r="B454" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="2:2">
-      <c r="B455" s="56" t="str">
+      <c r="B455" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="2:2">
-      <c r="B456" s="56" t="str">
+      <c r="B456" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="2:2">
-      <c r="B457" s="56" t="str">
+      <c r="B457" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="2:2">
-      <c r="B458" s="56" t="str">
+      <c r="B458" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="2:2">
-      <c r="B459" s="56" t="str">
+      <c r="B459" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="2:2">
-      <c r="B460" s="56" t="str">
+      <c r="B460" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="2:2">
-      <c r="B461" s="56" t="str">
+      <c r="B461" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="2:2">
-      <c r="B462" s="56" t="str">
+      <c r="B462" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="2:2">
-      <c r="B463" s="56" t="str">
+      <c r="B463" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="2:2">
-      <c r="B464" s="56" t="str">
+      <c r="B464" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="2:2">
-      <c r="B465" s="56" t="str">
+      <c r="B465" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="2:2">
-      <c r="B466" s="56" t="str">
+      <c r="B466" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="2:2">
-      <c r="B467" s="56" t="str">
+      <c r="B467" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="2:2">
-      <c r="B468" s="56" t="str">
+      <c r="B468" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="2:2">
-      <c r="B469" s="56" t="str">
+      <c r="B469" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="2:2">
-      <c r="B470" s="56" t="str">
+      <c r="B470" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="2:2">
-      <c r="B471" s="56" t="str">
+      <c r="B471" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="2:2">
-      <c r="B472" s="56" t="str">
+      <c r="B472" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="2:2">
-      <c r="B473" s="56" t="str">
+      <c r="B473" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="2:2">
-      <c r="B474" s="56" t="str">
+      <c r="B474" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="2:2">
-      <c r="B475" s="56" t="str">
+      <c r="B475" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="2:2">
-      <c r="B476" s="56" t="str">
+      <c r="B476" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="2:2">
-      <c r="B477" s="56" t="str">
+      <c r="B477" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="2:2">
-      <c r="B478" s="56" t="str">
+      <c r="B478" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="2:2">
-      <c r="B479" s="56" t="str">
+      <c r="B479" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="2:2">
-      <c r="B480" s="56" t="str">
+      <c r="B480" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="2:2">
-      <c r="B481" s="56" t="str">
+      <c r="B481" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="2:2">
-      <c r="B482" s="56" t="str">
+      <c r="B482" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="2:2">
-      <c r="B483" s="56" t="str">
+      <c r="B483" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="2:2">
-      <c r="B484" s="56" t="str">
+      <c r="B484" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="2:2">
-      <c r="B485" s="56" t="str">
+      <c r="B485" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="2:2">
-      <c r="B486" s="56" t="str">
+      <c r="B486" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="2:2">
-      <c r="B487" s="56" t="str">
+      <c r="B487" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="2:2">
-      <c r="B488" s="56" t="str">
+      <c r="B488" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="2:2">
-      <c r="B489" s="56" t="str">
+      <c r="B489" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="2:2">
-      <c r="B490" s="56" t="str">
+      <c r="B490" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="2:2">
-      <c r="B491" s="56" t="str">
+      <c r="B491" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="2:2">
-      <c r="B492" s="56" t="str">
+      <c r="B492" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="2:2">
-      <c r="B493" s="56" t="str">
+      <c r="B493" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="2:2">
-      <c r="B494" s="56" t="str">
+      <c r="B494" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="2:2">
-      <c r="B495" s="56" t="str">
+      <c r="B495" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="2:2">
-      <c r="B496" s="56" t="str">
+      <c r="B496" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="2:2">
-      <c r="B497" s="56" t="str">
+      <c r="B497" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="2:2">
-      <c r="B498" s="56" t="str">
+      <c r="B498" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="2:2">
-      <c r="B499" s="56" t="str">
+      <c r="B499" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="2:2">
-      <c r="B500" s="56" t="str">
+      <c r="B500" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="2:2">
-      <c r="B501" s="56" t="str">
+      <c r="B501" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="2:2">
-      <c r="B502" s="56" t="str">
+      <c r="B502" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="2:2">
-      <c r="B503" s="56" t="str">
+      <c r="B503" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="2:2">
-      <c r="B504" s="56" t="str">
+      <c r="B504" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="2:2">
-      <c r="B505" s="56" t="str">
+      <c r="B505" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="2:2">
-      <c r="B506" s="56" t="str">
+      <c r="B506" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="2:2">
-      <c r="B507" s="56" t="str">
+      <c r="B507" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="2:2">
-      <c r="B508" s="56" t="str">
+      <c r="B508" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="2:2">
-      <c r="B509" s="56" t="str">
+      <c r="B509" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="2:2">
-      <c r="B510" s="56" t="str">
+      <c r="B510" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="2:2">
-      <c r="B511" s="56" t="str">
+      <c r="B511" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="2:2">
-      <c r="B512" s="56" t="str">
+      <c r="B512" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="2:2">
-      <c r="B513" s="56" t="str">
+      <c r="B513" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="2:2">
-      <c r="B514" s="56" t="str">
+      <c r="B514" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="2:2">
-      <c r="B515" s="56" t="str">
+      <c r="B515" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="2:2">
-      <c r="B516" s="56" t="str">
+      <c r="B516" s="50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="517" spans="2:2">
-      <c r="B517" s="56" t="str">
+      <c r="B517" s="50" t="str">
         <f t="shared" ref="B517:B580" si="8">IF(G517="","",HYPERLINK(G517, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="518" spans="2:2">
-      <c r="B518" s="56" t="str">
+      <c r="B518" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="519" spans="2:2">
-      <c r="B519" s="56" t="str">
+      <c r="B519" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="520" spans="2:2">
-      <c r="B520" s="56" t="str">
+      <c r="B520" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="521" spans="2:2">
-      <c r="B521" s="56" t="str">
+      <c r="B521" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="522" spans="2:2">
-      <c r="B522" s="56" t="str">
+      <c r="B522" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="523" spans="2:2">
-      <c r="B523" s="56" t="str">
+      <c r="B523" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="524" spans="2:2">
-      <c r="B524" s="56" t="str">
+      <c r="B524" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="525" spans="2:2">
-      <c r="B525" s="56" t="str">
+      <c r="B525" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="526" spans="2:2">
-      <c r="B526" s="56" t="str">
+      <c r="B526" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="527" spans="2:2">
-      <c r="B527" s="56" t="str">
+      <c r="B527" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="528" spans="2:2">
-      <c r="B528" s="56" t="str">
+      <c r="B528" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="529" spans="2:2">
-      <c r="B529" s="56" t="str">
+      <c r="B529" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="530" spans="2:2">
-      <c r="B530" s="56" t="str">
+      <c r="B530" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="531" spans="2:2">
-      <c r="B531" s="56" t="str">
+      <c r="B531" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="532" spans="2:2">
-      <c r="B532" s="56" t="str">
+      <c r="B532" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="533" spans="2:2">
-      <c r="B533" s="56" t="str">
+      <c r="B533" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="534" spans="2:2">
-      <c r="B534" s="56" t="str">
+      <c r="B534" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="535" spans="2:2">
-      <c r="B535" s="56" t="str">
+      <c r="B535" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="536" spans="2:2">
-      <c r="B536" s="56" t="str">
+      <c r="B536" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="537" spans="2:2">
-      <c r="B537" s="56" t="str">
+      <c r="B537" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="538" spans="2:2">
-      <c r="B538" s="56" t="str">
+      <c r="B538" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="539" spans="2:2">
-      <c r="B539" s="56" t="str">
+      <c r="B539" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="540" spans="2:2">
-      <c r="B540" s="56" t="str">
+      <c r="B540" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="541" spans="2:2">
-      <c r="B541" s="56" t="str">
+      <c r="B541" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="542" spans="2:2">
-      <c r="B542" s="56" t="str">
+      <c r="B542" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="543" spans="2:2">
-      <c r="B543" s="56" t="str">
+      <c r="B543" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="544" spans="2:2">
-      <c r="B544" s="56" t="str">
+      <c r="B544" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="545" spans="2:2">
-      <c r="B545" s="56" t="str">
+      <c r="B545" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="546" spans="2:2">
-      <c r="B546" s="56" t="str">
+      <c r="B546" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="547" spans="2:2">
-      <c r="B547" s="56" t="str">
+      <c r="B547" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="548" spans="2:2">
-      <c r="B548" s="56" t="str">
+      <c r="B548" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="549" spans="2:2">
-      <c r="B549" s="56" t="str">
+      <c r="B549" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="550" spans="2:2">
-      <c r="B550" s="56" t="str">
+      <c r="B550" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="551" spans="2:2">
-      <c r="B551" s="56" t="str">
+      <c r="B551" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="552" spans="2:2">
-      <c r="B552" s="56" t="str">
+      <c r="B552" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="553" spans="2:2">
-      <c r="B553" s="56" t="str">
+      <c r="B553" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="554" spans="2:2">
-      <c r="B554" s="56" t="str">
+      <c r="B554" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="555" spans="2:2">
-      <c r="B555" s="56" t="str">
+      <c r="B555" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="556" spans="2:2">
-      <c r="B556" s="56" t="str">
+      <c r="B556" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="557" spans="2:2">
-      <c r="B557" s="56" t="str">
+      <c r="B557" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="558" spans="2:2">
-      <c r="B558" s="56" t="str">
+      <c r="B558" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="559" spans="2:2">
-      <c r="B559" s="56" t="str">
+      <c r="B559" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="560" spans="2:2">
-      <c r="B560" s="56" t="str">
+      <c r="B560" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="561" spans="2:2">
-      <c r="B561" s="56" t="str">
+      <c r="B561" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="562" spans="2:2">
-      <c r="B562" s="56" t="str">
+      <c r="B562" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="563" spans="2:2">
-      <c r="B563" s="56" t="str">
+      <c r="B563" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="564" spans="2:2">
-      <c r="B564" s="56" t="str">
+      <c r="B564" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="565" spans="2:2">
-      <c r="B565" s="56" t="str">
+      <c r="B565" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="566" spans="2:2">
-      <c r="B566" s="56" t="str">
+      <c r="B566" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="567" spans="2:2">
-      <c r="B567" s="56" t="str">
+      <c r="B567" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="568" spans="2:2">
-      <c r="B568" s="56" t="str">
+      <c r="B568" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="569" spans="2:2">
-      <c r="B569" s="56" t="str">
+      <c r="B569" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="570" spans="2:2">
-      <c r="B570" s="56" t="str">
+      <c r="B570" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="571" spans="2:2">
-      <c r="B571" s="56" t="str">
+      <c r="B571" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="572" spans="2:2">
-      <c r="B572" s="56" t="str">
+      <c r="B572" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="573" spans="2:2">
-      <c r="B573" s="56" t="str">
+      <c r="B573" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="574" spans="2:2">
-      <c r="B574" s="56" t="str">
+      <c r="B574" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="575" spans="2:2">
-      <c r="B575" s="56" t="str">
+      <c r="B575" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="576" spans="2:2">
-      <c r="B576" s="56" t="str">
+      <c r="B576" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="577" spans="2:2">
-      <c r="B577" s="56" t="str">
+      <c r="B577" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="578" spans="2:2">
-      <c r="B578" s="56" t="str">
+      <c r="B578" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="579" spans="2:2">
-      <c r="B579" s="56" t="str">
+      <c r="B579" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="580" spans="2:2">
-      <c r="B580" s="56" t="str">
+      <c r="B580" s="50" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="581" spans="2:2">
-      <c r="B581" s="56" t="str">
+      <c r="B581" s="50" t="str">
         <f t="shared" ref="B581:B644" si="9">IF(G581="","",HYPERLINK(G581, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="582" spans="2:2">
-      <c r="B582" s="56" t="str">
+      <c r="B582" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="583" spans="2:2">
-      <c r="B583" s="56" t="str">
+      <c r="B583" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="584" spans="2:2">
-      <c r="B584" s="56" t="str">
+      <c r="B584" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="585" spans="2:2">
-      <c r="B585" s="56" t="str">
+      <c r="B585" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="586" spans="2:2">
-      <c r="B586" s="56" t="str">
+      <c r="B586" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="587" spans="2:2">
-      <c r="B587" s="56" t="str">
+      <c r="B587" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="588" spans="2:2">
-      <c r="B588" s="56" t="str">
+      <c r="B588" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="589" spans="2:2">
-      <c r="B589" s="56" t="str">
+      <c r="B589" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="590" spans="2:2">
-      <c r="B590" s="56" t="str">
+      <c r="B590" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="591" spans="2:2">
-      <c r="B591" s="56" t="str">
+      <c r="B591" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="592" spans="2:2">
-      <c r="B592" s="56" t="str">
+      <c r="B592" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="593" spans="2:2">
-      <c r="B593" s="56" t="str">
+      <c r="B593" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="594" spans="2:2">
-      <c r="B594" s="56" t="str">
+      <c r="B594" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="595" spans="2:2">
-      <c r="B595" s="56" t="str">
+      <c r="B595" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="596" spans="2:2">
-      <c r="B596" s="56" t="str">
+      <c r="B596" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="597" spans="2:2">
-      <c r="B597" s="56" t="str">
+      <c r="B597" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="598" spans="2:2">
-      <c r="B598" s="56" t="str">
+      <c r="B598" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="599" spans="2:2">
-      <c r="B599" s="56" t="str">
+      <c r="B599" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="600" spans="2:2">
-      <c r="B600" s="56" t="str">
+      <c r="B600" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="601" spans="2:2">
-      <c r="B601" s="56" t="str">
+      <c r="B601" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="602" spans="2:2">
-      <c r="B602" s="56" t="str">
+      <c r="B602" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="603" spans="2:2">
-      <c r="B603" s="56" t="str">
+      <c r="B603" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="604" spans="2:2">
-      <c r="B604" s="56" t="str">
+      <c r="B604" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="605" spans="2:2">
-      <c r="B605" s="56" t="str">
+      <c r="B605" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="606" spans="2:2">
-      <c r="B606" s="56" t="str">
+      <c r="B606" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="607" spans="2:2">
-      <c r="B607" s="56" t="str">
+      <c r="B607" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="608" spans="2:2">
-      <c r="B608" s="56" t="str">
+      <c r="B608" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="609" spans="2:2">
-      <c r="B609" s="56" t="str">
+      <c r="B609" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="610" spans="2:2">
-      <c r="B610" s="56" t="str">
+      <c r="B610" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="611" spans="2:2">
-      <c r="B611" s="56" t="str">
+      <c r="B611" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="612" spans="2:2">
-      <c r="B612" s="56" t="str">
+      <c r="B612" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="613" spans="2:2">
-      <c r="B613" s="56" t="str">
+      <c r="B613" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="614" spans="2:2">
-      <c r="B614" s="56" t="str">
+      <c r="B614" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="615" spans="2:2">
-      <c r="B615" s="56" t="str">
+      <c r="B615" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="616" spans="2:2">
-      <c r="B616" s="56" t="str">
+      <c r="B616" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="617" spans="2:2">
-      <c r="B617" s="56" t="str">
+      <c r="B617" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="618" spans="2:2">
-      <c r="B618" s="56" t="str">
+      <c r="B618" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="619" spans="2:2">
-      <c r="B619" s="56" t="str">
+      <c r="B619" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="620" spans="2:2">
-      <c r="B620" s="56" t="str">
+      <c r="B620" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="621" spans="2:2">
-      <c r="B621" s="56" t="str">
+      <c r="B621" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="622" spans="2:2">
-      <c r="B622" s="56" t="str">
+      <c r="B622" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="623" spans="2:2">
-      <c r="B623" s="56" t="str">
+      <c r="B623" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="624" spans="2:2">
-      <c r="B624" s="56" t="str">
+      <c r="B624" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="625" spans="2:2">
-      <c r="B625" s="56" t="str">
+      <c r="B625" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="626" spans="2:2">
-      <c r="B626" s="56" t="str">
+      <c r="B626" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="627" spans="2:2">
-      <c r="B627" s="56" t="str">
+      <c r="B627" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="628" spans="2:2">
-      <c r="B628" s="56" t="str">
+      <c r="B628" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="629" spans="2:2">
-      <c r="B629" s="56" t="str">
+      <c r="B629" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="630" spans="2:2">
-      <c r="B630" s="56" t="str">
+      <c r="B630" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="631" spans="2:2">
-      <c r="B631" s="56" t="str">
+      <c r="B631" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="632" spans="2:2">
-      <c r="B632" s="56" t="str">
+      <c r="B632" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="633" spans="2:2">
-      <c r="B633" s="56" t="str">
+      <c r="B633" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="634" spans="2:2">
-      <c r="B634" s="56" t="str">
+      <c r="B634" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="635" spans="2:2">
-      <c r="B635" s="56" t="str">
+      <c r="B635" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="636" spans="2:2">
-      <c r="B636" s="56" t="str">
+      <c r="B636" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="637" spans="2:2">
-      <c r="B637" s="56" t="str">
+      <c r="B637" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="638" spans="2:2">
-      <c r="B638" s="56" t="str">
+      <c r="B638" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="639" spans="2:2">
-      <c r="B639" s="56" t="str">
+      <c r="B639" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="640" spans="2:2">
-      <c r="B640" s="56" t="str">
+      <c r="B640" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="641" spans="2:2">
-      <c r="B641" s="56" t="str">
+      <c r="B641" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="642" spans="2:2">
-      <c r="B642" s="56" t="str">
+      <c r="B642" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="643" spans="2:2">
-      <c r="B643" s="56" t="str">
+      <c r="B643" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="644" spans="2:2">
-      <c r="B644" s="56" t="str">
+      <c r="B644" s="50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="645" spans="2:2">
-      <c r="B645" s="56" t="str">
+      <c r="B645" s="50" t="str">
         <f t="shared" ref="B645:B708" si="10">IF(G645="","",HYPERLINK(G645, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="646" spans="2:2">
-      <c r="B646" s="56" t="str">
+      <c r="B646" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="647" spans="2:2">
-      <c r="B647" s="56" t="str">
+      <c r="B647" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="648" spans="2:2">
-      <c r="B648" s="56" t="str">
+      <c r="B648" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="649" spans="2:2">
-      <c r="B649" s="56" t="str">
+      <c r="B649" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="650" spans="2:2">
-      <c r="B650" s="56" t="str">
+      <c r="B650" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="651" spans="2:2">
-      <c r="B651" s="56" t="str">
+      <c r="B651" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="652" spans="2:2">
-      <c r="B652" s="56" t="str">
+      <c r="B652" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="653" spans="2:2">
-      <c r="B653" s="56" t="str">
+      <c r="B653" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="654" spans="2:2">
-      <c r="B654" s="56" t="str">
+      <c r="B654" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="655" spans="2:2">
-      <c r="B655" s="56" t="str">
+      <c r="B655" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="656" spans="2:2">
-      <c r="B656" s="56" t="str">
+      <c r="B656" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="657" spans="2:2">
-      <c r="B657" s="56" t="str">
+      <c r="B657" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="658" spans="2:2">
-      <c r="B658" s="56" t="str">
+      <c r="B658" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="659" spans="2:2">
-      <c r="B659" s="56" t="str">
+      <c r="B659" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="660" spans="2:2">
-      <c r="B660" s="56" t="str">
+      <c r="B660" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="661" spans="2:2">
-      <c r="B661" s="56" t="str">
+      <c r="B661" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="662" spans="2:2">
-      <c r="B662" s="56" t="str">
+      <c r="B662" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="663" spans="2:2">
-      <c r="B663" s="56" t="str">
+      <c r="B663" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="664" spans="2:2">
-      <c r="B664" s="56" t="str">
+      <c r="B664" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="665" spans="2:2">
-      <c r="B665" s="56" t="str">
+      <c r="B665" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="666" spans="2:2">
-      <c r="B666" s="56" t="str">
+      <c r="B666" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="667" spans="2:2">
-      <c r="B667" s="56" t="str">
+      <c r="B667" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="668" spans="2:2">
-      <c r="B668" s="56" t="str">
+      <c r="B668" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="669" spans="2:2">
-      <c r="B669" s="56" t="str">
+      <c r="B669" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="670" spans="2:2">
-      <c r="B670" s="56" t="str">
+      <c r="B670" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="671" spans="2:2">
-      <c r="B671" s="56" t="str">
+      <c r="B671" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="672" spans="2:2">
-      <c r="B672" s="56" t="str">
+      <c r="B672" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="673" spans="2:2">
-      <c r="B673" s="56" t="str">
+      <c r="B673" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="674" spans="2:2">
-      <c r="B674" s="56" t="str">
+      <c r="B674" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="675" spans="2:2">
-      <c r="B675" s="56" t="str">
+      <c r="B675" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="676" spans="2:2">
-      <c r="B676" s="56" t="str">
+      <c r="B676" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="677" spans="2:2">
-      <c r="B677" s="56" t="str">
+      <c r="B677" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="678" spans="2:2">
-      <c r="B678" s="56" t="str">
+      <c r="B678" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="679" spans="2:2">
-      <c r="B679" s="56" t="str">
+      <c r="B679" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="680" spans="2:2">
-      <c r="B680" s="56" t="str">
+      <c r="B680" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="681" spans="2:2">
-      <c r="B681" s="56" t="str">
+      <c r="B681" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="682" spans="2:2">
-      <c r="B682" s="56" t="str">
+      <c r="B682" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="683" spans="2:2">
-      <c r="B683" s="56" t="str">
+      <c r="B683" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="684" spans="2:2">
-      <c r="B684" s="56" t="str">
+      <c r="B684" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="685" spans="2:2">
-      <c r="B685" s="56" t="str">
+      <c r="B685" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="686" spans="2:2">
-      <c r="B686" s="56" t="str">
+      <c r="B686" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="687" spans="2:2">
-      <c r="B687" s="56" t="str">
+      <c r="B687" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="688" spans="2:2">
-      <c r="B688" s="56" t="str">
+      <c r="B688" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="689" spans="2:2">
-      <c r="B689" s="56" t="str">
+      <c r="B689" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="690" spans="2:2">
-      <c r="B690" s="56" t="str">
+      <c r="B690" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="691" spans="2:2">
-      <c r="B691" s="56" t="str">
+      <c r="B691" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="692" spans="2:2">
-      <c r="B692" s="56" t="str">
+      <c r="B692" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="693" spans="2:2">
-      <c r="B693" s="56" t="str">
+      <c r="B693" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="694" spans="2:2">
-      <c r="B694" s="56" t="str">
+      <c r="B694" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="695" spans="2:2">
-      <c r="B695" s="56" t="str">
+      <c r="B695" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="696" spans="2:2">
-      <c r="B696" s="56" t="str">
+      <c r="B696" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="697" spans="2:2">
-      <c r="B697" s="56" t="str">
+      <c r="B697" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="698" spans="2:2">
-      <c r="B698" s="56" t="str">
+      <c r="B698" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="699" spans="2:2">
-      <c r="B699" s="56" t="str">
+      <c r="B699" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="700" spans="2:2">
-      <c r="B700" s="56" t="str">
+      <c r="B700" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="701" spans="2:2">
-      <c r="B701" s="56" t="str">
+      <c r="B701" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="702" spans="2:2">
-      <c r="B702" s="56" t="str">
+      <c r="B702" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="703" spans="2:2">
-      <c r="B703" s="56" t="str">
+      <c r="B703" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="704" spans="2:2">
-      <c r="B704" s="56" t="str">
+      <c r="B704" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="705" spans="2:2">
-      <c r="B705" s="56" t="str">
+      <c r="B705" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="706" spans="2:2">
-      <c r="B706" s="56" t="str">
+      <c r="B706" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="707" spans="2:2">
-      <c r="B707" s="56" t="str">
+      <c r="B707" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="708" spans="2:2">
-      <c r="B708" s="56" t="str">
+      <c r="B708" s="50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="709" spans="2:2">
-      <c r="B709" s="56" t="str">
+      <c r="B709" s="50" t="str">
         <f t="shared" ref="B709:B772" si="11">IF(G709="","",HYPERLINK(G709, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="710" spans="2:2">
-      <c r="B710" s="56" t="str">
+      <c r="B710" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="711" spans="2:2">
-      <c r="B711" s="56" t="str">
+      <c r="B711" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="712" spans="2:2">
-      <c r="B712" s="56" t="str">
+      <c r="B712" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="713" spans="2:2">
-      <c r="B713" s="56" t="str">
+      <c r="B713" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="714" spans="2:2">
-      <c r="B714" s="56" t="str">
+      <c r="B714" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="715" spans="2:2">
-      <c r="B715" s="56" t="str">
+      <c r="B715" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="716" spans="2:2">
-      <c r="B716" s="56" t="str">
+      <c r="B716" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="717" spans="2:2">
-      <c r="B717" s="56" t="str">
+      <c r="B717" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="718" spans="2:2">
-      <c r="B718" s="56" t="str">
+      <c r="B718" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="719" spans="2:2">
-      <c r="B719" s="56" t="str">
+      <c r="B719" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="720" spans="2:2">
-      <c r="B720" s="56" t="str">
+      <c r="B720" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="721" spans="2:2">
-      <c r="B721" s="56" t="str">
+      <c r="B721" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="722" spans="2:2">
-      <c r="B722" s="56" t="str">
+      <c r="B722" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="723" spans="2:2">
-      <c r="B723" s="56" t="str">
+      <c r="B723" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="724" spans="2:2">
-      <c r="B724" s="56" t="str">
+      <c r="B724" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="725" spans="2:2">
-      <c r="B725" s="56" t="str">
+      <c r="B725" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="726" spans="2:2">
-      <c r="B726" s="56" t="str">
+      <c r="B726" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="727" spans="2:2">
-      <c r="B727" s="56" t="str">
+      <c r="B727" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="728" spans="2:2">
-      <c r="B728" s="56" t="str">
+      <c r="B728" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="729" spans="2:2">
-      <c r="B729" s="56" t="str">
+      <c r="B729" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="730" spans="2:2">
-      <c r="B730" s="56" t="str">
+      <c r="B730" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="731" spans="2:2">
-      <c r="B731" s="56" t="str">
+      <c r="B731" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="732" spans="2:2">
-      <c r="B732" s="56" t="str">
+      <c r="B732" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="733" spans="2:2">
-      <c r="B733" s="56" t="str">
+      <c r="B733" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="734" spans="2:2">
-      <c r="B734" s="56" t="str">
+      <c r="B734" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="735" spans="2:2">
-      <c r="B735" s="56" t="str">
+      <c r="B735" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="736" spans="2:2">
-      <c r="B736" s="56" t="str">
+      <c r="B736" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="737" spans="2:2">
-      <c r="B737" s="56" t="str">
+      <c r="B737" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="738" spans="2:2">
-      <c r="B738" s="56" t="str">
+      <c r="B738" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="739" spans="2:2">
-      <c r="B739" s="56" t="str">
+      <c r="B739" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="740" spans="2:2">
-      <c r="B740" s="56" t="str">
+      <c r="B740" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="741" spans="2:2">
-      <c r="B741" s="56" t="str">
+      <c r="B741" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="742" spans="2:2">
-      <c r="B742" s="56" t="str">
+      <c r="B742" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="743" spans="2:2">
-      <c r="B743" s="56" t="str">
+      <c r="B743" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="744" spans="2:2">
-      <c r="B744" s="56" t="str">
+      <c r="B744" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="745" spans="2:2">
-      <c r="B745" s="56" t="str">
+      <c r="B745" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="746" spans="2:2">
-      <c r="B746" s="56" t="str">
+      <c r="B746" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="747" spans="2:2">
-      <c r="B747" s="56" t="str">
+      <c r="B747" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="748" spans="2:2">
-      <c r="B748" s="56" t="str">
+      <c r="B748" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="749" spans="2:2">
-      <c r="B749" s="56" t="str">
+      <c r="B749" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="750" spans="2:2">
-      <c r="B750" s="56" t="str">
+      <c r="B750" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="751" spans="2:2">
-      <c r="B751" s="56" t="str">
+      <c r="B751" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="752" spans="2:2">
-      <c r="B752" s="56" t="str">
+      <c r="B752" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="753" spans="2:2">
-      <c r="B753" s="56" t="str">
+      <c r="B753" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="754" spans="2:2">
-      <c r="B754" s="56" t="str">
+      <c r="B754" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="755" spans="2:2">
-      <c r="B755" s="56" t="str">
+      <c r="B755" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="756" spans="2:2">
-      <c r="B756" s="56" t="str">
+      <c r="B756" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="757" spans="2:2">
-      <c r="B757" s="56" t="str">
+      <c r="B757" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="758" spans="2:2">
-      <c r="B758" s="56" t="str">
+      <c r="B758" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="759" spans="2:2">
-      <c r="B759" s="56" t="str">
+      <c r="B759" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="760" spans="2:2">
-      <c r="B760" s="56" t="str">
+      <c r="B760" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="761" spans="2:2">
-      <c r="B761" s="56" t="str">
+      <c r="B761" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="762" spans="2:2">
-      <c r="B762" s="56" t="str">
+      <c r="B762" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="763" spans="2:2">
-      <c r="B763" s="56" t="str">
+      <c r="B763" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="764" spans="2:2">
-      <c r="B764" s="56" t="str">
+      <c r="B764" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="765" spans="2:2">
-      <c r="B765" s="56" t="str">
+      <c r="B765" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="766" spans="2:2">
-      <c r="B766" s="56" t="str">
+      <c r="B766" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="767" spans="2:2">
-      <c r="B767" s="56" t="str">
+      <c r="B767" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="768" spans="2:2">
-      <c r="B768" s="56" t="str">
+      <c r="B768" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="769" spans="2:2">
-      <c r="B769" s="56" t="str">
+      <c r="B769" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="770" spans="2:2">
-      <c r="B770" s="56" t="str">
+      <c r="B770" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="771" spans="2:2">
-      <c r="B771" s="56" t="str">
+      <c r="B771" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="772" spans="2:2">
-      <c r="B772" s="56" t="str">
+      <c r="B772" s="50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="773" spans="2:2">
-      <c r="B773" s="56" t="str">
+      <c r="B773" s="50" t="str">
         <f t="shared" ref="B773:B836" si="12">IF(G773="","",HYPERLINK(G773, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="774" spans="2:2">
-      <c r="B774" s="56" t="str">
+      <c r="B774" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="775" spans="2:2">
-      <c r="B775" s="56" t="str">
+      <c r="B775" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="776" spans="2:2">
-      <c r="B776" s="56" t="str">
+      <c r="B776" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="777" spans="2:2">
-      <c r="B777" s="56" t="str">
+      <c r="B777" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="778" spans="2:2">
-      <c r="B778" s="56" t="str">
+      <c r="B778" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="779" spans="2:2">
-      <c r="B779" s="56" t="str">
+      <c r="B779" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="780" spans="2:2">
-      <c r="B780" s="56" t="str">
+      <c r="B780" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="781" spans="2:2">
-      <c r="B781" s="56" t="str">
+      <c r="B781" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="782" spans="2:2">
-      <c r="B782" s="56" t="str">
+      <c r="B782" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="783" spans="2:2">
-      <c r="B783" s="56" t="str">
+      <c r="B783" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="784" spans="2:2">
-      <c r="B784" s="56" t="str">
+      <c r="B784" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="785" spans="2:2">
-      <c r="B785" s="56" t="str">
+      <c r="B785" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="786" spans="2:2">
-      <c r="B786" s="56" t="str">
+      <c r="B786" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="787" spans="2:2">
-      <c r="B787" s="56" t="str">
+      <c r="B787" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="788" spans="2:2">
-      <c r="B788" s="56" t="str">
+      <c r="B788" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="789" spans="2:2">
-      <c r="B789" s="56" t="str">
+      <c r="B789" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="790" spans="2:2">
-      <c r="B790" s="56" t="str">
+      <c r="B790" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="791" spans="2:2">
-      <c r="B791" s="56" t="str">
+      <c r="B791" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="792" spans="2:2">
-      <c r="B792" s="56" t="str">
+      <c r="B792" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="793" spans="2:2">
-      <c r="B793" s="56" t="str">
+      <c r="B793" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="794" spans="2:2">
-      <c r="B794" s="56" t="str">
+      <c r="B794" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="795" spans="2:2">
-      <c r="B795" s="56" t="str">
+      <c r="B795" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="796" spans="2:2">
-      <c r="B796" s="56" t="str">
+      <c r="B796" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="797" spans="2:2">
-      <c r="B797" s="56" t="str">
+      <c r="B797" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="798" spans="2:2">
-      <c r="B798" s="56" t="str">
+      <c r="B798" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="799" spans="2:2">
-      <c r="B799" s="56" t="str">
+      <c r="B799" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="800" spans="2:2">
-      <c r="B800" s="56" t="str">
+      <c r="B800" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="801" spans="2:2">
-      <c r="B801" s="56" t="str">
+      <c r="B801" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="802" spans="2:2">
-      <c r="B802" s="56" t="str">
+      <c r="B802" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="803" spans="2:2">
-      <c r="B803" s="56" t="str">
+      <c r="B803" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="804" spans="2:2">
-      <c r="B804" s="56" t="str">
+      <c r="B804" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="805" spans="2:2">
-      <c r="B805" s="56" t="str">
+      <c r="B805" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="806" spans="2:2">
-      <c r="B806" s="56" t="str">
+      <c r="B806" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="807" spans="2:2">
-      <c r="B807" s="56" t="str">
+      <c r="B807" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="808" spans="2:2">
-      <c r="B808" s="56" t="str">
+      <c r="B808" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="809" spans="2:2">
-      <c r="B809" s="56" t="str">
+      <c r="B809" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="810" spans="2:2">
-      <c r="B810" s="56" t="str">
+      <c r="B810" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="811" spans="2:2">
-      <c r="B811" s="56" t="str">
+      <c r="B811" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="812" spans="2:2">
-      <c r="B812" s="56" t="str">
+      <c r="B812" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="813" spans="2:2">
-      <c r="B813" s="56" t="str">
+      <c r="B813" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="814" spans="2:2">
-      <c r="B814" s="56" t="str">
+      <c r="B814" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="815" spans="2:2">
-      <c r="B815" s="56" t="str">
+      <c r="B815" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="816" spans="2:2">
-      <c r="B816" s="56" t="str">
+      <c r="B816" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="817" spans="2:2">
-      <c r="B817" s="56" t="str">
+      <c r="B817" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="818" spans="2:2">
-      <c r="B818" s="56" t="str">
+      <c r="B818" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="819" spans="2:2">
-      <c r="B819" s="56" t="str">
+      <c r="B819" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="820" spans="2:2">
-      <c r="B820" s="56" t="str">
+      <c r="B820" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="821" spans="2:2">
-      <c r="B821" s="56" t="str">
+      <c r="B821" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="822" spans="2:2">
-      <c r="B822" s="56" t="str">
+      <c r="B822" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="823" spans="2:2">
-      <c r="B823" s="56" t="str">
+      <c r="B823" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="824" spans="2:2">
-      <c r="B824" s="56" t="str">
+      <c r="B824" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="825" spans="2:2">
-      <c r="B825" s="56" t="str">
+      <c r="B825" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="826" spans="2:2">
-      <c r="B826" s="56" t="str">
+      <c r="B826" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="827" spans="2:2">
-      <c r="B827" s="56" t="str">
+      <c r="B827" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="828" spans="2:2">
-      <c r="B828" s="56" t="str">
+      <c r="B828" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="829" spans="2:2">
-      <c r="B829" s="56" t="str">
+      <c r="B829" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="830" spans="2:2">
-      <c r="B830" s="56" t="str">
+      <c r="B830" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="831" spans="2:2">
-      <c r="B831" s="56" t="str">
+      <c r="B831" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="832" spans="2:2">
-      <c r="B832" s="56" t="str">
+      <c r="B832" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="833" spans="2:2">
-      <c r="B833" s="56" t="str">
+      <c r="B833" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="834" spans="2:2">
-      <c r="B834" s="56" t="str">
+      <c r="B834" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="835" spans="2:2">
-      <c r="B835" s="56" t="str">
+      <c r="B835" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="836" spans="2:2">
-      <c r="B836" s="56" t="str">
+      <c r="B836" s="50" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="837" spans="2:2">
-      <c r="B837" s="56" t="str">
+      <c r="B837" s="50" t="str">
         <f t="shared" ref="B837:B900" si="13">IF(G837="","",HYPERLINK(G837, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="838" spans="2:2">
-      <c r="B838" s="56" t="str">
+      <c r="B838" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="839" spans="2:2">
-      <c r="B839" s="56" t="str">
+      <c r="B839" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="840" spans="2:2">
-      <c r="B840" s="56" t="str">
+      <c r="B840" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="841" spans="2:2">
-      <c r="B841" s="56" t="str">
+      <c r="B841" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="842" spans="2:2">
-      <c r="B842" s="56" t="str">
+      <c r="B842" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="843" spans="2:2">
-      <c r="B843" s="56" t="str">
+      <c r="B843" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="844" spans="2:2">
-      <c r="B844" s="56" t="str">
+      <c r="B844" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="845" spans="2:2">
-      <c r="B845" s="56" t="str">
+      <c r="B845" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="846" spans="2:2">
-      <c r="B846" s="56" t="str">
+      <c r="B846" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="847" spans="2:2">
-      <c r="B847" s="56" t="str">
+      <c r="B847" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="848" spans="2:2">
-      <c r="B848" s="56" t="str">
+      <c r="B848" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="849" spans="2:2">
-      <c r="B849" s="56" t="str">
+      <c r="B849" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="850" spans="2:2">
-      <c r="B850" s="56" t="str">
+      <c r="B850" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="851" spans="2:2">
-      <c r="B851" s="56" t="str">
+      <c r="B851" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="852" spans="2:2">
-      <c r="B852" s="56" t="str">
+      <c r="B852" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="853" spans="2:2">
-      <c r="B853" s="56" t="str">
+      <c r="B853" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="854" spans="2:2">
-      <c r="B854" s="56" t="str">
+      <c r="B854" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="855" spans="2:2">
-      <c r="B855" s="56" t="str">
+      <c r="B855" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="856" spans="2:2">
-      <c r="B856" s="56" t="str">
+      <c r="B856" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="857" spans="2:2">
-      <c r="B857" s="56" t="str">
+      <c r="B857" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="858" spans="2:2">
-      <c r="B858" s="56" t="str">
+      <c r="B858" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="859" spans="2:2">
-      <c r="B859" s="56" t="str">
+      <c r="B859" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="860" spans="2:2">
-      <c r="B860" s="56" t="str">
+      <c r="B860" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="861" spans="2:2">
-      <c r="B861" s="56" t="str">
+      <c r="B861" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="862" spans="2:2">
-      <c r="B862" s="56" t="str">
+      <c r="B862" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="863" spans="2:2">
-      <c r="B863" s="56" t="str">
+      <c r="B863" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="864" spans="2:2">
-      <c r="B864" s="56" t="str">
+      <c r="B864" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="865" spans="2:2">
-      <c r="B865" s="56" t="str">
+      <c r="B865" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="866" spans="2:2">
-      <c r="B866" s="56" t="str">
+      <c r="B866" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="867" spans="2:2">
-      <c r="B867" s="56" t="str">
+      <c r="B867" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="868" spans="2:2">
-      <c r="B868" s="56" t="str">
+      <c r="B868" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="869" spans="2:2">
-      <c r="B869" s="56" t="str">
+      <c r="B869" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="870" spans="2:2">
-      <c r="B870" s="56" t="str">
+      <c r="B870" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="871" spans="2:2">
-      <c r="B871" s="56" t="str">
+      <c r="B871" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="872" spans="2:2">
-      <c r="B872" s="56" t="str">
+      <c r="B872" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="873" spans="2:2">
-      <c r="B873" s="56" t="str">
+      <c r="B873" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="874" spans="2:2">
-      <c r="B874" s="56" t="str">
+      <c r="B874" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="875" spans="2:2">
-      <c r="B875" s="56" t="str">
+      <c r="B875" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="876" spans="2:2">
-      <c r="B876" s="56" t="str">
+      <c r="B876" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="877" spans="2:2">
-      <c r="B877" s="56" t="str">
+      <c r="B877" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="878" spans="2:2">
-      <c r="B878" s="56" t="str">
+      <c r="B878" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="879" spans="2:2">
-      <c r="B879" s="56" t="str">
+      <c r="B879" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="880" spans="2:2">
-      <c r="B880" s="56" t="str">
+      <c r="B880" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="881" spans="2:2">
-      <c r="B881" s="56" t="str">
+      <c r="B881" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="882" spans="2:2">
-      <c r="B882" s="56" t="str">
+      <c r="B882" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="883" spans="2:2">
-      <c r="B883" s="56" t="str">
+      <c r="B883" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="884" spans="2:2">
-      <c r="B884" s="56" t="str">
+      <c r="B884" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="885" spans="2:2">
-      <c r="B885" s="56" t="str">
+      <c r="B885" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="886" spans="2:2">
-      <c r="B886" s="56" t="str">
+      <c r="B886" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="887" spans="2:2">
-      <c r="B887" s="56" t="str">
+      <c r="B887" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="888" spans="2:2">
-      <c r="B888" s="56" t="str">
+      <c r="B888" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="889" spans="2:2">
-      <c r="B889" s="56" t="str">
+      <c r="B889" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="890" spans="2:2">
-      <c r="B890" s="56" t="str">
+      <c r="B890" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="891" spans="2:2">
-      <c r="B891" s="56" t="str">
+      <c r="B891" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="892" spans="2:2">
-      <c r="B892" s="56" t="str">
+      <c r="B892" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="893" spans="2:2">
-      <c r="B893" s="56" t="str">
+      <c r="B893" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="894" spans="2:2">
-      <c r="B894" s="56" t="str">
+      <c r="B894" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="895" spans="2:2">
-      <c r="B895" s="56" t="str">
+      <c r="B895" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="896" spans="2:2">
-      <c r="B896" s="56" t="str">
+      <c r="B896" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="897" spans="2:2">
-      <c r="B897" s="56" t="str">
+      <c r="B897" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="898" spans="2:2">
-      <c r="B898" s="56" t="str">
+      <c r="B898" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="899" spans="2:2">
-      <c r="B899" s="56" t="str">
+      <c r="B899" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="900" spans="2:2">
-      <c r="B900" s="56" t="str">
+      <c r="B900" s="50" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="901" spans="2:2">
-      <c r="B901" s="56" t="str">
+      <c r="B901" s="50" t="str">
         <f t="shared" ref="B901:B964" si="14">IF(G901="","",HYPERLINK(G901, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="902" spans="2:2">
-      <c r="B902" s="56" t="str">
+      <c r="B902" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="903" spans="2:2">
-      <c r="B903" s="56" t="str">
+      <c r="B903" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="904" spans="2:2">
-      <c r="B904" s="56" t="str">
+      <c r="B904" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="905" spans="2:2">
-      <c r="B905" s="56" t="str">
+      <c r="B905" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="906" spans="2:2">
-      <c r="B906" s="56" t="str">
+      <c r="B906" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="907" spans="2:2">
-      <c r="B907" s="56" t="str">
+      <c r="B907" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="908" spans="2:2">
-      <c r="B908" s="56" t="str">
+      <c r="B908" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="909" spans="2:2">
-      <c r="B909" s="56" t="str">
+      <c r="B909" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="910" spans="2:2">
-      <c r="B910" s="56" t="str">
+      <c r="B910" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="911" spans="2:2">
-      <c r="B911" s="56" t="str">
+      <c r="B911" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="912" spans="2:2">
-      <c r="B912" s="56" t="str">
+      <c r="B912" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="913" spans="2:2">
-      <c r="B913" s="56" t="str">
+      <c r="B913" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="914" spans="2:2">
-      <c r="B914" s="56" t="str">
+      <c r="B914" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="915" spans="2:2">
-      <c r="B915" s="56" t="str">
+      <c r="B915" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="916" spans="2:2">
-      <c r="B916" s="56" t="str">
+      <c r="B916" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="917" spans="2:2">
-      <c r="B917" s="56" t="str">
+      <c r="B917" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="918" spans="2:2">
-      <c r="B918" s="56" t="str">
+      <c r="B918" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="919" spans="2:2">
-      <c r="B919" s="56" t="str">
+      <c r="B919" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="920" spans="2:2">
-      <c r="B920" s="56" t="str">
+      <c r="B920" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="921" spans="2:2">
-      <c r="B921" s="56" t="str">
+      <c r="B921" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="922" spans="2:2">
-      <c r="B922" s="56" t="str">
+      <c r="B922" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="923" spans="2:2">
-      <c r="B923" s="56" t="str">
+      <c r="B923" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="924" spans="2:2">
-      <c r="B924" s="56" t="str">
+      <c r="B924" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="925" spans="2:2">
-      <c r="B925" s="56" t="str">
+      <c r="B925" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="926" spans="2:2">
-      <c r="B926" s="56" t="str">
+      <c r="B926" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="927" spans="2:2">
-      <c r="B927" s="56" t="str">
+      <c r="B927" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="928" spans="2:2">
-      <c r="B928" s="56" t="str">
+      <c r="B928" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="929" spans="2:2">
-      <c r="B929" s="56" t="str">
+      <c r="B929" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="930" spans="2:2">
-      <c r="B930" s="56" t="str">
+      <c r="B930" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="931" spans="2:2">
-      <c r="B931" s="56" t="str">
+      <c r="B931" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="932" spans="2:2">
-      <c r="B932" s="56" t="str">
+      <c r="B932" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="933" spans="2:2">
-      <c r="B933" s="56" t="str">
+      <c r="B933" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="934" spans="2:2">
-      <c r="B934" s="56" t="str">
+      <c r="B934" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="935" spans="2:2">
-      <c r="B935" s="56" t="str">
+      <c r="B935" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="936" spans="2:2">
-      <c r="B936" s="56" t="str">
+      <c r="B936" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="937" spans="2:2">
-      <c r="B937" s="56" t="str">
+      <c r="B937" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="938" spans="2:2">
-      <c r="B938" s="56" t="str">
+      <c r="B938" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="939" spans="2:2">
-      <c r="B939" s="56" t="str">
+      <c r="B939" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="940" spans="2:2">
-      <c r="B940" s="56" t="str">
+      <c r="B940" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="941" spans="2:2">
-      <c r="B941" s="56" t="str">
+      <c r="B941" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="942" spans="2:2">
-      <c r="B942" s="56" t="str">
+      <c r="B942" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="943" spans="2:2">
-      <c r="B943" s="56" t="str">
+      <c r="B943" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="944" spans="2:2">
-      <c r="B944" s="56" t="str">
+      <c r="B944" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="945" spans="2:2">
-      <c r="B945" s="56" t="str">
+      <c r="B945" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="946" spans="2:2">
-      <c r="B946" s="56" t="str">
+      <c r="B946" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="947" spans="2:2">
-      <c r="B947" s="56" t="str">
+      <c r="B947" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="948" spans="2:2">
-      <c r="B948" s="56" t="str">
+      <c r="B948" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="949" spans="2:2">
-      <c r="B949" s="56" t="str">
+      <c r="B949" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="950" spans="2:2">
-      <c r="B950" s="56" t="str">
+      <c r="B950" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="951" spans="2:2">
-      <c r="B951" s="56" t="str">
+      <c r="B951" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="952" spans="2:2">
-      <c r="B952" s="56" t="str">
+      <c r="B952" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="953" spans="2:2">
-      <c r="B953" s="56" t="str">
+      <c r="B953" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="954" spans="2:2">
-      <c r="B954" s="56" t="str">
+      <c r="B954" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="955" spans="2:2">
-      <c r="B955" s="56" t="str">
+      <c r="B955" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="956" spans="2:2">
-      <c r="B956" s="56" t="str">
+      <c r="B956" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="957" spans="2:2">
-      <c r="B957" s="56" t="str">
+      <c r="B957" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="958" spans="2:2">
-      <c r="B958" s="56" t="str">
+      <c r="B958" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="959" spans="2:2">
-      <c r="B959" s="56" t="str">
+      <c r="B959" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="960" spans="2:2">
-      <c r="B960" s="56" t="str">
+      <c r="B960" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="961" spans="2:2">
-      <c r="B961" s="56" t="str">
+      <c r="B961" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="962" spans="2:2">
-      <c r="B962" s="56" t="str">
+      <c r="B962" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="963" spans="2:2">
-      <c r="B963" s="56" t="str">
+      <c r="B963" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="964" spans="2:2">
-      <c r="B964" s="56" t="str">
+      <c r="B964" s="50" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="965" spans="2:2">
-      <c r="B965" s="56" t="str">
+      <c r="B965" s="50" t="str">
         <f t="shared" ref="B965:B971" si="15">IF(G965="","",HYPERLINK(G965, "▶"))</f>
         <v/>
       </c>
     </row>
     <row r="966" spans="2:2">
-      <c r="B966" s="56" t="str">
+      <c r="B966" s="50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="967" spans="2:2">
-      <c r="B967" s="56" t="str">
+      <c r="B967" s="50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="968" spans="2:2">
-      <c r="B968" s="56" t="str">
+      <c r="B968" s="50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="969" spans="2:2">
-      <c r="B969" s="56" t="str">
+      <c r="B969" s="50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="970" spans="2:2">
-      <c r="B970" s="56" t="str">
+      <c r="B970" s="50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="971" spans="2:2">
-      <c r="B971" s="56" t="str">
+      <c r="B971" s="50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
@@ -12197,29 +12374,29 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51.6" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:4" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="62" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12290,29 +12467,29 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.15" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:4" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="62" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12344,37 +12521,37 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AD483E-2744-416E-9F49-AC65A19CC372}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="43.875" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="49"/>
-    <col min="6" max="6" width="8.75" style="9"/>
+    <col min="1" max="1" width="16.25" style="45" customWidth="1"/>
+    <col min="2" max="2" width="43.875" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:5" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="C1" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
+++ b/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A426A25-0FB1-4923-A98F-192EAC544C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D403B49-A5D5-4118-B191-E7E2281529F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
   <si>
     <t>오늘자 뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,21 @@
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+  </si>
+  <si>
+    <t>지수명</t>
+  </si>
+  <si>
+    <t>출처</t>
+  </si>
+  <si>
+    <t>제공자</t>
+  </si>
+  <si>
+    <t>링크</t>
   </si>
 </sst>
 </file>
@@ -646,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,33 +821,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,6 +837,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2233,43 +2251,43 @@
     </row>
     <row r="2" spans="2:32" ht="35.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="E3" s="55" t="s">
+      <c r="C3" s="61"/>
+      <c r="E3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="H3" s="55" t="s">
+      <c r="F3" s="61"/>
+      <c r="H3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="K3" s="55" t="s">
+      <c r="I3" s="61"/>
+      <c r="K3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AB3" s="59" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AB3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1">
       <c r="D4" s="11"/>
@@ -2324,18 +2342,18 @@
       <c r="AB4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="61" t="s">
+      <c r="AC4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
     </row>
     <row r="5" spans="2:32">
       <c r="K5" s="23">
         <v>1</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="65" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="23">
@@ -2408,7 +2426,7 @@
       <c r="K6" s="12">
         <v>2</v>
       </c>
-      <c r="L6" s="57"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="12">
         <v>2</v>
       </c>
@@ -2479,7 +2497,7 @@
       <c r="K7" s="12">
         <v>3</v>
       </c>
-      <c r="L7" s="57"/>
+      <c r="L7" s="65"/>
       <c r="M7" s="12">
         <v>3</v>
       </c>
@@ -2550,7 +2568,7 @@
       <c r="K8" s="12">
         <v>4</v>
       </c>
-      <c r="L8" s="57"/>
+      <c r="L8" s="65"/>
       <c r="M8" s="12">
         <v>4</v>
       </c>
@@ -2618,22 +2636,22 @@
       </c>
     </row>
     <row r="9" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="E9" s="55" t="s">
+      <c r="C9" s="61"/>
+      <c r="E9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="H9" s="55" t="s">
+      <c r="F9" s="61"/>
+      <c r="H9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="61"/>
       <c r="K9" s="12">
         <v>5</v>
       </c>
-      <c r="L9" s="57"/>
+      <c r="L9" s="65"/>
       <c r="M9" s="12">
         <v>5</v>
       </c>
@@ -2707,7 +2725,7 @@
       <c r="K10" s="12">
         <v>6</v>
       </c>
-      <c r="L10" s="57"/>
+      <c r="L10" s="65"/>
       <c r="M10" s="12">
         <v>6</v>
       </c>
@@ -2777,7 +2795,7 @@
       <c r="K11" s="12">
         <v>7</v>
       </c>
-      <c r="L11" s="57"/>
+      <c r="L11" s="65"/>
       <c r="M11" s="12">
         <v>7</v>
       </c>
@@ -2847,7 +2865,7 @@
       <c r="K12" s="12">
         <v>8</v>
       </c>
-      <c r="L12" s="57"/>
+      <c r="L12" s="65"/>
       <c r="M12" s="12">
         <v>8</v>
       </c>
@@ -2917,7 +2935,7 @@
       <c r="K13" s="12">
         <v>9</v>
       </c>
-      <c r="L13" s="57"/>
+      <c r="L13" s="65"/>
       <c r="M13" s="12">
         <v>9</v>
       </c>
@@ -2987,7 +3005,7 @@
       <c r="K14" s="12">
         <v>10</v>
       </c>
-      <c r="L14" s="58"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="12">
         <v>10</v>
       </c>
@@ -3054,22 +3072,22 @@
       </c>
     </row>
     <row r="15" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="E15" s="55" t="s">
+      <c r="C15" s="61"/>
+      <c r="E15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="H15" s="55" t="s">
+      <c r="F15" s="61"/>
+      <c r="H15" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="61"/>
       <c r="K15" s="12">
         <v>11</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="64" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="12">
@@ -3127,16 +3145,16 @@
         <f>KOSDAQ!C7</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
       <c r="AF15" s="33"/>
     </row>
     <row r="16" spans="2:32" ht="17.25" thickBot="1">
       <c r="K16" s="12">
         <v>12</v>
       </c>
-      <c r="L16" s="57"/>
+      <c r="L16" s="65"/>
       <c r="M16" s="12">
         <v>2</v>
       </c>
@@ -3192,21 +3210,21 @@
         <f>KOSDAQ!C8</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="59" t="s">
+      <c r="AB16" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AC16" s="59"/>
+      <c r="AC16" s="63"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="59" t="s">
+      <c r="AE16" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AF16" s="59"/>
+      <c r="AF16" s="63"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1">
       <c r="K17" s="12">
         <v>13</v>
       </c>
-      <c r="L17" s="57"/>
+      <c r="L17" s="65"/>
       <c r="M17" s="12">
         <v>3</v>
       </c>
@@ -3280,7 +3298,7 @@
       <c r="K18" s="12">
         <v>14</v>
       </c>
-      <c r="L18" s="57"/>
+      <c r="L18" s="65"/>
       <c r="M18" s="12">
         <v>4</v>
       </c>
@@ -3352,7 +3370,7 @@
       <c r="K19" s="12">
         <v>15</v>
       </c>
-      <c r="L19" s="57"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="12">
         <v>5</v>
       </c>
@@ -3420,7 +3438,7 @@
       <c r="K20" s="12">
         <v>16</v>
       </c>
-      <c r="L20" s="57"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="12">
         <v>6</v>
       </c>
@@ -3485,22 +3503,22 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="17.25" thickBot="1">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="E21" s="55" t="s">
+      <c r="C21" s="61"/>
+      <c r="E21" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="H21" s="55" t="s">
+      <c r="F21" s="61"/>
+      <c r="H21" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="61"/>
       <c r="K21" s="12">
         <v>17</v>
       </c>
-      <c r="L21" s="57"/>
+      <c r="L21" s="65"/>
       <c r="M21" s="12">
         <v>7</v>
       </c>
@@ -3561,7 +3579,7 @@
       <c r="K22" s="12">
         <v>18</v>
       </c>
-      <c r="L22" s="57"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="12">
         <v>8</v>
       </c>
@@ -3617,16 +3635,16 @@
         <f>KOSDAQ!C14</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="59" t="s">
+      <c r="AE22" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AF22" s="59"/>
+      <c r="AF22" s="63"/>
     </row>
     <row r="23" spans="1:33" ht="17.25" thickBot="1">
       <c r="K23" s="12">
         <v>19</v>
       </c>
-      <c r="L23" s="57"/>
+      <c r="L23" s="65"/>
       <c r="M23" s="12">
         <v>9</v>
       </c>
@@ -3693,7 +3711,7 @@
       <c r="K24" s="12">
         <v>20</v>
       </c>
-      <c r="L24" s="58"/>
+      <c r="L24" s="66"/>
       <c r="M24" s="12">
         <v>10</v>
       </c>
@@ -3786,44 +3804,44 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
-      <c r="K27" s="55" t="s">
+      <c r="K27" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AB27" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AB27" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1">
-      <c r="K28" s="55" t="s">
+      <c r="K28" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55" t="s">
+      <c r="L28" s="61"/>
+      <c r="M28" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -3858,19 +3876,19 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="54">
+      <c r="K29" s="59">
         <f>주요뉴스!E4</f>
         <v>0</v>
       </c>
-      <c r="L29" s="54"/>
-      <c r="M29" s="53">
+      <c r="L29" s="59"/>
+      <c r="M29" s="60">
         <f>주요뉴스!C4</f>
         <v>0</v>
       </c>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
@@ -3897,19 +3915,19 @@
       <c r="AF29" s="26"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="54">
+      <c r="K30" s="59">
         <f>주요뉴스!E5</f>
         <v>0</v>
       </c>
-      <c r="L30" s="54"/>
-      <c r="M30" s="53">
+      <c r="L30" s="59"/>
+      <c r="M30" s="60">
         <f>주요뉴스!C5</f>
         <v>0</v>
       </c>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -3937,19 +3955,19 @@
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="54">
+      <c r="K31" s="59">
         <f>주요뉴스!E6</f>
         <v>0</v>
       </c>
-      <c r="L31" s="54"/>
-      <c r="M31" s="53">
+      <c r="L31" s="59"/>
+      <c r="M31" s="60">
         <f>주요뉴스!C6</f>
         <v>0</v>
       </c>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
@@ -3963,12 +3981,12 @@
         <v/>
       </c>
       <c r="AA31" s="26"/>
-      <c r="AB31" s="54">
+      <c r="AB31" s="59">
         <f>종목별이슈!A5</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
       <c r="AE31" s="26">
         <f>종목별이슈!D5</f>
         <v>0</v>
@@ -3977,19 +3995,19 @@
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="54">
+      <c r="K32" s="59">
         <f>주요뉴스!E7</f>
         <v>0</v>
       </c>
-      <c r="L32" s="54"/>
-      <c r="M32" s="53">
+      <c r="L32" s="59"/>
+      <c r="M32" s="60">
         <f>주요뉴스!C7</f>
         <v>0</v>
       </c>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
@@ -4003,12 +4021,12 @@
         <v/>
       </c>
       <c r="AA32" s="26"/>
-      <c r="AB32" s="54">
+      <c r="AB32" s="59">
         <f>종목별이슈!A6</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
       <c r="AE32" s="26">
         <f>종목별이슈!D6</f>
         <v>0</v>
@@ -4017,19 +4035,19 @@
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="K33" s="54">
+      <c r="K33" s="59">
         <f>주요뉴스!E8</f>
         <v>0</v>
       </c>
-      <c r="L33" s="54"/>
-      <c r="M33" s="53">
+      <c r="L33" s="59"/>
+      <c r="M33" s="60">
         <f>주요뉴스!C8</f>
         <v>0</v>
       </c>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
@@ -4043,12 +4061,12 @@
         <v/>
       </c>
       <c r="AA33" s="26"/>
-      <c r="AB33" s="54">
+      <c r="AB33" s="59">
         <f>종목별이슈!A7</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
       <c r="AE33" s="26">
         <f>종목별이슈!D7</f>
         <v>0</v>
@@ -4057,19 +4075,19 @@
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="K34" s="54">
+      <c r="K34" s="59">
         <f>주요뉴스!E9</f>
         <v>0</v>
       </c>
-      <c r="L34" s="54"/>
-      <c r="M34" s="53">
+      <c r="L34" s="59"/>
+      <c r="M34" s="60">
         <f>주요뉴스!C9</f>
         <v>0</v>
       </c>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
@@ -4083,12 +4101,12 @@
         <v/>
       </c>
       <c r="AA34" s="26"/>
-      <c r="AB34" s="54">
+      <c r="AB34" s="59">
         <f>종목별이슈!A8</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
       <c r="AE34" s="26">
         <f>종목별이슈!D8</f>
         <v>0</v>
@@ -4097,19 +4115,19 @@
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="K35" s="54">
+      <c r="K35" s="59">
         <f>주요뉴스!E10</f>
         <v>0</v>
       </c>
-      <c r="L35" s="54"/>
-      <c r="M35" s="53">
+      <c r="L35" s="59"/>
+      <c r="M35" s="60">
         <f>주요뉴스!C10</f>
         <v>0</v>
       </c>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
@@ -4123,12 +4141,12 @@
         <v/>
       </c>
       <c r="AA35" s="26"/>
-      <c r="AB35" s="54">
+      <c r="AB35" s="59">
         <f>종목별이슈!A9</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
       <c r="AE35" s="26">
         <f>종목별이슈!D9</f>
         <v>0</v>
@@ -4137,19 +4155,19 @@
       <c r="AG35" s="26"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="K36" s="54">
+      <c r="K36" s="59">
         <f>주요뉴스!E11</f>
         <v>0</v>
       </c>
-      <c r="L36" s="54"/>
-      <c r="M36" s="53">
+      <c r="L36" s="59"/>
+      <c r="M36" s="60">
         <f>주요뉴스!C11</f>
         <v>0</v>
       </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
@@ -4163,12 +4181,12 @@
         <v/>
       </c>
       <c r="AA36" s="26"/>
-      <c r="AB36" s="54">
+      <c r="AB36" s="59">
         <f>종목별이슈!A10</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
       <c r="AE36" s="26">
         <f>종목별이슈!D10</f>
         <v>0</v>
@@ -4177,19 +4195,19 @@
       <c r="AG36" s="26"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="K37" s="54">
+      <c r="K37" s="59">
         <f>주요뉴스!E12</f>
         <v>0</v>
       </c>
-      <c r="L37" s="54"/>
-      <c r="M37" s="53">
+      <c r="L37" s="59"/>
+      <c r="M37" s="60">
         <f>주요뉴스!C12</f>
         <v>0</v>
       </c>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
@@ -4203,12 +4221,12 @@
         <v/>
       </c>
       <c r="AA37" s="26"/>
-      <c r="AB37" s="54">
+      <c r="AB37" s="59">
         <f>종목별이슈!A11</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="54"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
       <c r="AE37" s="26">
         <f>종목별이슈!D11</f>
         <v>0</v>
@@ -4218,19 +4236,19 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="20"/>
-      <c r="K38" s="54">
+      <c r="K38" s="59">
         <f>주요뉴스!E13</f>
         <v>0</v>
       </c>
-      <c r="L38" s="54"/>
-      <c r="M38" s="53">
+      <c r="L38" s="59"/>
+      <c r="M38" s="60">
         <f>주요뉴스!C13</f>
         <v>0</v>
       </c>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
@@ -4244,12 +4262,12 @@
         <v/>
       </c>
       <c r="AA38" s="26"/>
-      <c r="AB38" s="54">
+      <c r="AB38" s="59">
         <f>종목별이슈!A12</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
       <c r="AE38" s="26">
         <f>종목별이슈!D12</f>
         <v>0</v>
@@ -4259,19 +4277,19 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="21"/>
-      <c r="K39" s="54">
+      <c r="K39" s="59">
         <f>주요뉴스!E14</f>
         <v>0</v>
       </c>
-      <c r="L39" s="54"/>
-      <c r="M39" s="53">
+      <c r="L39" s="59"/>
+      <c r="M39" s="60">
         <f>주요뉴스!C14</f>
         <v>0</v>
       </c>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
@@ -4285,12 +4303,12 @@
         <v/>
       </c>
       <c r="AA39" s="26"/>
-      <c r="AB39" s="54">
+      <c r="AB39" s="59">
         <f>종목별이슈!A13</f>
         <v>0</v>
       </c>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
       <c r="AE39" s="26">
         <f>종목별이슈!D13</f>
         <v>0</v>
@@ -4300,19 +4318,19 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="21"/>
-      <c r="K40" s="54">
+      <c r="K40" s="59">
         <f>주요뉴스!E15</f>
         <v>0</v>
       </c>
-      <c r="L40" s="54"/>
-      <c r="M40" s="53">
+      <c r="L40" s="59"/>
+      <c r="M40" s="60">
         <f>주요뉴스!C15</f>
         <v>0</v>
       </c>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
@@ -4326,12 +4344,12 @@
         <v/>
       </c>
       <c r="AA40" s="26"/>
-      <c r="AB40" s="54">
+      <c r="AB40" s="59">
         <f>종목별이슈!A14</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
       <c r="AE40" s="26">
         <f>종목별이슈!D14</f>
         <v>0</v>
@@ -4341,19 +4359,19 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="21"/>
-      <c r="K41" s="54">
+      <c r="K41" s="59">
         <f>주요뉴스!E16</f>
         <v>0</v>
       </c>
-      <c r="L41" s="54"/>
-      <c r="M41" s="53">
+      <c r="L41" s="59"/>
+      <c r="M41" s="60">
         <f>주요뉴스!C16</f>
         <v>0</v>
       </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
@@ -4367,12 +4385,12 @@
         <v/>
       </c>
       <c r="AA41" s="26"/>
-      <c r="AB41" s="54">
+      <c r="AB41" s="59">
         <f>종목별이슈!A15</f>
         <v>0</v>
       </c>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
       <c r="AE41" s="26">
         <f>종목별이슈!D15</f>
         <v>0</v>
@@ -4382,19 +4400,19 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="21"/>
-      <c r="K42" s="54">
+      <c r="K42" s="59">
         <f>주요뉴스!E17</f>
         <v>0</v>
       </c>
-      <c r="L42" s="54"/>
-      <c r="M42" s="53">
+      <c r="L42" s="59"/>
+      <c r="M42" s="60">
         <f>주요뉴스!C17</f>
         <v>0</v>
       </c>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
@@ -4408,12 +4426,12 @@
         <v/>
       </c>
       <c r="AA42" s="26"/>
-      <c r="AB42" s="54">
+      <c r="AB42" s="59">
         <f>종목별이슈!A16</f>
         <v>0</v>
       </c>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
       <c r="AE42" s="26">
         <f>종목별이슈!D16</f>
         <v>0</v>
@@ -4432,19 +4450,19 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" s="54">
+      <c r="K43" s="59">
         <f>주요뉴스!E18</f>
         <v>0</v>
       </c>
-      <c r="L43" s="54"/>
-      <c r="M43" s="53">
+      <c r="L43" s="59"/>
+      <c r="M43" s="60">
         <f>주요뉴스!C18</f>
         <v>0</v>
       </c>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
@@ -4458,12 +4476,12 @@
         <v/>
       </c>
       <c r="AA43" s="26"/>
-      <c r="AB43" s="54">
+      <c r="AB43" s="59">
         <f>종목별이슈!A17</f>
         <v>0</v>
       </c>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
       <c r="AE43" s="26">
         <f>종목별이슈!D17</f>
         <v>0</v>
@@ -4472,19 +4490,19 @@
       <c r="AG43" s="26"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="K44" s="54">
+      <c r="K44" s="59">
         <f>주요뉴스!E19</f>
         <v>0</v>
       </c>
-      <c r="L44" s="54"/>
-      <c r="M44" s="53">
+      <c r="L44" s="59"/>
+      <c r="M44" s="60">
         <f>주요뉴스!C19</f>
         <v>0</v>
       </c>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
@@ -4498,12 +4516,12 @@
         <v/>
       </c>
       <c r="AA44" s="26"/>
-      <c r="AB44" s="54">
+      <c r="AB44" s="59">
         <f>종목별이슈!A18</f>
         <v>0</v>
       </c>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
       <c r="AE44" s="26">
         <f>종목별이슈!D18</f>
         <v>0</v>
@@ -4512,19 +4530,19 @@
       <c r="AG44" s="26"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="K45" s="54">
+      <c r="K45" s="59">
         <f>주요뉴스!E20</f>
         <v>0</v>
       </c>
-      <c r="L45" s="54"/>
-      <c r="M45" s="53">
+      <c r="L45" s="59"/>
+      <c r="M45" s="60">
         <f>주요뉴스!C20</f>
         <v>0</v>
       </c>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
@@ -4538,12 +4556,12 @@
         <v/>
       </c>
       <c r="AA45" s="26"/>
-      <c r="AB45" s="54">
+      <c r="AB45" s="59">
         <f>종목별이슈!A19</f>
         <v>0</v>
       </c>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="59"/>
       <c r="AE45" s="26">
         <f>종목별이슈!D19</f>
         <v>0</v>
@@ -4552,19 +4570,19 @@
       <c r="AG45" s="26"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1">
-      <c r="K46" s="54">
+      <c r="K46" s="59">
         <f>주요뉴스!E21</f>
         <v>0</v>
       </c>
-      <c r="L46" s="54"/>
-      <c r="M46" s="53">
+      <c r="L46" s="59"/>
+      <c r="M46" s="60">
         <f>주요뉴스!C21</f>
         <v>0</v>
       </c>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
@@ -4578,12 +4596,12 @@
         <v/>
       </c>
       <c r="AA46" s="26"/>
-      <c r="AB46" s="54">
+      <c r="AB46" s="59">
         <f>종목별이슈!A20</f>
         <v>0</v>
       </c>
-      <c r="AC46" s="54"/>
-      <c r="AD46" s="54"/>
+      <c r="AC46" s="59"/>
+      <c r="AD46" s="59"/>
       <c r="AE46" s="26">
         <f>종목별이슈!D20</f>
         <v>0</v>
@@ -4592,19 +4610,19 @@
       <c r="AG46" s="26"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="K47" s="54">
+      <c r="K47" s="59">
         <f>주요뉴스!E22</f>
         <v>0</v>
       </c>
-      <c r="L47" s="54"/>
-      <c r="M47" s="53">
+      <c r="L47" s="59"/>
+      <c r="M47" s="60">
         <f>주요뉴스!C22</f>
         <v>0</v>
       </c>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
@@ -4618,12 +4636,12 @@
         <v/>
       </c>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="54">
+      <c r="AB47" s="59">
         <f>종목별이슈!A21</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
+      <c r="AC47" s="59"/>
+      <c r="AD47" s="59"/>
       <c r="AE47" s="26">
         <f>종목별이슈!D21</f>
         <v>0</v>
@@ -4632,28 +4650,94 @@
       <c r="AG47" s="26"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
       <c r="M48" s="26"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="59"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="59"/>
       <c r="AA48" s="26"/>
       <c r="AG48" s="26"/>
     </row>
     <row r="51" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="M44:Q44"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="K27:Z27"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="K3:Z3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="N48:Z48"/>
     <mergeCell ref="M47:Q47"/>
     <mergeCell ref="AB47:AD47"/>
@@ -4670,72 +4754,6 @@
     <mergeCell ref="AB42:AD42"/>
     <mergeCell ref="AB46:AD46"/>
     <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="K3:Z3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="K27:Z27"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="M44:Q44"/>
-    <mergeCell ref="M45:Q45"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="M40:Q40"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="M42:Q42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4765,20 +4783,20 @@
     <col min="5" max="5" width="12.375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="67" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:5" s="58" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="53" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4793,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE6CA88-1CFA-4AE2-821A-C78C90C5A167}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4805,17 +4823,17 @@
     <col min="4" max="4" width="13.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="67" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:4" s="58" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="53" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6274,23 +6292,23 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="63" customFormat="1" ht="21" thickBot="1">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="2:7" s="54" customFormat="1" ht="21" thickBot="1">
+      <c r="B3" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="66"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickTop="1">
       <c r="B4" s="50" t="str">
@@ -12352,18 +12370,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29D3AF0-C543-4FDA-916F-470C27FFA098}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="58.625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" s="68" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12385,17 +12431,17 @@
     <col min="4" max="4" width="13.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="67" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:4" s="58" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="53" t="s">
         <v>64</v>
       </c>
     </row>
@@ -12478,17 +12524,17 @@
     <col min="4" max="4" width="13.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="67" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:4" s="58" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="53" t="s">
         <v>64</v>
       </c>
     </row>
@@ -12524,7 +12570,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12536,20 +12582,20 @@
     <col min="5" max="5" width="12.375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="67" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:5" s="58" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="53" t="s">
         <v>64</v>
       </c>
     </row>

--- a/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
+++ b/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36603E1-54DB-4922-AAF1-EA153CBE2D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212ED0F0-5BC1-4998-962E-432DA9491B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="16440" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -919,10 +919,19 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -934,20 +943,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2245,7 +2245,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2276,43 +2276,43 @@
     </row>
     <row r="2" spans="2:32" ht="27.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="E3" s="66" t="s">
+      <c r="C3" s="67"/>
+      <c r="E3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="H3" s="66" t="s">
+      <c r="F3" s="67"/>
+      <c r="H3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="K3" s="66" t="s">
+      <c r="I3" s="67"/>
+      <c r="K3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AB3" s="70" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AB3" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1">
       <c r="D4" s="4"/>
@@ -2367,18 +2367,18 @@
       <c r="AB4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="73" t="s">
+      <c r="AC4" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
     </row>
     <row r="5" spans="2:32">
       <c r="K5" s="16">
         <v>1</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="71" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="16" t="str">
@@ -2389,7 +2389,7 @@
         <f>IFERROR(KOSPI!B2,"")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="74">
+      <c r="O5" s="65">
         <f>IFERROR(KOSPI!D2,"")</f>
         <v>0</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="K6" s="5">
         <v>2</v>
       </c>
-      <c r="L6" s="68"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C3,6),"")</f>
         <v/>
@@ -2461,7 +2461,7 @@
         <f>IFERROR(KOSPI!B3,"")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="74">
+      <c r="O6" s="65">
         <f>IFERROR(KOSPI!D3,"")</f>
         <v>0</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="K7" s="5">
         <v>3</v>
       </c>
-      <c r="L7" s="68"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C4,6),"")</f>
         <v/>
@@ -2533,7 +2533,7 @@
         <f>IFERROR(KOSPI!B4,"")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="74">
+      <c r="O7" s="65">
         <f>IFERROR(KOSPI!D4,"")</f>
         <v>0</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="K8" s="5">
         <v>4</v>
       </c>
-      <c r="L8" s="68"/>
+      <c r="L8" s="71"/>
       <c r="M8" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C5,6),"")</f>
         <v/>
@@ -2605,7 +2605,7 @@
         <f>IFERROR(KOSPI!B5,"")</f>
         <v>0</v>
       </c>
-      <c r="O8" s="74">
+      <c r="O8" s="65">
         <f>IFERROR(KOSPI!D5,"")</f>
         <v>0</v>
       </c>
@@ -2665,22 +2665,22 @@
       </c>
     </row>
     <row r="9" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="E9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="E9" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="H9" s="66" t="s">
+      <c r="F9" s="67"/>
+      <c r="H9" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="K9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="68"/>
+      <c r="L9" s="71"/>
       <c r="M9" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C6,6),"")</f>
         <v/>
@@ -2689,7 +2689,7 @@
         <f>IFERROR(KOSPI!B6,"")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="74">
+      <c r="O9" s="65">
         <f>IFERROR(KOSPI!D6,"")</f>
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="K10" s="5">
         <v>6</v>
       </c>
-      <c r="L10" s="68"/>
+      <c r="L10" s="71"/>
       <c r="M10" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C7,6),"")</f>
         <v/>
@@ -2764,7 +2764,7 @@
         <f>IFERROR(KOSPI!B7,"")</f>
         <v>0</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="65">
         <f>IFERROR(KOSPI!D7,"")</f>
         <v>0</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="K11" s="5">
         <v>7</v>
       </c>
-      <c r="L11" s="68"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C8,6),"")</f>
         <v/>
@@ -2835,7 +2835,7 @@
         <f>IFERROR(KOSPI!B8,"")</f>
         <v>0</v>
       </c>
-      <c r="O11" s="74">
+      <c r="O11" s="65">
         <f>IFERROR(KOSPI!D8,"")</f>
         <v>0</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="K12" s="5">
         <v>8</v>
       </c>
-      <c r="L12" s="68"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C9,6),"")</f>
         <v/>
@@ -2906,7 +2906,7 @@
         <f>IFERROR(KOSPI!B9,"")</f>
         <v>0</v>
       </c>
-      <c r="O12" s="74">
+      <c r="O12" s="65">
         <f>IFERROR(KOSPI!D9,"")</f>
         <v>0</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="K13" s="5">
         <v>9</v>
       </c>
-      <c r="L13" s="68"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C10,6),"")</f>
         <v/>
@@ -2977,7 +2977,7 @@
         <f>IFERROR(KOSPI!B10,"")</f>
         <v>0</v>
       </c>
-      <c r="O13" s="74">
+      <c r="O13" s="65">
         <f>IFERROR(KOSPI!D10,"")</f>
         <v>0</v>
       </c>
@@ -3039,7 +3039,7 @@
       <c r="K14" s="5">
         <v>10</v>
       </c>
-      <c r="L14" s="69"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C11,6),"")</f>
         <v/>
@@ -3048,7 +3048,7 @@
         <f>IFERROR(KOSPI!B11,"")</f>
         <v>0</v>
       </c>
-      <c r="O14" s="74">
+      <c r="O14" s="65">
         <f>IFERROR(KOSPI!D11,"")</f>
         <v>0</v>
       </c>
@@ -3107,22 +3107,22 @@
       </c>
     </row>
     <row r="15" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="E15" s="66" t="s">
+      <c r="C15" s="67"/>
+      <c r="E15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="H15" s="66" t="s">
+      <c r="F15" s="67"/>
+      <c r="H15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="66"/>
+      <c r="I15" s="67"/>
       <c r="K15" s="16">
         <v>1</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="L15" s="70" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="5" t="str">
@@ -3133,7 +3133,7 @@
         <f>IFERROR(KOSDAQ!B2,"")</f>
         <v>0</v>
       </c>
-      <c r="O15" s="74">
+      <c r="O15" s="65">
         <f>IFERROR(KOSDAQ!D2,"")</f>
         <v>0</v>
       </c>
@@ -3181,16 +3181,16 @@
         <f>IF(ISBLANK(KOSDAQ!C2),"",HYPERLINK(KOSDAQ!C2, "▶"))</f>
         <v/>
       </c>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
       <c r="AF15" s="24"/>
     </row>
     <row r="16" spans="2:32" ht="17.25" thickBot="1">
       <c r="K16" s="5">
         <v>2</v>
       </c>
-      <c r="L16" s="68"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C3,6),"")</f>
         <v/>
@@ -3199,7 +3199,7 @@
         <f>IFERROR(KOSDAQ!B3,"")</f>
         <v>0</v>
       </c>
-      <c r="O16" s="74">
+      <c r="O16" s="65">
         <f>IFERROR(KOSDAQ!D3,"")</f>
         <v>0</v>
       </c>
@@ -3247,21 +3247,21 @@
         <f>IF(ISBLANK(KOSDAQ!C3),"",HYPERLINK(KOSDAQ!C3, "▶"))</f>
         <v/>
       </c>
-      <c r="AB16" s="70" t="s">
+      <c r="AB16" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="AC16" s="70"/>
+      <c r="AC16" s="69"/>
       <c r="AD16" s="9"/>
-      <c r="AE16" s="70" t="s">
+      <c r="AE16" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="AF16" s="70"/>
+      <c r="AF16" s="69"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1">
       <c r="K17" s="5">
         <v>3</v>
       </c>
-      <c r="L17" s="68"/>
+      <c r="L17" s="71"/>
       <c r="M17" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C4,6),"")</f>
         <v/>
@@ -3270,7 +3270,7 @@
         <f>IFERROR(KOSDAQ!B4,"")</f>
         <v>0</v>
       </c>
-      <c r="O17" s="74">
+      <c r="O17" s="65">
         <f>IFERROR(KOSDAQ!D4,"")</f>
         <v>0</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="K18" s="5">
         <v>4</v>
       </c>
-      <c r="L18" s="68"/>
+      <c r="L18" s="71"/>
       <c r="M18" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C5,6),"")</f>
         <v/>
@@ -3345,7 +3345,7 @@
         <f>IFERROR(KOSDAQ!B5,"")</f>
         <v>0</v>
       </c>
-      <c r="O18" s="74">
+      <c r="O18" s="65">
         <f>IFERROR(KOSDAQ!D5,"")</f>
         <v>0</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="K19" s="5">
         <v>5</v>
       </c>
-      <c r="L19" s="68"/>
+      <c r="L19" s="71"/>
       <c r="M19" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C6,6),"")</f>
         <v/>
@@ -3418,7 +3418,7 @@
         <f>IFERROR(KOSDAQ!B6,"")</f>
         <v>0</v>
       </c>
-      <c r="O19" s="74">
+      <c r="O19" s="65">
         <f>IFERROR(KOSDAQ!D6,"")</f>
         <v>0</v>
       </c>
@@ -3478,7 +3478,7 @@
       <c r="K20" s="5">
         <v>6</v>
       </c>
-      <c r="L20" s="68"/>
+      <c r="L20" s="71"/>
       <c r="M20" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C7,6),"")</f>
         <v/>
@@ -3487,7 +3487,7 @@
         <f>IFERROR(KOSDAQ!B7,"")</f>
         <v>0</v>
       </c>
-      <c r="O20" s="74">
+      <c r="O20" s="65">
         <f>IFERROR(KOSDAQ!D7,"")</f>
         <v>0</v>
       </c>
@@ -3544,22 +3544,22 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="17.25" thickBot="1">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="E21" s="66" t="s">
+      <c r="C21" s="67"/>
+      <c r="E21" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="H21" s="66" t="s">
+      <c r="F21" s="67"/>
+      <c r="H21" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="66"/>
+      <c r="I21" s="67"/>
       <c r="K21" s="5">
         <v>7</v>
       </c>
-      <c r="L21" s="68"/>
+      <c r="L21" s="71"/>
       <c r="M21" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C8,6),"")</f>
         <v/>
@@ -3568,7 +3568,7 @@
         <f>IFERROR(KOSDAQ!B8,"")</f>
         <v>0</v>
       </c>
-      <c r="O21" s="74">
+      <c r="O21" s="65">
         <f>IFERROR(KOSDAQ!D8,"")</f>
         <v>0</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="K22" s="5">
         <v>8</v>
       </c>
-      <c r="L22" s="68"/>
+      <c r="L22" s="71"/>
       <c r="M22" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C9,6),"")</f>
         <v/>
@@ -3637,7 +3637,7 @@
         <f>IFERROR(KOSDAQ!B9,"")</f>
         <v>0</v>
       </c>
-      <c r="O22" s="74">
+      <c r="O22" s="65">
         <f>IFERROR(KOSDAQ!D9,"")</f>
         <v>0</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="K23" s="5">
         <v>9</v>
       </c>
-      <c r="L23" s="68"/>
+      <c r="L23" s="71"/>
       <c r="M23" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C10,6),"")</f>
         <v/>
@@ -3706,7 +3706,7 @@
         <f>IFERROR(KOSDAQ!B10,"")</f>
         <v>0</v>
       </c>
-      <c r="O23" s="74">
+      <c r="O23" s="65">
         <f>IFERROR(KOSDAQ!D10,"")</f>
         <v>0</v>
       </c>
@@ -3754,16 +3754,16 @@
         <f>IF(ISBLANK(KOSDAQ!C10),"",HYPERLINK(KOSDAQ!C10, "▶"))</f>
         <v/>
       </c>
-      <c r="AE23" s="70" t="s">
+      <c r="AE23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="AF23" s="70"/>
+      <c r="AF23" s="69"/>
     </row>
     <row r="24" spans="1:33" ht="17.25" thickBot="1">
       <c r="K24" s="5">
         <v>10</v>
       </c>
-      <c r="L24" s="69"/>
+      <c r="L24" s="72"/>
       <c r="M24" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C11,6),"")</f>
         <v/>
@@ -3772,7 +3772,7 @@
         <f>IFERROR(KOSDAQ!B11,"")</f>
         <v>0</v>
       </c>
-      <c r="O24" s="74">
+      <c r="O24" s="65">
         <f>IFERROR(KOSDAQ!D11,"")</f>
         <v>0</v>
       </c>
@@ -3865,44 +3865,44 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
-      <c r="K27" s="66" t="s">
+      <c r="K27" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AB27" s="71" t="s">
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AB27" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="AC27" s="70"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="70"/>
-      <c r="AF27" s="70"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1">
-      <c r="K28" s="66" t="s">
+      <c r="K28" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66" t="s">
+      <c r="L28" s="67"/>
+      <c r="M28" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
@@ -3937,11 +3937,11 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="65">
+      <c r="K29" s="66">
         <f>IFERROR(주요뉴스!$D2,"")</f>
         <v>0</v>
       </c>
-      <c r="L29" s="65"/>
+      <c r="L29" s="66"/>
       <c r="M29" s="19">
         <f>IFERROR(주요뉴스!$A2,"")</f>
         <v>0</v>
@@ -3979,11 +3979,11 @@
       </c>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="65">
+      <c r="K30" s="66">
         <f>IFERROR(주요뉴스!$D3,"")</f>
         <v>0</v>
       </c>
-      <c r="L30" s="65"/>
+      <c r="L30" s="66"/>
       <c r="M30" s="19">
         <f>IFERROR(주요뉴스!$A3,"")</f>
         <v>0</v>
@@ -4022,11 +4022,11 @@
       <c r="AG30" s="19"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="65">
+      <c r="K31" s="66">
         <f>IFERROR(주요뉴스!$D4,"")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="65"/>
+      <c r="L31" s="66"/>
       <c r="M31" s="19">
         <f>IFERROR(주요뉴스!$A4,"")</f>
         <v>0</v>
@@ -4065,11 +4065,11 @@
       <c r="AG31" s="19"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="65">
+      <c r="K32" s="66">
         <f>IFERROR(주요뉴스!$D5,"")</f>
         <v>0</v>
       </c>
-      <c r="L32" s="65"/>
+      <c r="L32" s="66"/>
       <c r="M32" s="19">
         <f>IFERROR(주요뉴스!$A5,"")</f>
         <v>0</v>
@@ -4108,11 +4108,11 @@
       <c r="AG32" s="19"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="K33" s="65">
+      <c r="K33" s="66">
         <f>IFERROR(주요뉴스!$D6,"")</f>
         <v>0</v>
       </c>
-      <c r="L33" s="65"/>
+      <c r="L33" s="66"/>
       <c r="M33" s="19">
         <f>IFERROR(주요뉴스!$A6,"")</f>
         <v>0</v>
@@ -4151,11 +4151,11 @@
       <c r="AG33" s="19"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="K34" s="65">
+      <c r="K34" s="66">
         <f>IFERROR(주요뉴스!$D7,"")</f>
         <v>0</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="66"/>
       <c r="M34" s="19">
         <f>IFERROR(주요뉴스!$A7,"")</f>
         <v>0</v>
@@ -4194,11 +4194,11 @@
       <c r="AG34" s="19"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="K35" s="65">
+      <c r="K35" s="66">
         <f>IFERROR(주요뉴스!$D8,"")</f>
         <v>0</v>
       </c>
-      <c r="L35" s="65"/>
+      <c r="L35" s="66"/>
       <c r="M35" s="19">
         <f>IFERROR(주요뉴스!$A8,"")</f>
         <v>0</v>
@@ -4237,11 +4237,11 @@
       <c r="AG35" s="19"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="K36" s="65">
+      <c r="K36" s="66">
         <f>IFERROR(주요뉴스!$D9,"")</f>
         <v>0</v>
       </c>
-      <c r="L36" s="65"/>
+      <c r="L36" s="66"/>
       <c r="M36" s="19">
         <f>IFERROR(주요뉴스!$A9,"")</f>
         <v>0</v>
@@ -4280,11 +4280,11 @@
       <c r="AG36" s="19"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="K37" s="65">
+      <c r="K37" s="66">
         <f>IFERROR(주요뉴스!$D10,"")</f>
         <v>0</v>
       </c>
-      <c r="L37" s="65"/>
+      <c r="L37" s="66"/>
       <c r="M37" s="19">
         <f>IFERROR(주요뉴스!$A10,"")</f>
         <v>0</v>
@@ -4324,11 +4324,11 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="13"/>
-      <c r="K38" s="65">
+      <c r="K38" s="66">
         <f>IFERROR(주요뉴스!$D11,"")</f>
         <v>0</v>
       </c>
-      <c r="L38" s="65"/>
+      <c r="L38" s="66"/>
       <c r="M38" s="19">
         <f>IFERROR(주요뉴스!$A11,"")</f>
         <v>0</v>
@@ -4368,11 +4368,11 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="14"/>
-      <c r="K39" s="65">
+      <c r="K39" s="66">
         <f>IFERROR(주요뉴스!$D12,"")</f>
         <v>0</v>
       </c>
-      <c r="L39" s="65"/>
+      <c r="L39" s="66"/>
       <c r="M39" s="19">
         <f>IFERROR(주요뉴스!$A12,"")</f>
         <v>0</v>
@@ -4412,11 +4412,11 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="14"/>
-      <c r="K40" s="65">
+      <c r="K40" s="66">
         <f>IFERROR(주요뉴스!$D13,"")</f>
         <v>0</v>
       </c>
-      <c r="L40" s="65"/>
+      <c r="L40" s="66"/>
       <c r="M40" s="19">
         <f>IFERROR(주요뉴스!$A13,"")</f>
         <v>0</v>
@@ -4456,11 +4456,11 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="14"/>
-      <c r="K41" s="65">
+      <c r="K41" s="66">
         <f>IFERROR(주요뉴스!$D14,"")</f>
         <v>0</v>
       </c>
-      <c r="L41" s="65"/>
+      <c r="L41" s="66"/>
       <c r="M41" s="19">
         <f>IFERROR(주요뉴스!$A14,"")</f>
         <v>0</v>
@@ -4500,11 +4500,11 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="14"/>
-      <c r="K42" s="65">
+      <c r="K42" s="66">
         <f>IFERROR(주요뉴스!$D15,"")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="65"/>
+      <c r="L42" s="66"/>
       <c r="M42" s="19">
         <f>IFERROR(주요뉴스!$A15,"")</f>
         <v>0</v>
@@ -4553,11 +4553,11 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" s="65">
+      <c r="K43" s="66">
         <f>IFERROR(주요뉴스!$D16,"")</f>
         <v>0</v>
       </c>
-      <c r="L43" s="65"/>
+      <c r="L43" s="66"/>
       <c r="M43" s="19">
         <f>IFERROR(주요뉴스!$A16,"")</f>
         <v>0</v>
@@ -4596,11 +4596,11 @@
       <c r="AG43" s="19"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="K44" s="65">
+      <c r="K44" s="66">
         <f>IFERROR(주요뉴스!$D17,"")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="65"/>
+      <c r="L44" s="66"/>
       <c r="M44" s="19">
         <f>IFERROR(주요뉴스!$A17,"")</f>
         <v>0</v>
@@ -4639,11 +4639,11 @@
       <c r="AG44" s="19"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="K45" s="65">
+      <c r="K45" s="66">
         <f>IFERROR(주요뉴스!$D18,"")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="65"/>
+      <c r="L45" s="66"/>
       <c r="M45" s="19">
         <f>IFERROR(주요뉴스!$A18,"")</f>
         <v>0</v>
@@ -4682,11 +4682,11 @@
       <c r="AG45" s="19"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1">
-      <c r="K46" s="65">
+      <c r="K46" s="66">
         <f>IFERROR(주요뉴스!$D19,"")</f>
         <v>0</v>
       </c>
-      <c r="L46" s="65"/>
+      <c r="L46" s="66"/>
       <c r="M46" s="19">
         <f>IFERROR(주요뉴스!$A19,"")</f>
         <v>0</v>
@@ -4725,11 +4725,11 @@
       <c r="AG46" s="19"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="K47" s="65">
+      <c r="K47" s="66">
         <f>IFERROR(주요뉴스!$D20,"")</f>
         <v>0</v>
       </c>
-      <c r="L47" s="65"/>
+      <c r="L47" s="66"/>
       <c r="M47" s="19">
         <f>IFERROR(주요뉴스!$A20,"")</f>
         <v>0</v>
@@ -4768,11 +4768,11 @@
       <c r="AG47" s="19"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="K48" s="65">
+      <c r="K48" s="66">
         <f>IFERROR(주요뉴스!$D21,"")</f>
         <v>0</v>
       </c>
-      <c r="L48" s="65"/>
+      <c r="L48" s="66"/>
       <c r="M48" s="19">
         <f>IFERROR(주요뉴스!$A21,"")</f>
         <v>0</v>
@@ -4813,17 +4813,24 @@
     <row r="51" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K27:Z27"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AB15:AD15"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="E3:F3"/>
@@ -4840,24 +4847,17 @@
     <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="K3:Z3"/>
     <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="K27:Z27"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4868,6 +4868,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <picture r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
+++ b/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212ED0F0-5BC1-4998-962E-432DA9491B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC91A54-4636-4963-9B40-17D83057C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
@@ -38,8 +38,85 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>dexter yang</author>
+  </authors>
+  <commentList>
+    <comment ref="AC4" authorId="0" shapeId="0" xr:uid="{9B18A536-C61A-4BD1-8B1D-73F8739A3166}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종목명을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
   <si>
     <t>시가총액</t>
   </si>
@@ -385,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,7 +499,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +662,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -610,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -705,6 +800,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,12 +1032,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,10 +1041,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2241,40 +2351,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE5170B-7B14-4940-8056-14B1A3EDCD13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE5170B-7B14-4940-8056-14B1A3EDCD13}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24:AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
     <col min="5" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
     <col min="8" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="6.25" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
     <col min="11" max="11" width="4.75" customWidth="1"/>
     <col min="13" max="13" width="11.25" customWidth="1"/>
     <col min="14" max="14" width="31.25" customWidth="1"/>
     <col min="15" max="17" width="7.75" customWidth="1"/>
     <col min="18" max="25" width="8.75" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="6.875" customWidth="1"/>
-    <col min="27" max="27" width="6.25" customWidth="1"/>
+    <col min="27" max="27" width="4.125" customWidth="1"/>
     <col min="28" max="28" width="14.625" customWidth="1"/>
     <col min="29" max="30" width="4.75" customWidth="1"/>
     <col min="32" max="32" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.25" customWidth="1"/>
+    <col min="33" max="33" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32">
       <c r="Z1" s="33"/>
     </row>
-    <row r="2" spans="2:32" ht="27.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:32" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:32" ht="17.25" thickBot="1">
       <c r="B3" s="67" t="s">
         <v>2</v>
@@ -2306,13 +2416,13 @@
       <c r="X3" s="67"/>
       <c r="Y3" s="67"/>
       <c r="Z3" s="67"/>
-      <c r="AB3" s="69" t="s">
+      <c r="AB3" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1">
       <c r="D4" s="4"/>
@@ -2323,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>4</v>
@@ -2364,21 +2474,19 @@
       <c r="Z4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
     </row>
     <row r="5" spans="2:32">
       <c r="K5" s="16">
         <v>1</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="69" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="16" t="str">
@@ -2443,16 +2551,16 @@
       <c r="AC5" s="31"/>
       <c r="AD5" s="31"/>
       <c r="AE5" s="21"/>
-      <c r="AF5" s="26" t="str">
+      <c r="AF5" s="26">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,2,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:32">
       <c r="K6" s="5">
         <v>2</v>
       </c>
-      <c r="L6" s="71"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C3,6),"")</f>
         <v/>
@@ -2515,16 +2623,16 @@
       <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
       <c r="AE6" s="22"/>
-      <c r="AF6" s="23" t="str">
+      <c r="AF6" s="23">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,3,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:32">
       <c r="K7" s="5">
         <v>3</v>
       </c>
-      <c r="L7" s="71"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C4,6),"")</f>
         <v/>
@@ -2596,7 +2704,7 @@
       <c r="K8" s="5">
         <v>4</v>
       </c>
-      <c r="L8" s="71"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C5,6),"")</f>
         <v/>
@@ -2659,9 +2767,9 @@
       <c r="AC8" s="31"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="22"/>
-      <c r="AF8" s="26" t="str">
+      <c r="AF8" s="26">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,5,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="17.25" thickBot="1">
@@ -2680,7 +2788,7 @@
       <c r="K9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="71"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C6,6),"")</f>
         <v/>
@@ -2742,9 +2850,9 @@
       </c>
       <c r="AC9" s="31"/>
       <c r="AD9" s="31"/>
-      <c r="AF9" s="26" t="str">
+      <c r="AF9" s="26">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,6,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:32">
@@ -2755,7 +2863,7 @@
       <c r="K10" s="5">
         <v>6</v>
       </c>
-      <c r="L10" s="71"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C7,6),"")</f>
         <v/>
@@ -2817,16 +2925,16 @@
       </c>
       <c r="AC10" s="31"/>
       <c r="AD10" s="31"/>
-      <c r="AF10" s="24" t="str">
+      <c r="AF10" s="24">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,7,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="17.45" customHeight="1">
       <c r="K11" s="5">
         <v>7</v>
       </c>
-      <c r="L11" s="71"/>
+      <c r="L11" s="69"/>
       <c r="M11" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C8,6),"")</f>
         <v/>
@@ -2888,16 +2996,16 @@
       </c>
       <c r="AC11" s="31"/>
       <c r="AD11" s="31"/>
-      <c r="AF11" s="24" t="str">
+      <c r="AF11" s="24">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,8,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:32">
       <c r="K12" s="5">
         <v>8</v>
       </c>
-      <c r="L12" s="71"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C9,6),"")</f>
         <v/>
@@ -2959,16 +3067,16 @@
       </c>
       <c r="AC12" s="31"/>
       <c r="AD12" s="31"/>
-      <c r="AF12" s="24" t="str">
+      <c r="AF12" s="24">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,9,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:32">
       <c r="K13" s="5">
         <v>9</v>
       </c>
-      <c r="L13" s="71"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C10,6),"")</f>
         <v/>
@@ -3030,16 +3138,16 @@
       </c>
       <c r="AC13" s="31"/>
       <c r="AD13" s="31"/>
-      <c r="AF13" s="24" t="str">
+      <c r="AF13" s="24">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,10,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:32" ht="17.25" thickBot="1">
       <c r="K14" s="5">
         <v>10</v>
       </c>
-      <c r="L14" s="72"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="16" t="str">
         <f>IFERROR(RIGHT(KOSPI!C11,6),"")</f>
         <v/>
@@ -3101,9 +3209,9 @@
       </c>
       <c r="AC14" s="31"/>
       <c r="AD14" s="31"/>
-      <c r="AF14" s="24" t="str">
+      <c r="AF14" s="24">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,11,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:32" ht="17.25" thickBot="1">
@@ -3122,7 +3230,7 @@
       <c r="K15" s="16">
         <v>1</v>
       </c>
-      <c r="L15" s="70" t="s">
+      <c r="L15" s="68" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="5" t="str">
@@ -3181,16 +3289,16 @@
         <f>IF(ISBLANK(KOSDAQ!C2),"",HYPERLINK(KOSDAQ!C2, "▶"))</f>
         <v/>
       </c>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
       <c r="AF15" s="24"/>
     </row>
     <row r="16" spans="2:32" ht="17.25" thickBot="1">
       <c r="K16" s="5">
         <v>2</v>
       </c>
-      <c r="L16" s="71"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C3,6),"")</f>
         <v/>
@@ -3247,21 +3355,21 @@
         <f>IF(ISBLANK(KOSDAQ!C3),"",HYPERLINK(KOSDAQ!C3, "▶"))</f>
         <v/>
       </c>
-      <c r="AB16" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC16" s="69"/>
+      <c r="AB16" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC16" s="71"/>
       <c r="AD16" s="9"/>
-      <c r="AE16" s="69" t="s">
+      <c r="AE16" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="AF16" s="69"/>
+      <c r="AF16" s="71"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1">
       <c r="K17" s="5">
         <v>3</v>
       </c>
-      <c r="L17" s="71"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C4,6),"")</f>
         <v/>
@@ -3336,7 +3444,7 @@
       <c r="K18" s="5">
         <v>4</v>
       </c>
-      <c r="L18" s="71"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C5,6),"")</f>
         <v/>
@@ -3395,7 +3503,7 @@
       </c>
       <c r="AC18" s="19" t="str">
         <f>IFERROR(VLOOKUP($AC$4,$N$5:$Y$24,12,0),"")</f>
-        <v/>
+        <v>결과 없음</v>
       </c>
       <c r="AE18" s="1" t="s">
         <v>34</v>
@@ -3409,7 +3517,7 @@
       <c r="K19" s="5">
         <v>5</v>
       </c>
-      <c r="L19" s="71"/>
+      <c r="L19" s="69"/>
       <c r="M19" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C6,6),"")</f>
         <v/>
@@ -3478,7 +3586,7 @@
       <c r="K20" s="5">
         <v>6</v>
       </c>
-      <c r="L20" s="71"/>
+      <c r="L20" s="69"/>
       <c r="M20" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C7,6),"")</f>
         <v/>
@@ -3559,7 +3667,7 @@
       <c r="K21" s="5">
         <v>7</v>
       </c>
-      <c r="L21" s="71"/>
+      <c r="L21" s="69"/>
       <c r="M21" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C8,6),"")</f>
         <v/>
@@ -3628,7 +3736,7 @@
       <c r="K22" s="5">
         <v>8</v>
       </c>
-      <c r="L22" s="71"/>
+      <c r="L22" s="69"/>
       <c r="M22" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C9,6),"")</f>
         <v/>
@@ -3697,7 +3805,7 @@
       <c r="K23" s="5">
         <v>9</v>
       </c>
-      <c r="L23" s="71"/>
+      <c r="L23" s="69"/>
       <c r="M23" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C10,6),"")</f>
         <v/>
@@ -3754,16 +3862,16 @@
         <f>IF(ISBLANK(KOSDAQ!C10),"",HYPERLINK(KOSDAQ!C10, "▶"))</f>
         <v/>
       </c>
-      <c r="AE23" s="69" t="s">
+      <c r="AE23" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AF23" s="69"/>
-    </row>
-    <row r="24" spans="1:33" ht="17.25" thickBot="1">
+      <c r="AF23" s="71"/>
+    </row>
+    <row r="24" spans="1:33">
       <c r="K24" s="5">
         <v>10</v>
       </c>
-      <c r="L24" s="72"/>
+      <c r="L24" s="70"/>
       <c r="M24" s="5" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C11,6),"")</f>
         <v/>
@@ -3820,12 +3928,8 @@
         <f>IF(ISBLANK(KOSDAQ!C11),"",HYPERLINK(KOSDAQ!C11, "▶"))</f>
         <v/>
       </c>
-      <c r="AE24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF24" s="28" t="s">
-        <v>5</v>
-      </c>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
     </row>
     <row r="25" spans="1:33">
       <c r="K25" s="2"/>
@@ -3844,14 +3948,8 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="30"/>
-      <c r="AE25" s="19">
-        <f>IFERROR(리포트!A2,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="19">
-        <f>IFERROR(리포트!B2,"")</f>
-        <v>0</v>
-      </c>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
     </row>
     <row r="26" spans="1:33" ht="30" customHeight="1" thickBot="1"/>
     <row r="27" spans="1:33" ht="17.25" thickBot="1">
@@ -3883,13 +3981,13 @@
       <c r="X27" s="67"/>
       <c r="Y27" s="67"/>
       <c r="Z27" s="67"/>
-      <c r="AB27" s="73" t="s">
+      <c r="AB27" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="69"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1">
       <c r="K28" s="67" t="s">
@@ -3920,7 +4018,7 @@
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF28" s="53" t="s">
         <v>4</v>
@@ -4812,25 +4910,18 @@
     </row>
     <row r="51" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K27:Z27"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AB15:AD15"/>
+  <mergeCells count="46">
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="E3:F3"/>
@@ -4847,17 +4938,25 @@
     <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="K3:Z3"/>
     <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K27:Z27"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE24:AF25"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4868,7 +4967,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <picture r:id="rId3"/>
+  <legacyDrawing r:id="rId3"/>
+  <picture r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -14520,7 +14620,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="49" t="s">
         <v>54</v>

--- a/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
+++ b/21_오늘의_증권시황/Data/Input/Today_Stock_Information_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC91A54-4636-4963-9B40-17D83057C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB2BB9A-48E9-41F5-AF53-2FF42009D39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
@@ -362,10 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종목명 Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,10 +403,6 @@
   </si>
   <si>
     <t>업종명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업종명 Url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,6 +480,14 @@
       </rPr>
       <t>전자공시</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목명URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종명URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,9 +948,6 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -962,12 +959,6 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,10 +1017,19 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1039,9 +1039,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,8 +1053,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1067,7 +1070,18 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2356,7 +2370,7 @@
   <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24:AF25"/>
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2386,43 +2400,43 @@
     </row>
     <row r="2" spans="2:32" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="E3" s="67" t="s">
+      <c r="C3" s="65"/>
+      <c r="E3" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="H3" s="67" t="s">
+      <c r="F3" s="65"/>
+      <c r="H3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="K3" s="67" t="s">
+      <c r="I3" s="65"/>
+      <c r="K3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AB3" s="71" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AB3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1">
       <c r="D4" s="4"/>
@@ -2433,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>4</v>
@@ -2477,10 +2491,10 @@
       <c r="AB4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
     </row>
     <row r="5" spans="2:32">
       <c r="K5" s="16">
@@ -2497,7 +2511,7 @@
         <f>IFERROR(KOSPI!B2,"")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="65">
+      <c r="O5" s="62">
         <f>IFERROR(KOSPI!D2,"")</f>
         <v>0</v>
       </c>
@@ -2541,7 +2555,7 @@
         <f>IFERROR(IF(VLOOKUP(N15, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N15, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z5" s="64" t="str">
+      <c r="Z5" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C2),"",HYPERLINK(KOSPI!C2, "▶"))</f>
         <v/>
       </c>
@@ -2569,7 +2583,7 @@
         <f>IFERROR(KOSPI!B3,"")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="65">
+      <c r="O6" s="62">
         <f>IFERROR(KOSPI!D3,"")</f>
         <v>0</v>
       </c>
@@ -2613,7 +2627,7 @@
         <f>IFERROR(IF(VLOOKUP(N16, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N16, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z6" s="64" t="str">
+      <c r="Z6" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C3),"",HYPERLINK(KOSPI!C3, "▶"))</f>
         <v/>
       </c>
@@ -2641,7 +2655,7 @@
         <f>IFERROR(KOSPI!B4,"")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="62">
         <f>IFERROR(KOSPI!D4,"")</f>
         <v>0</v>
       </c>
@@ -2685,7 +2699,7 @@
         <f>IFERROR(IF(VLOOKUP(N17, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N17, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z7" s="64" t="str">
+      <c r="Z7" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C4),"",HYPERLINK(KOSPI!C4, "▶"))</f>
         <v/>
       </c>
@@ -2713,7 +2727,7 @@
         <f>IFERROR(KOSPI!B5,"")</f>
         <v>0</v>
       </c>
-      <c r="O8" s="65">
+      <c r="O8" s="62">
         <f>IFERROR(KOSPI!D5,"")</f>
         <v>0</v>
       </c>
@@ -2757,7 +2771,7 @@
         <f>IFERROR(IF(VLOOKUP(N18, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N18, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z8" s="64" t="str">
+      <c r="Z8" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C5),"",HYPERLINK(KOSPI!C5, "▶"))</f>
         <v/>
       </c>
@@ -2773,18 +2787,18 @@
       </c>
     </row>
     <row r="9" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="E9" s="67" t="s">
+      <c r="C9" s="65"/>
+      <c r="E9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="H9" s="67" t="s">
+      <c r="F9" s="65"/>
+      <c r="H9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="65"/>
       <c r="K9" s="5">
         <v>5</v>
       </c>
@@ -2797,7 +2811,7 @@
         <f>IFERROR(KOSPI!B6,"")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="62">
         <f>IFERROR(KOSPI!D6,"")</f>
         <v>0</v>
       </c>
@@ -2841,7 +2855,7 @@
         <f>IFERROR(IF(VLOOKUP(N19, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N19, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z9" s="64" t="str">
+      <c r="Z9" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C6),"",HYPERLINK(KOSPI!C6, "▶"))</f>
         <v/>
       </c>
@@ -2872,7 +2886,7 @@
         <f>IFERROR(KOSPI!B7,"")</f>
         <v>0</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="62">
         <f>IFERROR(KOSPI!D7,"")</f>
         <v>0</v>
       </c>
@@ -2916,7 +2930,7 @@
         <f>IFERROR(IF(VLOOKUP(N20, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N20, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z10" s="64" t="str">
+      <c r="Z10" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C7),"",HYPERLINK(KOSPI!C7, "▶"))</f>
         <v/>
       </c>
@@ -2943,7 +2957,7 @@
         <f>IFERROR(KOSPI!B8,"")</f>
         <v>0</v>
       </c>
-      <c r="O11" s="65">
+      <c r="O11" s="62">
         <f>IFERROR(KOSPI!D8,"")</f>
         <v>0</v>
       </c>
@@ -2987,7 +3001,7 @@
         <f>IFERROR(IF(VLOOKUP(N21, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N21, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z11" s="64" t="str">
+      <c r="Z11" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C8),"",HYPERLINK(KOSPI!C8, "▶"))</f>
         <v/>
       </c>
@@ -3014,7 +3028,7 @@
         <f>IFERROR(KOSPI!B9,"")</f>
         <v>0</v>
       </c>
-      <c r="O12" s="65">
+      <c r="O12" s="62">
         <f>IFERROR(KOSPI!D9,"")</f>
         <v>0</v>
       </c>
@@ -3058,7 +3072,7 @@
         <f>IFERROR(IF(VLOOKUP(N22, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N22, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z12" s="64" t="str">
+      <c r="Z12" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C9),"",HYPERLINK(KOSPI!C9, "▶"))</f>
         <v/>
       </c>
@@ -3085,7 +3099,7 @@
         <f>IFERROR(KOSPI!B10,"")</f>
         <v>0</v>
       </c>
-      <c r="O13" s="65">
+      <c r="O13" s="62">
         <f>IFERROR(KOSPI!D10,"")</f>
         <v>0</v>
       </c>
@@ -3129,7 +3143,7 @@
         <f>IFERROR(IF(VLOOKUP(N23, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N23, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z13" s="64" t="str">
+      <c r="Z13" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C10),"",HYPERLINK(KOSPI!C10, "▶"))</f>
         <v/>
       </c>
@@ -3156,7 +3170,7 @@
         <f>IFERROR(KOSPI!B11,"")</f>
         <v>0</v>
       </c>
-      <c r="O14" s="65">
+      <c r="O14" s="62">
         <f>IFERROR(KOSPI!D11,"")</f>
         <v>0</v>
       </c>
@@ -3200,7 +3214,7 @@
         <f>IFERROR(IF(VLOOKUP(N24, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N24, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z14" s="64" t="str">
+      <c r="Z14" s="61" t="str">
         <f>IF(ISBLANK(KOSPI!C11),"",HYPERLINK(KOSPI!C11, "▶"))</f>
         <v/>
       </c>
@@ -3215,18 +3229,18 @@
       </c>
     </row>
     <row r="15" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="E15" s="67" t="s">
+      <c r="C15" s="65"/>
+      <c r="E15" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="H15" s="67" t="s">
+      <c r="F15" s="65"/>
+      <c r="H15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="67"/>
+      <c r="I15" s="65"/>
       <c r="K15" s="16">
         <v>1</v>
       </c>
@@ -3241,7 +3255,7 @@
         <f>IFERROR(KOSDAQ!B2,"")</f>
         <v>0</v>
       </c>
-      <c r="O15" s="65">
+      <c r="O15" s="62">
         <f>IFERROR(KOSDAQ!D2,"")</f>
         <v>0</v>
       </c>
@@ -3285,13 +3299,13 @@
         <f>IFERROR(IF(VLOOKUP(N25, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N25, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z15" s="64" t="str">
+      <c r="Z15" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C2),"",HYPERLINK(KOSDAQ!C2, "▶"))</f>
         <v/>
       </c>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="73"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
       <c r="AF15" s="24"/>
     </row>
     <row r="16" spans="2:32" ht="17.25" thickBot="1">
@@ -3307,7 +3321,7 @@
         <f>IFERROR(KOSDAQ!B3,"")</f>
         <v>0</v>
       </c>
-      <c r="O16" s="65">
+      <c r="O16" s="62">
         <f>IFERROR(KOSDAQ!D3,"")</f>
         <v>0</v>
       </c>
@@ -3351,19 +3365,19 @@
         <f>IFERROR(IF(VLOOKUP(N26, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N26, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z16" s="64" t="str">
+      <c r="Z16" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C3),"",HYPERLINK(KOSDAQ!C3, "▶"))</f>
         <v/>
       </c>
-      <c r="AB16" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC16" s="71"/>
+      <c r="AB16" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC16" s="67"/>
       <c r="AD16" s="9"/>
-      <c r="AE16" s="71" t="s">
+      <c r="AE16" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="AF16" s="71"/>
+      <c r="AF16" s="67"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1">
       <c r="K17" s="5">
@@ -3378,7 +3392,7 @@
         <f>IFERROR(KOSDAQ!B4,"")</f>
         <v>0</v>
       </c>
-      <c r="O17" s="65">
+      <c r="O17" s="62">
         <f>IFERROR(KOSDAQ!D4,"")</f>
         <v>0</v>
       </c>
@@ -3422,7 +3436,7 @@
         <f>IFERROR(IF(VLOOKUP(N27, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N27, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z17" s="64" t="str">
+      <c r="Z17" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C4),"",HYPERLINK(KOSDAQ!C4, "▶"))</f>
         <v/>
       </c>
@@ -3453,7 +3467,7 @@
         <f>IFERROR(KOSDAQ!B5,"")</f>
         <v>0</v>
       </c>
-      <c r="O18" s="65">
+      <c r="O18" s="62">
         <f>IFERROR(KOSDAQ!D5,"")</f>
         <v>0</v>
       </c>
@@ -3497,7 +3511,7 @@
         <f>IFERROR(IF(VLOOKUP(N28, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N28, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z18" s="64" t="str">
+      <c r="Z18" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C5),"",HYPERLINK(KOSDAQ!C5, "▶"))</f>
         <v/>
       </c>
@@ -3526,7 +3540,7 @@
         <f>IFERROR(KOSDAQ!B6,"")</f>
         <v>0</v>
       </c>
-      <c r="O19" s="65">
+      <c r="O19" s="62">
         <f>IFERROR(KOSDAQ!D6,"")</f>
         <v>0</v>
       </c>
@@ -3570,7 +3584,7 @@
         <f>IFERROR(IF(VLOOKUP(N29, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N29, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z19" s="64" t="str">
+      <c r="Z19" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C6),"",HYPERLINK(KOSDAQ!C6, "▶"))</f>
         <v/>
       </c>
@@ -3595,7 +3609,7 @@
         <f>IFERROR(KOSDAQ!B7,"")</f>
         <v>0</v>
       </c>
-      <c r="O20" s="65">
+      <c r="O20" s="62">
         <f>IFERROR(KOSDAQ!D7,"")</f>
         <v>0</v>
       </c>
@@ -3639,7 +3653,7 @@
         <f>IFERROR(IF(VLOOKUP(N30, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N30, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z20" s="64" t="str">
+      <c r="Z20" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C7),"",HYPERLINK(KOSDAQ!C7, "▶"))</f>
         <v/>
       </c>
@@ -3652,18 +3666,18 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="17.25" thickBot="1">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="E21" s="67" t="s">
+      <c r="C21" s="65"/>
+      <c r="E21" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="H21" s="67" t="s">
+      <c r="F21" s="65"/>
+      <c r="H21" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="67"/>
+      <c r="I21" s="65"/>
       <c r="K21" s="5">
         <v>7</v>
       </c>
@@ -3676,7 +3690,7 @@
         <f>IFERROR(KOSDAQ!B8,"")</f>
         <v>0</v>
       </c>
-      <c r="O21" s="65">
+      <c r="O21" s="62">
         <f>IFERROR(KOSDAQ!D8,"")</f>
         <v>0</v>
       </c>
@@ -3720,7 +3734,7 @@
         <f>IFERROR(IF(VLOOKUP(N31, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N31, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z21" s="64" t="str">
+      <c r="Z21" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C8),"",HYPERLINK(KOSDAQ!C8, "▶"))</f>
         <v/>
       </c>
@@ -3745,7 +3759,7 @@
         <f>IFERROR(KOSDAQ!B9,"")</f>
         <v>0</v>
       </c>
-      <c r="O22" s="65">
+      <c r="O22" s="62">
         <f>IFERROR(KOSDAQ!D9,"")</f>
         <v>0</v>
       </c>
@@ -3789,7 +3803,7 @@
         <f>IFERROR(IF(VLOOKUP(N32, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N32, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z22" s="64" t="str">
+      <c r="Z22" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C9),"",HYPERLINK(KOSDAQ!C9, "▶"))</f>
         <v/>
       </c>
@@ -3814,7 +3828,7 @@
         <f>IFERROR(KOSDAQ!B10,"")</f>
         <v>0</v>
       </c>
-      <c r="O23" s="65">
+      <c r="O23" s="62">
         <f>IFERROR(KOSDAQ!D10,"")</f>
         <v>0</v>
       </c>
@@ -3858,14 +3872,14 @@
         <f>IFERROR(IF(VLOOKUP(N33, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N33, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z23" s="64" t="str">
+      <c r="Z23" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C10),"",HYPERLINK(KOSDAQ!C10, "▶"))</f>
         <v/>
       </c>
-      <c r="AE23" s="71" t="s">
+      <c r="AE23" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="AF23" s="71"/>
+      <c r="AF23" s="67"/>
     </row>
     <row r="24" spans="1:33">
       <c r="K24" s="5">
@@ -3880,7 +3894,7 @@
         <f>IFERROR(KOSDAQ!B11,"")</f>
         <v>0</v>
       </c>
-      <c r="O24" s="65">
+      <c r="O24" s="62">
         <f>IFERROR(KOSDAQ!D11,"")</f>
         <v>0</v>
       </c>
@@ -3924,12 +3938,12 @@
         <f>IFERROR(IF(VLOOKUP(N34, 종목별이슈!C:D, 2, FALSE)="전자공시", VLOOKUP(N34, 종목별이슈!C:D, 1, FALSE), "일치 없음"), "결과 없음")</f>
         <v>결과 없음</v>
       </c>
-      <c r="Z24" s="64" t="str">
+      <c r="Z24" s="61" t="str">
         <f>IF(ISBLANK(KOSDAQ!C11),"",HYPERLINK(KOSDAQ!C11, "▶"))</f>
         <v/>
       </c>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
     </row>
     <row r="25" spans="1:33">
       <c r="K25" s="2"/>
@@ -3948,8 +3962,8 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="30"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="75"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
     </row>
     <row r="26" spans="1:33" ht="30" customHeight="1" thickBot="1"/>
     <row r="27" spans="1:33" ht="17.25" thickBot="1">
@@ -3963,44 +3977,44 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
-      <c r="K27" s="67" t="s">
+      <c r="K27" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AB27" s="72" t="s">
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AB27" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1">
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67" t="s">
+      <c r="L28" s="65"/>
+      <c r="M28" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
@@ -4017,10 +4031,10 @@
       </c>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
-      <c r="AE28" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF28" s="53" t="s">
+      <c r="AE28" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF28" s="50" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4035,11 +4049,11 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="66">
+      <c r="K29" s="64">
         <f>IFERROR(주요뉴스!$D2,"")</f>
         <v>0</v>
       </c>
-      <c r="L29" s="66"/>
+      <c r="L29" s="64"/>
       <c r="M29" s="19">
         <f>IFERROR(주요뉴스!$A2,"")</f>
         <v>0</v>
@@ -4077,11 +4091,11 @@
       </c>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="66">
+      <c r="K30" s="64">
         <f>IFERROR(주요뉴스!$D3,"")</f>
         <v>0</v>
       </c>
-      <c r="L30" s="66"/>
+      <c r="L30" s="64"/>
       <c r="M30" s="19">
         <f>IFERROR(주요뉴스!$A3,"")</f>
         <v>0</v>
@@ -4120,11 +4134,11 @@
       <c r="AG30" s="19"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="66">
+      <c r="K31" s="64">
         <f>IFERROR(주요뉴스!$D4,"")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="66"/>
+      <c r="L31" s="64"/>
       <c r="M31" s="19">
         <f>IFERROR(주요뉴스!$A4,"")</f>
         <v>0</v>
@@ -4163,11 +4177,11 @@
       <c r="AG31" s="19"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="66">
+      <c r="K32" s="64">
         <f>IFERROR(주요뉴스!$D5,"")</f>
         <v>0</v>
       </c>
-      <c r="L32" s="66"/>
+      <c r="L32" s="64"/>
       <c r="M32" s="19">
         <f>IFERROR(주요뉴스!$A5,"")</f>
         <v>0</v>
@@ -4206,11 +4220,11 @@
       <c r="AG32" s="19"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="K33" s="66">
+      <c r="K33" s="64">
         <f>IFERROR(주요뉴스!$D6,"")</f>
         <v>0</v>
       </c>
-      <c r="L33" s="66"/>
+      <c r="L33" s="64"/>
       <c r="M33" s="19">
         <f>IFERROR(주요뉴스!$A6,"")</f>
         <v>0</v>
@@ -4249,11 +4263,11 @@
       <c r="AG33" s="19"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="K34" s="66">
+      <c r="K34" s="64">
         <f>IFERROR(주요뉴스!$D7,"")</f>
         <v>0</v>
       </c>
-      <c r="L34" s="66"/>
+      <c r="L34" s="64"/>
       <c r="M34" s="19">
         <f>IFERROR(주요뉴스!$A7,"")</f>
         <v>0</v>
@@ -4292,11 +4306,11 @@
       <c r="AG34" s="19"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="K35" s="66">
+      <c r="K35" s="64">
         <f>IFERROR(주요뉴스!$D8,"")</f>
         <v>0</v>
       </c>
-      <c r="L35" s="66"/>
+      <c r="L35" s="64"/>
       <c r="M35" s="19">
         <f>IFERROR(주요뉴스!$A8,"")</f>
         <v>0</v>
@@ -4335,11 +4349,11 @@
       <c r="AG35" s="19"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="K36" s="66">
+      <c r="K36" s="64">
         <f>IFERROR(주요뉴스!$D9,"")</f>
         <v>0</v>
       </c>
-      <c r="L36" s="66"/>
+      <c r="L36" s="64"/>
       <c r="M36" s="19">
         <f>IFERROR(주요뉴스!$A9,"")</f>
         <v>0</v>
@@ -4378,11 +4392,11 @@
       <c r="AG36" s="19"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="K37" s="66">
+      <c r="K37" s="64">
         <f>IFERROR(주요뉴스!$D10,"")</f>
         <v>0</v>
       </c>
-      <c r="L37" s="66"/>
+      <c r="L37" s="64"/>
       <c r="M37" s="19">
         <f>IFERROR(주요뉴스!$A10,"")</f>
         <v>0</v>
@@ -4422,11 +4436,11 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="13"/>
-      <c r="K38" s="66">
+      <c r="K38" s="64">
         <f>IFERROR(주요뉴스!$D11,"")</f>
         <v>0</v>
       </c>
-      <c r="L38" s="66"/>
+      <c r="L38" s="64"/>
       <c r="M38" s="19">
         <f>IFERROR(주요뉴스!$A11,"")</f>
         <v>0</v>
@@ -4466,11 +4480,11 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="14"/>
-      <c r="K39" s="66">
+      <c r="K39" s="64">
         <f>IFERROR(주요뉴스!$D12,"")</f>
         <v>0</v>
       </c>
-      <c r="L39" s="66"/>
+      <c r="L39" s="64"/>
       <c r="M39" s="19">
         <f>IFERROR(주요뉴스!$A12,"")</f>
         <v>0</v>
@@ -4510,11 +4524,11 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="14"/>
-      <c r="K40" s="66">
+      <c r="K40" s="64">
         <f>IFERROR(주요뉴스!$D13,"")</f>
         <v>0</v>
       </c>
-      <c r="L40" s="66"/>
+      <c r="L40" s="64"/>
       <c r="M40" s="19">
         <f>IFERROR(주요뉴스!$A13,"")</f>
         <v>0</v>
@@ -4554,11 +4568,11 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="14"/>
-      <c r="K41" s="66">
+      <c r="K41" s="64">
         <f>IFERROR(주요뉴스!$D14,"")</f>
         <v>0</v>
       </c>
-      <c r="L41" s="66"/>
+      <c r="L41" s="64"/>
       <c r="M41" s="19">
         <f>IFERROR(주요뉴스!$A14,"")</f>
         <v>0</v>
@@ -4598,11 +4612,11 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="14"/>
-      <c r="K42" s="66">
+      <c r="K42" s="64">
         <f>IFERROR(주요뉴스!$D15,"")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="66"/>
+      <c r="L42" s="64"/>
       <c r="M42" s="19">
         <f>IFERROR(주요뉴스!$A15,"")</f>
         <v>0</v>
@@ -4651,11 +4665,11 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" s="66">
+      <c r="K43" s="64">
         <f>IFERROR(주요뉴스!$D16,"")</f>
         <v>0</v>
       </c>
-      <c r="L43" s="66"/>
+      <c r="L43" s="64"/>
       <c r="M43" s="19">
         <f>IFERROR(주요뉴스!$A16,"")</f>
         <v>0</v>
@@ -4694,11 +4708,11 @@
       <c r="AG43" s="19"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="K44" s="66">
+      <c r="K44" s="64">
         <f>IFERROR(주요뉴스!$D17,"")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="66"/>
+      <c r="L44" s="64"/>
       <c r="M44" s="19">
         <f>IFERROR(주요뉴스!$A17,"")</f>
         <v>0</v>
@@ -4737,11 +4751,11 @@
       <c r="AG44" s="19"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="K45" s="66">
+      <c r="K45" s="64">
         <f>IFERROR(주요뉴스!$D18,"")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="66"/>
+      <c r="L45" s="64"/>
       <c r="M45" s="19">
         <f>IFERROR(주요뉴스!$A18,"")</f>
         <v>0</v>
@@ -4780,11 +4794,11 @@
       <c r="AG45" s="19"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1">
-      <c r="K46" s="66">
+      <c r="K46" s="64">
         <f>IFERROR(주요뉴스!$D19,"")</f>
         <v>0</v>
       </c>
-      <c r="L46" s="66"/>
+      <c r="L46" s="64"/>
       <c r="M46" s="19">
         <f>IFERROR(주요뉴스!$A19,"")</f>
         <v>0</v>
@@ -4823,11 +4837,11 @@
       <c r="AG46" s="19"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="K47" s="66">
+      <c r="K47" s="64">
         <f>IFERROR(주요뉴스!$D20,"")</f>
         <v>0</v>
       </c>
-      <c r="L47" s="66"/>
+      <c r="L47" s="64"/>
       <c r="M47" s="19">
         <f>IFERROR(주요뉴스!$A20,"")</f>
         <v>0</v>
@@ -4866,11 +4880,11 @@
       <c r="AG47" s="19"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="K48" s="66">
+      <c r="K48" s="64">
         <f>IFERROR(주요뉴스!$D21,"")</f>
         <v>0</v>
       </c>
-      <c r="L48" s="66"/>
+      <c r="L48" s="64"/>
       <c r="M48" s="19">
         <f>IFERROR(주요뉴스!$A21,"")</f>
         <v>0</v>
@@ -4911,17 +4925,25 @@
     <row r="51" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K27:Z27"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE24:AF25"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="E3:F3"/>
@@ -4938,25 +4960,17 @@
     <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="K3:Z3"/>
     <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="K27:Z27"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AE24:AF25"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4980,36 +4994,36 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="32" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
-    <col min="3" max="3" width="0.875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="0.875" style="56" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6222,163 +6236,163 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="53.625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="0.875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="0.875" style="55" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="D1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickTop="1">
-      <c r="B2" s="57"/>
+      <c r="B2" s="54"/>
       <c r="E2" s="35" t="str">
         <f>IF(ISBLANK($B2),"",HYPERLINK($B2,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="57"/>
+      <c r="B3" s="54"/>
       <c r="E3" s="35" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(ISBLANK($B3),"",HYPERLINK($B3,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="57"/>
+      <c r="B4" s="54"/>
       <c r="E4" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="57"/>
+      <c r="B5" s="54"/>
       <c r="E5" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="57"/>
+      <c r="B6" s="54"/>
       <c r="E6" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="57"/>
+      <c r="B7" s="54"/>
       <c r="E7" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="57"/>
+      <c r="B8" s="54"/>
       <c r="E8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="57"/>
+      <c r="B9" s="54"/>
       <c r="E9" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="57"/>
+      <c r="B10" s="54"/>
       <c r="E10" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="57"/>
+      <c r="B11" s="54"/>
       <c r="E11" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="57"/>
+      <c r="B12" s="54"/>
       <c r="E12" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="57"/>
+      <c r="B13" s="54"/>
       <c r="E13" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="57"/>
+      <c r="B14" s="54"/>
       <c r="E14" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="57"/>
+      <c r="B15" s="54"/>
       <c r="E15" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="57"/>
+      <c r="B16" s="54"/>
       <c r="E16" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="57"/>
+      <c r="B17" s="54"/>
       <c r="E17" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="57"/>
+      <c r="B18" s="54"/>
       <c r="E18" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="57"/>
+      <c r="B19" s="54"/>
       <c r="E19" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="57"/>
+      <c r="B20" s="54"/>
       <c r="E20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7479,14 +7493,14 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1"/>
   </sheetData>
@@ -7505,1588 +7519,1926 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="34" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="0.875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="38" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="38" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="38" customWidth="1"/>
-    <col min="8" max="9" width="13.125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="0.875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="76" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="76" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="76" customWidth="1"/>
+    <col min="8" max="9" width="13.125" style="76" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="76" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.625" style="76" customWidth="1"/>
     <col min="14" max="14" width="9" style="34"/>
     <col min="15" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="48" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:14" s="45" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A1" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="H1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="I1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="K1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="L1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="M1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickTop="1">
-      <c r="C2" s="62"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
-      <c r="I2" s="41"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="35" t="str">
         <f>IF(ISBLANK($C2),"",HYPERLINK($C2,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="C3" s="62"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="39"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
-      <c r="I3" s="41"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="35" t="str">
         <f t="shared" ref="N3:N66" si="0">IF(ISBLANK($C3),"",HYPERLINK($C3,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="C4" s="62"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="C5" s="62"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="C6" s="62"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="62"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="40"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="C8" s="62"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
       <c r="N8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="C9" s="62"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="40"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="C10" s="62"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="40"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="C11" s="62"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="40"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="C12" s="62"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="C13" s="62"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="C14" s="62"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
       <c r="N14" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="C15" s="62"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
       <c r="N15" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="C16" s="62"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="40"/>
       <c r="N16" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="62"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
       <c r="N17" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="62"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
       <c r="N18" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="62"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
       <c r="N19" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="62"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="40"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
       <c r="N20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="62"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="40"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
       <c r="N21" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="62"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="40"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="40"/>
       <c r="N22" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="62"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="40"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="62"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="40"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
       <c r="K24" s="39"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
       <c r="N24" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="62"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="40"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="39"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
       <c r="N25" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="62"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
       <c r="K26" s="39"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
       <c r="N26" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="62"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="40"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="62"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="39"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
       <c r="N28" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="62"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
       <c r="K29" s="39"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="62"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="40"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
       <c r="K30" s="39"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="40"/>
       <c r="N30" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="62"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="40"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="3:14">
+      <c r="E32" s="75"/>
+      <c r="F32" s="77"/>
       <c r="N32" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="14:14">
+    <row r="33" spans="5:14">
+      <c r="E33" s="75"/>
+      <c r="F33" s="77"/>
       <c r="N33" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="14:14">
+    <row r="34" spans="5:14">
+      <c r="E34" s="75"/>
+      <c r="F34" s="77"/>
       <c r="N34" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="14:14">
+    <row r="35" spans="5:14">
+      <c r="E35" s="75"/>
+      <c r="F35" s="77"/>
       <c r="N35" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="14:14">
+    <row r="36" spans="5:14">
+      <c r="E36" s="75"/>
+      <c r="F36" s="77"/>
       <c r="N36" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="14:14">
+    <row r="37" spans="5:14">
+      <c r="E37" s="75"/>
+      <c r="F37" s="77"/>
       <c r="N37" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="14:14">
+    <row r="38" spans="5:14">
+      <c r="E38" s="75"/>
+      <c r="F38" s="77"/>
       <c r="N38" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="14:14">
+    <row r="39" spans="5:14">
+      <c r="E39" s="75"/>
+      <c r="F39" s="77"/>
       <c r="N39" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="14:14">
+    <row r="40" spans="5:14">
+      <c r="E40" s="75"/>
+      <c r="F40" s="77"/>
       <c r="N40" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="14:14">
+    <row r="41" spans="5:14">
+      <c r="E41" s="75"/>
+      <c r="F41" s="77"/>
       <c r="N41" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="14:14">
+    <row r="42" spans="5:14">
+      <c r="E42" s="75"/>
+      <c r="F42" s="77"/>
       <c r="N42" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="14:14">
+    <row r="43" spans="5:14">
+      <c r="E43" s="75"/>
+      <c r="F43" s="77"/>
       <c r="N43" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="14:14">
+    <row r="44" spans="5:14">
+      <c r="E44" s="75"/>
+      <c r="F44" s="77"/>
       <c r="N44" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="14:14">
+    <row r="45" spans="5:14">
+      <c r="E45" s="75"/>
+      <c r="F45" s="77"/>
       <c r="N45" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="14:14">
+    <row r="46" spans="5:14">
+      <c r="E46" s="75"/>
+      <c r="F46" s="77"/>
       <c r="N46" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="14:14">
+    <row r="47" spans="5:14">
+      <c r="E47" s="75"/>
+      <c r="F47" s="77"/>
       <c r="N47" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="14:14">
+    <row r="48" spans="5:14">
+      <c r="E48" s="75"/>
+      <c r="F48" s="77"/>
       <c r="N48" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="14:14">
+    <row r="49" spans="5:14">
+      <c r="E49" s="75"/>
+      <c r="F49" s="77"/>
       <c r="N49" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="14:14">
+    <row r="50" spans="5:14">
+      <c r="E50" s="75"/>
+      <c r="F50" s="77"/>
       <c r="N50" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="14:14">
+    <row r="51" spans="5:14">
+      <c r="E51" s="75"/>
+      <c r="F51" s="77"/>
       <c r="N51" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="14:14">
+    <row r="52" spans="5:14">
+      <c r="E52" s="75"/>
+      <c r="F52" s="77"/>
       <c r="N52" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="14:14">
+    <row r="53" spans="5:14">
+      <c r="E53" s="75"/>
+      <c r="F53" s="77"/>
       <c r="N53" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="14:14">
+    <row r="54" spans="5:14">
+      <c r="E54" s="75"/>
+      <c r="F54" s="77"/>
       <c r="N54" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="14:14">
+    <row r="55" spans="5:14">
+      <c r="E55" s="75"/>
+      <c r="F55" s="77"/>
       <c r="N55" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="14:14">
+    <row r="56" spans="5:14">
+      <c r="E56" s="75"/>
+      <c r="F56" s="77"/>
       <c r="N56" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="14:14">
+    <row r="57" spans="5:14">
+      <c r="E57" s="75"/>
+      <c r="F57" s="77"/>
       <c r="N57" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="14:14">
+    <row r="58" spans="5:14">
+      <c r="E58" s="75"/>
+      <c r="F58" s="77"/>
       <c r="N58" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="14:14">
+    <row r="59" spans="5:14">
+      <c r="E59" s="75"/>
+      <c r="F59" s="77"/>
       <c r="N59" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="14:14">
+    <row r="60" spans="5:14">
+      <c r="E60" s="75"/>
+      <c r="F60" s="77"/>
       <c r="N60" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="14:14">
+    <row r="61" spans="5:14">
+      <c r="E61" s="75"/>
+      <c r="F61" s="77"/>
       <c r="N61" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="14:14">
+    <row r="62" spans="5:14">
+      <c r="E62" s="75"/>
+      <c r="F62" s="77"/>
       <c r="N62" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="14:14">
+    <row r="63" spans="5:14">
+      <c r="E63" s="75"/>
+      <c r="F63" s="77"/>
       <c r="N63" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="14:14">
+    <row r="64" spans="5:14">
+      <c r="E64" s="75"/>
+      <c r="F64" s="77"/>
       <c r="N64" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="14:14">
+    <row r="65" spans="5:14">
+      <c r="E65" s="75"/>
+      <c r="F65" s="77"/>
       <c r="N65" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="14:14">
+    <row r="66" spans="5:14">
+      <c r="E66" s="75"/>
+      <c r="F66" s="77"/>
       <c r="N66" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="14:14">
+    <row r="67" spans="5:14">
+      <c r="E67" s="75"/>
+      <c r="F67" s="77"/>
       <c r="N67" s="35" t="str">
         <f t="shared" ref="N67:N130" si="1">IF(ISBLANK($C67),"",HYPERLINK($C67,"▶"))</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="14:14">
+    <row r="68" spans="5:14">
+      <c r="E68" s="75"/>
+      <c r="F68" s="77"/>
       <c r="N68" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="14:14">
+    <row r="69" spans="5:14">
+      <c r="E69" s="75"/>
+      <c r="F69" s="77"/>
       <c r="N69" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="14:14">
+    <row r="70" spans="5:14">
+      <c r="E70" s="75"/>
+      <c r="F70" s="77"/>
       <c r="N70" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="14:14">
+    <row r="71" spans="5:14">
+      <c r="E71" s="75"/>
+      <c r="F71" s="77"/>
       <c r="N71" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="14:14">
+    <row r="72" spans="5:14">
+      <c r="E72" s="75"/>
+      <c r="F72" s="77"/>
       <c r="N72" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="14:14">
+    <row r="73" spans="5:14">
+      <c r="E73" s="75"/>
+      <c r="F73" s="77"/>
       <c r="N73" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="14:14">
+    <row r="74" spans="5:14">
+      <c r="E74" s="75"/>
+      <c r="F74" s="77"/>
       <c r="N74" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="14:14">
+    <row r="75" spans="5:14">
+      <c r="E75" s="75"/>
+      <c r="F75" s="77"/>
       <c r="N75" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="14:14">
+    <row r="76" spans="5:14">
+      <c r="E76" s="75"/>
+      <c r="F76" s="77"/>
       <c r="N76" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="14:14">
+    <row r="77" spans="5:14">
+      <c r="E77" s="75"/>
+      <c r="F77" s="77"/>
       <c r="N77" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="14:14">
+    <row r="78" spans="5:14">
+      <c r="E78" s="75"/>
+      <c r="F78" s="77"/>
       <c r="N78" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="14:14">
+    <row r="79" spans="5:14">
+      <c r="E79" s="75"/>
+      <c r="F79" s="77"/>
       <c r="N79" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="14:14">
+    <row r="80" spans="5:14">
+      <c r="E80" s="75"/>
+      <c r="F80" s="77"/>
       <c r="N80" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="14:14">
+    <row r="81" spans="5:14">
+      <c r="E81" s="75"/>
+      <c r="F81" s="77"/>
       <c r="N81" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="14:14">
+    <row r="82" spans="5:14">
+      <c r="E82" s="75"/>
+      <c r="F82" s="77"/>
       <c r="N82" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="14:14">
+    <row r="83" spans="5:14">
+      <c r="E83" s="75"/>
+      <c r="F83" s="77"/>
       <c r="N83" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="14:14">
+    <row r="84" spans="5:14">
+      <c r="E84" s="75"/>
+      <c r="F84" s="77"/>
       <c r="N84" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="14:14">
+    <row r="85" spans="5:14">
+      <c r="E85" s="75"/>
+      <c r="F85" s="77"/>
       <c r="N85" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="14:14">
+    <row r="86" spans="5:14">
+      <c r="E86" s="75"/>
+      <c r="F86" s="77"/>
       <c r="N86" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="14:14">
+    <row r="87" spans="5:14">
+      <c r="E87" s="75"/>
+      <c r="F87" s="77"/>
       <c r="N87" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="14:14">
+    <row r="88" spans="5:14">
+      <c r="E88" s="75"/>
+      <c r="F88" s="77"/>
       <c r="N88" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="14:14">
+    <row r="89" spans="5:14">
+      <c r="E89" s="75"/>
+      <c r="F89" s="77"/>
       <c r="N89" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="14:14">
+    <row r="90" spans="5:14">
+      <c r="E90" s="75"/>
+      <c r="F90" s="77"/>
       <c r="N90" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="14:14">
+    <row r="91" spans="5:14">
+      <c r="E91" s="75"/>
+      <c r="F91" s="77"/>
       <c r="N91" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="14:14">
+    <row r="92" spans="5:14">
+      <c r="E92" s="75"/>
+      <c r="F92" s="77"/>
       <c r="N92" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="14:14">
+    <row r="93" spans="5:14">
+      <c r="E93" s="75"/>
+      <c r="F93" s="77"/>
       <c r="N93" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="14:14">
+    <row r="94" spans="5:14">
+      <c r="E94" s="75"/>
+      <c r="F94" s="77"/>
       <c r="N94" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="14:14">
+    <row r="95" spans="5:14">
+      <c r="E95" s="75"/>
+      <c r="F95" s="77"/>
       <c r="N95" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="14:14">
+    <row r="96" spans="5:14">
+      <c r="E96" s="75"/>
+      <c r="F96" s="77"/>
       <c r="N96" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="14:14">
+    <row r="97" spans="5:14">
+      <c r="E97" s="75"/>
+      <c r="F97" s="77"/>
       <c r="N97" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="14:14">
+    <row r="98" spans="5:14">
+      <c r="E98" s="75"/>
+      <c r="F98" s="77"/>
       <c r="N98" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="14:14">
+    <row r="99" spans="5:14">
+      <c r="E99" s="75"/>
+      <c r="F99" s="77"/>
       <c r="N99" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="14:14">
+    <row r="100" spans="5:14">
+      <c r="E100" s="75"/>
+      <c r="F100" s="77"/>
       <c r="N100" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="14:14">
+    <row r="101" spans="5:14">
+      <c r="E101" s="75"/>
+      <c r="F101" s="77"/>
       <c r="N101" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="14:14">
+    <row r="102" spans="5:14">
+      <c r="E102" s="75"/>
+      <c r="F102" s="77"/>
       <c r="N102" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="14:14">
+    <row r="103" spans="5:14">
+      <c r="E103" s="75"/>
+      <c r="F103" s="77"/>
       <c r="N103" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="14:14">
+    <row r="104" spans="5:14">
+      <c r="E104" s="75"/>
+      <c r="F104" s="77"/>
       <c r="N104" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="14:14">
+    <row r="105" spans="5:14">
+      <c r="E105" s="75"/>
+      <c r="F105" s="77"/>
       <c r="N105" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="14:14">
+    <row r="106" spans="5:14">
+      <c r="E106" s="75"/>
+      <c r="F106" s="77"/>
       <c r="N106" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="14:14">
+    <row r="107" spans="5:14">
+      <c r="E107" s="75"/>
+      <c r="F107" s="77"/>
       <c r="N107" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="14:14">
+    <row r="108" spans="5:14">
+      <c r="E108" s="75"/>
+      <c r="F108" s="77"/>
       <c r="N108" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="14:14">
+    <row r="109" spans="5:14">
+      <c r="E109" s="75"/>
+      <c r="F109" s="77"/>
       <c r="N109" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="14:14">
+    <row r="110" spans="5:14">
+      <c r="E110" s="75"/>
+      <c r="F110" s="77"/>
       <c r="N110" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="14:14">
+    <row r="111" spans="5:14">
+      <c r="E111" s="75"/>
+      <c r="F111" s="77"/>
       <c r="N111" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="14:14">
+    <row r="112" spans="5:14">
+      <c r="E112" s="75"/>
+      <c r="F112" s="77"/>
       <c r="N112" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="14:14">
+    <row r="113" spans="5:14">
+      <c r="E113" s="75"/>
+      <c r="F113" s="77"/>
       <c r="N113" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="14:14">
+    <row r="114" spans="5:14">
+      <c r="E114" s="75"/>
+      <c r="F114" s="77"/>
       <c r="N114" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="14:14">
+    <row r="115" spans="5:14">
+      <c r="E115" s="75"/>
+      <c r="F115" s="77"/>
       <c r="N115" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="14:14">
+    <row r="116" spans="5:14">
+      <c r="E116" s="75"/>
+      <c r="F116" s="77"/>
       <c r="N116" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="14:14">
+    <row r="117" spans="5:14">
+      <c r="E117" s="75"/>
+      <c r="F117" s="77"/>
       <c r="N117" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="14:14">
+    <row r="118" spans="5:14">
+      <c r="E118" s="75"/>
+      <c r="F118" s="77"/>
       <c r="N118" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="14:14">
+    <row r="119" spans="5:14">
+      <c r="E119" s="75"/>
+      <c r="F119" s="77"/>
       <c r="N119" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="14:14">
+    <row r="120" spans="5:14">
+      <c r="E120" s="75"/>
+      <c r="F120" s="77"/>
       <c r="N120" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="14:14">
+    <row r="121" spans="5:14">
+      <c r="E121" s="75"/>
+      <c r="F121" s="77"/>
       <c r="N121" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="14:14">
+    <row r="122" spans="5:14">
+      <c r="E122" s="75"/>
+      <c r="F122" s="77"/>
       <c r="N122" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="14:14">
+    <row r="123" spans="5:14">
+      <c r="E123" s="75"/>
+      <c r="F123" s="77"/>
       <c r="N123" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="14:14">
+    <row r="124" spans="5:14">
+      <c r="E124" s="75"/>
+      <c r="F124" s="77"/>
       <c r="N124" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="14:14">
+    <row r="125" spans="5:14">
+      <c r="E125" s="75"/>
+      <c r="F125" s="77"/>
       <c r="N125" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="14:14">
+    <row r="126" spans="5:14">
+      <c r="E126" s="75"/>
+      <c r="F126" s="77"/>
       <c r="N126" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="14:14">
+    <row r="127" spans="5:14">
+      <c r="E127" s="75"/>
+      <c r="F127" s="77"/>
       <c r="N127" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="14:14">
+    <row r="128" spans="5:14">
+      <c r="E128" s="75"/>
+      <c r="F128" s="77"/>
       <c r="N128" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="14:14">
+    <row r="129" spans="5:14">
+      <c r="E129" s="75"/>
+      <c r="F129" s="77"/>
       <c r="N129" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="14:14">
+    <row r="130" spans="5:14">
+      <c r="E130" s="75"/>
+      <c r="F130" s="77"/>
       <c r="N130" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="14:14">
+    <row r="131" spans="5:14">
+      <c r="E131" s="75"/>
+      <c r="F131" s="77"/>
       <c r="N131" s="35" t="str">
         <f t="shared" ref="N131:N194" si="2">IF(ISBLANK($C131),"",HYPERLINK($C131,"▶"))</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="14:14">
+    <row r="132" spans="5:14">
+      <c r="E132" s="75"/>
+      <c r="F132" s="77"/>
       <c r="N132" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="14:14">
+    <row r="133" spans="5:14">
+      <c r="E133" s="75"/>
+      <c r="F133" s="77"/>
       <c r="N133" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="14:14">
+    <row r="134" spans="5:14">
+      <c r="E134" s="75"/>
+      <c r="F134" s="77"/>
       <c r="N134" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="14:14">
+    <row r="135" spans="5:14">
+      <c r="E135" s="75"/>
+      <c r="F135" s="77"/>
       <c r="N135" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="14:14">
+    <row r="136" spans="5:14">
+      <c r="E136" s="75"/>
+      <c r="F136" s="77"/>
       <c r="N136" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="14:14">
+    <row r="137" spans="5:14">
+      <c r="E137" s="75"/>
+      <c r="F137" s="77"/>
       <c r="N137" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="14:14">
+    <row r="138" spans="5:14">
+      <c r="E138" s="75"/>
+      <c r="F138" s="77"/>
       <c r="N138" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="14:14">
+    <row r="139" spans="5:14">
+      <c r="E139" s="75"/>
+      <c r="F139" s="77"/>
       <c r="N139" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="14:14">
+    <row r="140" spans="5:14">
+      <c r="E140" s="75"/>
+      <c r="F140" s="77"/>
       <c r="N140" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="14:14">
+    <row r="141" spans="5:14">
+      <c r="E141" s="75"/>
+      <c r="F141" s="77"/>
       <c r="N141" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="14:14">
+    <row r="142" spans="5:14">
+      <c r="E142" s="75"/>
+      <c r="F142" s="77"/>
       <c r="N142" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="14:14">
+    <row r="143" spans="5:14">
+      <c r="E143" s="75"/>
+      <c r="F143" s="77"/>
       <c r="N143" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="14:14">
+    <row r="144" spans="5:14">
+      <c r="E144" s="75"/>
+      <c r="F144" s="77"/>
       <c r="N144" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="14:14">
+    <row r="145" spans="5:14">
+      <c r="E145" s="75"/>
+      <c r="F145" s="77"/>
       <c r="N145" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="14:14">
+    <row r="146" spans="5:14">
+      <c r="E146" s="75"/>
+      <c r="F146" s="77"/>
       <c r="N146" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="14:14">
+    <row r="147" spans="5:14">
+      <c r="E147" s="75"/>
+      <c r="F147" s="77"/>
       <c r="N147" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="14:14">
+    <row r="148" spans="5:14">
+      <c r="E148" s="75"/>
+      <c r="F148" s="77"/>
       <c r="N148" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="14:14">
+    <row r="149" spans="5:14">
+      <c r="E149" s="75"/>
+      <c r="F149" s="77"/>
       <c r="N149" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="14:14">
+    <row r="150" spans="5:14">
+      <c r="E150" s="75"/>
+      <c r="F150" s="77"/>
       <c r="N150" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="14:14">
+    <row r="151" spans="5:14">
+      <c r="E151" s="75"/>
+      <c r="F151" s="77"/>
       <c r="N151" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="14:14">
+    <row r="152" spans="5:14">
+      <c r="E152" s="75"/>
+      <c r="F152" s="77"/>
       <c r="N152" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="14:14">
+    <row r="153" spans="5:14">
+      <c r="E153" s="75"/>
+      <c r="F153" s="77"/>
       <c r="N153" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="14:14">
+    <row r="154" spans="5:14">
+      <c r="E154" s="75"/>
+      <c r="F154" s="77"/>
       <c r="N154" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="14:14">
+    <row r="155" spans="5:14">
+      <c r="E155" s="75"/>
+      <c r="F155" s="77"/>
       <c r="N155" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="14:14">
+    <row r="156" spans="5:14">
+      <c r="E156" s="75"/>
+      <c r="F156" s="77"/>
       <c r="N156" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="14:14">
+    <row r="157" spans="5:14">
+      <c r="E157" s="75"/>
+      <c r="F157" s="77"/>
       <c r="N157" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="14:14">
+    <row r="158" spans="5:14">
+      <c r="E158" s="75"/>
+      <c r="F158" s="77"/>
       <c r="N158" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="14:14">
+    <row r="159" spans="5:14">
+      <c r="E159" s="75"/>
+      <c r="F159" s="77"/>
       <c r="N159" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="14:14">
+    <row r="160" spans="5:14">
+      <c r="E160" s="75"/>
+      <c r="F160" s="77"/>
       <c r="N160" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="14:14">
+    <row r="161" spans="5:14">
+      <c r="E161" s="75"/>
+      <c r="F161" s="77"/>
       <c r="N161" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="14:14">
+    <row r="162" spans="5:14">
+      <c r="E162" s="75"/>
+      <c r="F162" s="77"/>
       <c r="N162" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="14:14">
+    <row r="163" spans="5:14">
+      <c r="E163" s="75"/>
+      <c r="F163" s="77"/>
       <c r="N163" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="14:14">
+    <row r="164" spans="5:14">
+      <c r="E164" s="75"/>
+      <c r="F164" s="77"/>
       <c r="N164" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="14:14">
+    <row r="165" spans="5:14">
+      <c r="E165" s="75"/>
+      <c r="F165" s="77"/>
       <c r="N165" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="14:14">
+    <row r="166" spans="5:14">
+      <c r="E166" s="75"/>
+      <c r="F166" s="77"/>
       <c r="N166" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="14:14">
+    <row r="167" spans="5:14">
+      <c r="E167" s="75"/>
+      <c r="F167" s="77"/>
       <c r="N167" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="14:14">
+    <row r="168" spans="5:14">
+      <c r="E168" s="75"/>
+      <c r="F168" s="77"/>
       <c r="N168" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="14:14">
+    <row r="169" spans="5:14">
+      <c r="E169" s="75"/>
+      <c r="F169" s="77"/>
       <c r="N169" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="14:14">
+    <row r="170" spans="5:14">
+      <c r="E170" s="75"/>
+      <c r="F170" s="77"/>
       <c r="N170" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="14:14">
+    <row r="171" spans="5:14">
+      <c r="E171" s="75"/>
+      <c r="F171" s="77"/>
       <c r="N171" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="14:14">
+    <row r="172" spans="5:14">
+      <c r="E172" s="75"/>
+      <c r="F172" s="77"/>
       <c r="N172" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="14:14">
+    <row r="173" spans="5:14">
+      <c r="E173" s="75"/>
+      <c r="F173" s="77"/>
       <c r="N173" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="14:14">
+    <row r="174" spans="5:14">
+      <c r="E174" s="75"/>
+      <c r="F174" s="77"/>
       <c r="N174" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="14:14">
+    <row r="175" spans="5:14">
+      <c r="E175" s="75"/>
+      <c r="F175" s="77"/>
       <c r="N175" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="14:14">
+    <row r="176" spans="5:14">
+      <c r="E176" s="75"/>
+      <c r="F176" s="77"/>
       <c r="N176" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="14:14">
+    <row r="177" spans="5:14">
+      <c r="E177" s="75"/>
+      <c r="F177" s="77"/>
       <c r="N177" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="14:14">
+    <row r="178" spans="5:14">
+      <c r="E178" s="75"/>
+      <c r="F178" s="77"/>
       <c r="N178" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="14:14">
+    <row r="179" spans="5:14">
+      <c r="E179" s="75"/>
+      <c r="F179" s="77"/>
       <c r="N179" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="14:14">
+    <row r="180" spans="5:14">
+      <c r="E180" s="75"/>
+      <c r="F180" s="77"/>
       <c r="N180" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="14:14">
+    <row r="181" spans="5:14">
+      <c r="E181" s="75"/>
+      <c r="F181" s="77"/>
       <c r="N181" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="14:14">
+    <row r="182" spans="5:14">
+      <c r="E182" s="75"/>
+      <c r="F182" s="77"/>
       <c r="N182" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="14:14">
+    <row r="183" spans="5:14">
+      <c r="E183" s="75"/>
+      <c r="F183" s="77"/>
       <c r="N183" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="14:14">
+    <row r="184" spans="5:14">
+      <c r="E184" s="75"/>
+      <c r="F184" s="77"/>
       <c r="N184" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="14:14">
+    <row r="185" spans="5:14">
+      <c r="E185" s="75"/>
+      <c r="F185" s="77"/>
       <c r="N185" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="14:14">
+    <row r="186" spans="5:14">
+      <c r="E186" s="75"/>
+      <c r="F186" s="77"/>
       <c r="N186" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="14:14">
+    <row r="187" spans="5:14">
+      <c r="E187" s="75"/>
+      <c r="F187" s="77"/>
       <c r="N187" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="14:14">
+    <row r="188" spans="5:14">
+      <c r="E188" s="75"/>
+      <c r="F188" s="77"/>
       <c r="N188" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="14:14">
+    <row r="189" spans="5:14">
+      <c r="E189" s="75"/>
+      <c r="F189" s="77"/>
       <c r="N189" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="14:14">
+    <row r="190" spans="5:14">
+      <c r="E190" s="75"/>
+      <c r="F190" s="77"/>
       <c r="N190" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="14:14">
+    <row r="191" spans="5:14">
+      <c r="E191" s="75"/>
+      <c r="F191" s="77"/>
       <c r="N191" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="14:14">
+    <row r="192" spans="5:14">
+      <c r="E192" s="75"/>
+      <c r="F192" s="77"/>
       <c r="N192" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="14:14">
+    <row r="193" spans="5:14">
+      <c r="E193" s="75"/>
+      <c r="F193" s="77"/>
       <c r="N193" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="14:14">
+    <row r="194" spans="5:14">
+      <c r="E194" s="75"/>
+      <c r="F194" s="77"/>
       <c r="N194" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="14:14">
+    <row r="195" spans="5:14">
+      <c r="E195" s="75"/>
+      <c r="F195" s="77"/>
       <c r="N195" s="35" t="str">
         <f t="shared" ref="N195:N200" si="3">IF(ISBLANK($C195),"",HYPERLINK($C195,"▶"))</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="14:14">
+    <row r="196" spans="5:14">
+      <c r="E196" s="75"/>
+      <c r="F196" s="77"/>
       <c r="N196" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="14:14">
+    <row r="197" spans="5:14">
+      <c r="E197" s="75"/>
+      <c r="F197" s="77"/>
       <c r="N197" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="14:14">
+    <row r="198" spans="5:14">
+      <c r="E198" s="75"/>
+      <c r="F198" s="77"/>
       <c r="N198" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="14:14">
+    <row r="199" spans="5:14">
+      <c r="E199" s="75"/>
+      <c r="F199" s="77"/>
       <c r="N199" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="14:14">
+    <row r="200" spans="5:14">
+      <c r="E200" s="75"/>
+      <c r="F200" s="77"/>
       <c r="N200" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9108,1588 +9460,1926 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="34" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="0.875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="38" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="38" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="38" customWidth="1"/>
-    <col min="8" max="9" width="13.125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="0.875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="76" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="76" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="76" customWidth="1"/>
+    <col min="8" max="9" width="13.125" style="76" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="76" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.625" style="76" customWidth="1"/>
     <col min="14" max="14" width="9" style="34"/>
     <col min="15" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="H1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="I1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="K1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="L1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="M1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickTop="1">
-      <c r="C2" s="62"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
-      <c r="I2" s="41"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="35" t="str">
         <f>IF(ISBLANK($C2),"",HYPERLINK($C2,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="C3" s="62"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="39"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
-      <c r="I3" s="41"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="35" t="str">
         <f t="shared" ref="N3:N66" si="0">IF(ISBLANK($C3),"",HYPERLINK($C3,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="C4" s="62"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="C5" s="62"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="C6" s="62"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="62"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="40"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="C8" s="62"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
       <c r="N8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="C9" s="62"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="40"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="C10" s="62"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="40"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="C11" s="62"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="40"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="C12" s="62"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="C13" s="62"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="C14" s="62"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
       <c r="N14" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="C15" s="62"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
       <c r="N15" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="C16" s="62"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="40"/>
       <c r="N16" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="62"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
       <c r="N17" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="62"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
       <c r="N18" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="62"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
       <c r="N19" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="62"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="40"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
       <c r="N20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="62"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="40"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
       <c r="N21" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="62"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="40"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="40"/>
       <c r="N22" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="62"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="40"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="62"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="40"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
       <c r="K24" s="39"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
       <c r="N24" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="62"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="40"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="39"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
       <c r="N25" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="62"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
       <c r="K26" s="39"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
       <c r="N26" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="62"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="40"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="62"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="39"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
       <c r="N28" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="62"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
       <c r="K29" s="39"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="62"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="40"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
       <c r="K30" s="39"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="40"/>
       <c r="N30" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="62"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="40"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="3:14">
+      <c r="E32" s="75"/>
+      <c r="F32" s="77"/>
       <c r="N32" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="14:14">
+    <row r="33" spans="5:14">
+      <c r="E33" s="75"/>
+      <c r="F33" s="77"/>
       <c r="N33" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="14:14">
+    <row r="34" spans="5:14">
+      <c r="E34" s="75"/>
+      <c r="F34" s="77"/>
       <c r="N34" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="14:14">
+    <row r="35" spans="5:14">
+      <c r="E35" s="75"/>
+      <c r="F35" s="77"/>
       <c r="N35" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="14:14">
+    <row r="36" spans="5:14">
+      <c r="E36" s="75"/>
+      <c r="F36" s="77"/>
       <c r="N36" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="14:14">
+    <row r="37" spans="5:14">
+      <c r="E37" s="75"/>
+      <c r="F37" s="77"/>
       <c r="N37" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="14:14">
+    <row r="38" spans="5:14">
+      <c r="E38" s="75"/>
+      <c r="F38" s="77"/>
       <c r="N38" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="14:14">
+    <row r="39" spans="5:14">
+      <c r="E39" s="75"/>
+      <c r="F39" s="77"/>
       <c r="N39" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="14:14">
+    <row r="40" spans="5:14">
+      <c r="E40" s="75"/>
+      <c r="F40" s="77"/>
       <c r="N40" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="14:14">
+    <row r="41" spans="5:14">
+      <c r="E41" s="75"/>
+      <c r="F41" s="77"/>
       <c r="N41" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="14:14">
+    <row r="42" spans="5:14">
+      <c r="E42" s="75"/>
+      <c r="F42" s="77"/>
       <c r="N42" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="14:14">
+    <row r="43" spans="5:14">
+      <c r="E43" s="75"/>
+      <c r="F43" s="77"/>
       <c r="N43" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="14:14">
+    <row r="44" spans="5:14">
+      <c r="E44" s="75"/>
+      <c r="F44" s="77"/>
       <c r="N44" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="14:14">
+    <row r="45" spans="5:14">
+      <c r="E45" s="75"/>
+      <c r="F45" s="77"/>
       <c r="N45" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="14:14">
+    <row r="46" spans="5:14">
+      <c r="E46" s="75"/>
+      <c r="F46" s="77"/>
       <c r="N46" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="14:14">
+    <row r="47" spans="5:14">
+      <c r="E47" s="75"/>
+      <c r="F47" s="77"/>
       <c r="N47" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="14:14">
+    <row r="48" spans="5:14">
+      <c r="E48" s="75"/>
+      <c r="F48" s="77"/>
       <c r="N48" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="14:14">
+    <row r="49" spans="5:14">
+      <c r="E49" s="75"/>
+      <c r="F49" s="77"/>
       <c r="N49" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="14:14">
+    <row r="50" spans="5:14">
+      <c r="E50" s="75"/>
+      <c r="F50" s="77"/>
       <c r="N50" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="14:14">
+    <row r="51" spans="5:14">
+      <c r="E51" s="75"/>
+      <c r="F51" s="77"/>
       <c r="N51" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="14:14">
+    <row r="52" spans="5:14">
+      <c r="E52" s="75"/>
+      <c r="F52" s="77"/>
       <c r="N52" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="14:14">
+    <row r="53" spans="5:14">
+      <c r="E53" s="75"/>
+      <c r="F53" s="77"/>
       <c r="N53" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="14:14">
+    <row r="54" spans="5:14">
+      <c r="E54" s="75"/>
+      <c r="F54" s="77"/>
       <c r="N54" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="14:14">
+    <row r="55" spans="5:14">
+      <c r="E55" s="75"/>
+      <c r="F55" s="77"/>
       <c r="N55" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="14:14">
+    <row r="56" spans="5:14">
+      <c r="E56" s="75"/>
+      <c r="F56" s="77"/>
       <c r="N56" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="14:14">
+    <row r="57" spans="5:14">
+      <c r="E57" s="75"/>
+      <c r="F57" s="77"/>
       <c r="N57" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="14:14">
+    <row r="58" spans="5:14">
+      <c r="E58" s="75"/>
+      <c r="F58" s="77"/>
       <c r="N58" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="14:14">
+    <row r="59" spans="5:14">
+      <c r="E59" s="75"/>
+      <c r="F59" s="77"/>
       <c r="N59" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="14:14">
+    <row r="60" spans="5:14">
+      <c r="E60" s="75"/>
+      <c r="F60" s="77"/>
       <c r="N60" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="14:14">
+    <row r="61" spans="5:14">
+      <c r="E61" s="75"/>
+      <c r="F61" s="77"/>
       <c r="N61" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="14:14">
+    <row r="62" spans="5:14">
+      <c r="E62" s="75"/>
+      <c r="F62" s="77"/>
       <c r="N62" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="14:14">
+    <row r="63" spans="5:14">
+      <c r="E63" s="75"/>
+      <c r="F63" s="77"/>
       <c r="N63" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="14:14">
+    <row r="64" spans="5:14">
+      <c r="E64" s="75"/>
+      <c r="F64" s="77"/>
       <c r="N64" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="14:14">
+    <row r="65" spans="5:14">
+      <c r="E65" s="75"/>
+      <c r="F65" s="77"/>
       <c r="N65" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="14:14">
+    <row r="66" spans="5:14">
+      <c r="E66" s="75"/>
+      <c r="F66" s="77"/>
       <c r="N66" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="14:14">
+    <row r="67" spans="5:14">
+      <c r="E67" s="75"/>
+      <c r="F67" s="77"/>
       <c r="N67" s="35" t="str">
         <f t="shared" ref="N67:N130" si="1">IF(ISBLANK($C67),"",HYPERLINK($C67,"▶"))</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="14:14">
+    <row r="68" spans="5:14">
+      <c r="E68" s="75"/>
+      <c r="F68" s="77"/>
       <c r="N68" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="14:14">
+    <row r="69" spans="5:14">
+      <c r="E69" s="75"/>
+      <c r="F69" s="77"/>
       <c r="N69" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="14:14">
+    <row r="70" spans="5:14">
+      <c r="E70" s="75"/>
+      <c r="F70" s="77"/>
       <c r="N70" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="14:14">
+    <row r="71" spans="5:14">
+      <c r="E71" s="75"/>
+      <c r="F71" s="77"/>
       <c r="N71" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="14:14">
+    <row r="72" spans="5:14">
+      <c r="E72" s="75"/>
+      <c r="F72" s="77"/>
       <c r="N72" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="14:14">
+    <row r="73" spans="5:14">
+      <c r="E73" s="75"/>
+      <c r="F73" s="77"/>
       <c r="N73" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="14:14">
+    <row r="74" spans="5:14">
+      <c r="E74" s="75"/>
+      <c r="F74" s="77"/>
       <c r="N74" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="14:14">
+    <row r="75" spans="5:14">
+      <c r="E75" s="75"/>
+      <c r="F75" s="77"/>
       <c r="N75" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="14:14">
+    <row r="76" spans="5:14">
+      <c r="E76" s="75"/>
+      <c r="F76" s="77"/>
       <c r="N76" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="14:14">
+    <row r="77" spans="5:14">
+      <c r="E77" s="75"/>
+      <c r="F77" s="77"/>
       <c r="N77" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="14:14">
+    <row r="78" spans="5:14">
+      <c r="E78" s="75"/>
+      <c r="F78" s="77"/>
       <c r="N78" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="14:14">
+    <row r="79" spans="5:14">
+      <c r="E79" s="75"/>
+      <c r="F79" s="77"/>
       <c r="N79" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="14:14">
+    <row r="80" spans="5:14">
+      <c r="E80" s="75"/>
+      <c r="F80" s="77"/>
       <c r="N80" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="14:14">
+    <row r="81" spans="5:14">
+      <c r="E81" s="75"/>
+      <c r="F81" s="77"/>
       <c r="N81" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="14:14">
+    <row r="82" spans="5:14">
+      <c r="E82" s="75"/>
+      <c r="F82" s="77"/>
       <c r="N82" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="14:14">
+    <row r="83" spans="5:14">
+      <c r="E83" s="75"/>
+      <c r="F83" s="77"/>
       <c r="N83" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="14:14">
+    <row r="84" spans="5:14">
+      <c r="E84" s="75"/>
+      <c r="F84" s="77"/>
       <c r="N84" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="14:14">
+    <row r="85" spans="5:14">
+      <c r="E85" s="75"/>
+      <c r="F85" s="77"/>
       <c r="N85" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="14:14">
+    <row r="86" spans="5:14">
+      <c r="E86" s="75"/>
+      <c r="F86" s="77"/>
       <c r="N86" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="14:14">
+    <row r="87" spans="5:14">
+      <c r="E87" s="75"/>
+      <c r="F87" s="77"/>
       <c r="N87" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="14:14">
+    <row r="88" spans="5:14">
+      <c r="E88" s="75"/>
+      <c r="F88" s="77"/>
       <c r="N88" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="14:14">
+    <row r="89" spans="5:14">
+      <c r="E89" s="75"/>
+      <c r="F89" s="77"/>
       <c r="N89" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="14:14">
+    <row r="90" spans="5:14">
+      <c r="E90" s="75"/>
+      <c r="F90" s="77"/>
       <c r="N90" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="14:14">
+    <row r="91" spans="5:14">
+      <c r="E91" s="75"/>
+      <c r="F91" s="77"/>
       <c r="N91" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="14:14">
+    <row r="92" spans="5:14">
+      <c r="E92" s="75"/>
+      <c r="F92" s="77"/>
       <c r="N92" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="14:14">
+    <row r="93" spans="5:14">
+      <c r="E93" s="75"/>
+      <c r="F93" s="77"/>
       <c r="N93" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="14:14">
+    <row r="94" spans="5:14">
+      <c r="E94" s="75"/>
+      <c r="F94" s="77"/>
       <c r="N94" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="14:14">
+    <row r="95" spans="5:14">
+      <c r="E95" s="75"/>
+      <c r="F95" s="77"/>
       <c r="N95" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="14:14">
+    <row r="96" spans="5:14">
+      <c r="E96" s="75"/>
+      <c r="F96" s="77"/>
       <c r="N96" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="14:14">
+    <row r="97" spans="5:14">
+      <c r="E97" s="75"/>
+      <c r="F97" s="77"/>
       <c r="N97" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="14:14">
+    <row r="98" spans="5:14">
+      <c r="E98" s="75"/>
+      <c r="F98" s="77"/>
       <c r="N98" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="14:14">
+    <row r="99" spans="5:14">
+      <c r="E99" s="75"/>
+      <c r="F99" s="77"/>
       <c r="N99" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="14:14">
+    <row r="100" spans="5:14">
+      <c r="E100" s="75"/>
+      <c r="F100" s="77"/>
       <c r="N100" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="14:14">
+    <row r="101" spans="5:14">
+      <c r="E101" s="75"/>
+      <c r="F101" s="77"/>
       <c r="N101" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="14:14">
+    <row r="102" spans="5:14">
+      <c r="E102" s="75"/>
+      <c r="F102" s="77"/>
       <c r="N102" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="14:14">
+    <row r="103" spans="5:14">
+      <c r="E103" s="75"/>
+      <c r="F103" s="77"/>
       <c r="N103" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="14:14">
+    <row r="104" spans="5:14">
+      <c r="E104" s="75"/>
+      <c r="F104" s="77"/>
       <c r="N104" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="14:14">
+    <row r="105" spans="5:14">
+      <c r="E105" s="75"/>
+      <c r="F105" s="77"/>
       <c r="N105" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="14:14">
+    <row r="106" spans="5:14">
+      <c r="E106" s="75"/>
+      <c r="F106" s="77"/>
       <c r="N106" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="14:14">
+    <row r="107" spans="5:14">
+      <c r="E107" s="75"/>
+      <c r="F107" s="77"/>
       <c r="N107" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="14:14">
+    <row r="108" spans="5:14">
+      <c r="E108" s="75"/>
+      <c r="F108" s="77"/>
       <c r="N108" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="14:14">
+    <row r="109" spans="5:14">
+      <c r="E109" s="75"/>
+      <c r="F109" s="77"/>
       <c r="N109" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="14:14">
+    <row r="110" spans="5:14">
+      <c r="E110" s="75"/>
+      <c r="F110" s="77"/>
       <c r="N110" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="14:14">
+    <row r="111" spans="5:14">
+      <c r="E111" s="75"/>
+      <c r="F111" s="77"/>
       <c r="N111" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="14:14">
+    <row r="112" spans="5:14">
+      <c r="E112" s="75"/>
+      <c r="F112" s="77"/>
       <c r="N112" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="14:14">
+    <row r="113" spans="5:14">
+      <c r="E113" s="75"/>
+      <c r="F113" s="77"/>
       <c r="N113" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="14:14">
+    <row r="114" spans="5:14">
+      <c r="E114" s="75"/>
+      <c r="F114" s="77"/>
       <c r="N114" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="14:14">
+    <row r="115" spans="5:14">
+      <c r="E115" s="75"/>
+      <c r="F115" s="77"/>
       <c r="N115" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="14:14">
+    <row r="116" spans="5:14">
+      <c r="E116" s="75"/>
+      <c r="F116" s="77"/>
       <c r="N116" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="14:14">
+    <row r="117" spans="5:14">
+      <c r="E117" s="75"/>
+      <c r="F117" s="77"/>
       <c r="N117" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="14:14">
+    <row r="118" spans="5:14">
+      <c r="E118" s="75"/>
+      <c r="F118" s="77"/>
       <c r="N118" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="14:14">
+    <row r="119" spans="5:14">
+      <c r="E119" s="75"/>
+      <c r="F119" s="77"/>
       <c r="N119" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="14:14">
+    <row r="120" spans="5:14">
+      <c r="E120" s="75"/>
+      <c r="F120" s="77"/>
       <c r="N120" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="14:14">
+    <row r="121" spans="5:14">
+      <c r="E121" s="75"/>
+      <c r="F121" s="77"/>
       <c r="N121" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="14:14">
+    <row r="122" spans="5:14">
+      <c r="E122" s="75"/>
+      <c r="F122" s="77"/>
       <c r="N122" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="14:14">
+    <row r="123" spans="5:14">
+      <c r="E123" s="75"/>
+      <c r="F123" s="77"/>
       <c r="N123" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="14:14">
+    <row r="124" spans="5:14">
+      <c r="E124" s="75"/>
+      <c r="F124" s="77"/>
       <c r="N124" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="14:14">
+    <row r="125" spans="5:14">
+      <c r="E125" s="75"/>
+      <c r="F125" s="77"/>
       <c r="N125" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="14:14">
+    <row r="126" spans="5:14">
+      <c r="E126" s="75"/>
+      <c r="F126" s="77"/>
       <c r="N126" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="14:14">
+    <row r="127" spans="5:14">
+      <c r="E127" s="75"/>
+      <c r="F127" s="77"/>
       <c r="N127" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="14:14">
+    <row r="128" spans="5:14">
+      <c r="E128" s="75"/>
+      <c r="F128" s="77"/>
       <c r="N128" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="14:14">
+    <row r="129" spans="5:14">
+      <c r="E129" s="75"/>
+      <c r="F129" s="77"/>
       <c r="N129" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="14:14">
+    <row r="130" spans="5:14">
+      <c r="E130" s="75"/>
+      <c r="F130" s="77"/>
       <c r="N130" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="14:14">
+    <row r="131" spans="5:14">
+      <c r="E131" s="75"/>
+      <c r="F131" s="77"/>
       <c r="N131" s="35" t="str">
         <f t="shared" ref="N131:N194" si="2">IF(ISBLANK($C131),"",HYPERLINK($C131,"▶"))</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="14:14">
+    <row r="132" spans="5:14">
+      <c r="E132" s="75"/>
+      <c r="F132" s="77"/>
       <c r="N132" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="14:14">
+    <row r="133" spans="5:14">
+      <c r="E133" s="75"/>
+      <c r="F133" s="77"/>
       <c r="N133" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="14:14">
+    <row r="134" spans="5:14">
+      <c r="E134" s="75"/>
+      <c r="F134" s="77"/>
       <c r="N134" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="14:14">
+    <row r="135" spans="5:14">
+      <c r="E135" s="75"/>
+      <c r="F135" s="77"/>
       <c r="N135" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="14:14">
+    <row r="136" spans="5:14">
+      <c r="E136" s="75"/>
+      <c r="F136" s="77"/>
       <c r="N136" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="14:14">
+    <row r="137" spans="5:14">
+      <c r="E137" s="75"/>
+      <c r="F137" s="77"/>
       <c r="N137" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="14:14">
+    <row r="138" spans="5:14">
+      <c r="E138" s="75"/>
+      <c r="F138" s="77"/>
       <c r="N138" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="14:14">
+    <row r="139" spans="5:14">
+      <c r="E139" s="75"/>
+      <c r="F139" s="77"/>
       <c r="N139" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="14:14">
+    <row r="140" spans="5:14">
+      <c r="E140" s="75"/>
+      <c r="F140" s="77"/>
       <c r="N140" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="14:14">
+    <row r="141" spans="5:14">
+      <c r="E141" s="75"/>
+      <c r="F141" s="77"/>
       <c r="N141" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="14:14">
+    <row r="142" spans="5:14">
+      <c r="E142" s="75"/>
+      <c r="F142" s="77"/>
       <c r="N142" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="14:14">
+    <row r="143" spans="5:14">
+      <c r="E143" s="75"/>
+      <c r="F143" s="77"/>
       <c r="N143" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="14:14">
+    <row r="144" spans="5:14">
+      <c r="E144" s="75"/>
+      <c r="F144" s="77"/>
       <c r="N144" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="14:14">
+    <row r="145" spans="5:14">
+      <c r="E145" s="75"/>
+      <c r="F145" s="77"/>
       <c r="N145" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="14:14">
+    <row r="146" spans="5:14">
+      <c r="E146" s="75"/>
+      <c r="F146" s="77"/>
       <c r="N146" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="14:14">
+    <row r="147" spans="5:14">
+      <c r="E147" s="75"/>
+      <c r="F147" s="77"/>
       <c r="N147" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="14:14">
+    <row r="148" spans="5:14">
+      <c r="E148" s="75"/>
+      <c r="F148" s="77"/>
       <c r="N148" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="14:14">
+    <row r="149" spans="5:14">
+      <c r="E149" s="75"/>
+      <c r="F149" s="77"/>
       <c r="N149" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="14:14">
+    <row r="150" spans="5:14">
+      <c r="E150" s="75"/>
+      <c r="F150" s="77"/>
       <c r="N150" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="14:14">
+    <row r="151" spans="5:14">
+      <c r="E151" s="75"/>
+      <c r="F151" s="77"/>
       <c r="N151" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="14:14">
+    <row r="152" spans="5:14">
+      <c r="E152" s="75"/>
+      <c r="F152" s="77"/>
       <c r="N152" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="14:14">
+    <row r="153" spans="5:14">
+      <c r="E153" s="75"/>
+      <c r="F153" s="77"/>
       <c r="N153" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="14:14">
+    <row r="154" spans="5:14">
+      <c r="E154" s="75"/>
+      <c r="F154" s="77"/>
       <c r="N154" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="14:14">
+    <row r="155" spans="5:14">
+      <c r="E155" s="75"/>
+      <c r="F155" s="77"/>
       <c r="N155" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="14:14">
+    <row r="156" spans="5:14">
+      <c r="E156" s="75"/>
+      <c r="F156" s="77"/>
       <c r="N156" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="14:14">
+    <row r="157" spans="5:14">
+      <c r="E157" s="75"/>
+      <c r="F157" s="77"/>
       <c r="N157" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="14:14">
+    <row r="158" spans="5:14">
+      <c r="E158" s="75"/>
+      <c r="F158" s="77"/>
       <c r="N158" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="14:14">
+    <row r="159" spans="5:14">
+      <c r="E159" s="75"/>
+      <c r="F159" s="77"/>
       <c r="N159" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="14:14">
+    <row r="160" spans="5:14">
+      <c r="E160" s="75"/>
+      <c r="F160" s="77"/>
       <c r="N160" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="14:14">
+    <row r="161" spans="5:14">
+      <c r="E161" s="75"/>
+      <c r="F161" s="77"/>
       <c r="N161" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="14:14">
+    <row r="162" spans="5:14">
+      <c r="E162" s="75"/>
+      <c r="F162" s="77"/>
       <c r="N162" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="14:14">
+    <row r="163" spans="5:14">
+      <c r="E163" s="75"/>
+      <c r="F163" s="77"/>
       <c r="N163" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="14:14">
+    <row r="164" spans="5:14">
+      <c r="E164" s="75"/>
+      <c r="F164" s="77"/>
       <c r="N164" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="14:14">
+    <row r="165" spans="5:14">
+      <c r="E165" s="75"/>
+      <c r="F165" s="77"/>
       <c r="N165" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="14:14">
+    <row r="166" spans="5:14">
+      <c r="E166" s="75"/>
+      <c r="F166" s="77"/>
       <c r="N166" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="14:14">
+    <row r="167" spans="5:14">
+      <c r="E167" s="75"/>
+      <c r="F167" s="77"/>
       <c r="N167" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="14:14">
+    <row r="168" spans="5:14">
+      <c r="E168" s="75"/>
+      <c r="F168" s="77"/>
       <c r="N168" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="14:14">
+    <row r="169" spans="5:14">
+      <c r="E169" s="75"/>
+      <c r="F169" s="77"/>
       <c r="N169" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="14:14">
+    <row r="170" spans="5:14">
+      <c r="E170" s="75"/>
+      <c r="F170" s="77"/>
       <c r="N170" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="14:14">
+    <row r="171" spans="5:14">
+      <c r="E171" s="75"/>
+      <c r="F171" s="77"/>
       <c r="N171" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="14:14">
+    <row r="172" spans="5:14">
+      <c r="E172" s="75"/>
+      <c r="F172" s="77"/>
       <c r="N172" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="14:14">
+    <row r="173" spans="5:14">
+      <c r="E173" s="75"/>
+      <c r="F173" s="77"/>
       <c r="N173" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="14:14">
+    <row r="174" spans="5:14">
+      <c r="E174" s="75"/>
+      <c r="F174" s="77"/>
       <c r="N174" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="14:14">
+    <row r="175" spans="5:14">
+      <c r="E175" s="75"/>
+      <c r="F175" s="77"/>
       <c r="N175" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="14:14">
+    <row r="176" spans="5:14">
+      <c r="E176" s="75"/>
+      <c r="F176" s="77"/>
       <c r="N176" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="14:14">
+    <row r="177" spans="5:14">
+      <c r="E177" s="75"/>
+      <c r="F177" s="77"/>
       <c r="N177" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="14:14">
+    <row r="178" spans="5:14">
+      <c r="E178" s="75"/>
+      <c r="F178" s="77"/>
       <c r="N178" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="14:14">
+    <row r="179" spans="5:14">
+      <c r="E179" s="75"/>
+      <c r="F179" s="77"/>
       <c r="N179" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="14:14">
+    <row r="180" spans="5:14">
+      <c r="E180" s="75"/>
+      <c r="F180" s="77"/>
       <c r="N180" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="14:14">
+    <row r="181" spans="5:14">
+      <c r="E181" s="75"/>
+      <c r="F181" s="77"/>
       <c r="N181" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="14:14">
+    <row r="182" spans="5:14">
+      <c r="E182" s="75"/>
+      <c r="F182" s="77"/>
       <c r="N182" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="14:14">
+    <row r="183" spans="5:14">
+      <c r="E183" s="75"/>
+      <c r="F183" s="77"/>
       <c r="N183" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="14:14">
+    <row r="184" spans="5:14">
+      <c r="E184" s="75"/>
+      <c r="F184" s="77"/>
       <c r="N184" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="14:14">
+    <row r="185" spans="5:14">
+      <c r="E185" s="75"/>
+      <c r="F185" s="77"/>
       <c r="N185" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="14:14">
+    <row r="186" spans="5:14">
+      <c r="E186" s="75"/>
+      <c r="F186" s="77"/>
       <c r="N186" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="14:14">
+    <row r="187" spans="5:14">
+      <c r="E187" s="75"/>
+      <c r="F187" s="77"/>
       <c r="N187" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="14:14">
+    <row r="188" spans="5:14">
+      <c r="E188" s="75"/>
+      <c r="F188" s="77"/>
       <c r="N188" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="14:14">
+    <row r="189" spans="5:14">
+      <c r="E189" s="75"/>
+      <c r="F189" s="77"/>
       <c r="N189" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="14:14">
+    <row r="190" spans="5:14">
+      <c r="E190" s="75"/>
+      <c r="F190" s="77"/>
       <c r="N190" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="14:14">
+    <row r="191" spans="5:14">
+      <c r="E191" s="75"/>
+      <c r="F191" s="77"/>
       <c r="N191" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="14:14">
+    <row r="192" spans="5:14">
+      <c r="E192" s="75"/>
+      <c r="F192" s="77"/>
       <c r="N192" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="14:14">
+    <row r="193" spans="5:14">
+      <c r="E193" s="75"/>
+      <c r="F193" s="77"/>
       <c r="N193" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="14:14">
+    <row r="194" spans="5:14">
+      <c r="E194" s="75"/>
+      <c r="F194" s="77"/>
       <c r="N194" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="14:14">
+    <row r="195" spans="5:14">
+      <c r="E195" s="75"/>
+      <c r="F195" s="77"/>
       <c r="N195" s="35" t="str">
         <f t="shared" ref="N195:N200" si="3">IF(ISBLANK($C195),"",HYPERLINK($C195,"▶"))</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="14:14">
+    <row r="196" spans="5:14">
+      <c r="E196" s="75"/>
+      <c r="F196" s="77"/>
       <c r="N196" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="14:14">
+    <row r="197" spans="5:14">
+      <c r="E197" s="75"/>
+      <c r="F197" s="77"/>
       <c r="N197" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="14:14">
+    <row r="198" spans="5:14">
+      <c r="E198" s="75"/>
+      <c r="F198" s="77"/>
       <c r="N198" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="14:14">
+    <row r="199" spans="5:14">
+      <c r="E199" s="75"/>
+      <c r="F199" s="77"/>
       <c r="N199" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="14:14">
+    <row r="200" spans="5:14">
+      <c r="E200" s="75"/>
+      <c r="F200" s="77"/>
       <c r="N200" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -10710,45 +11400,45 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="0.875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="0.875" style="54" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="48" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" s="45" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A1" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="D1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="F1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="G1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="H1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12106,6 +12796,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C200">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12119,184 +12817,184 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="51" customWidth="1"/>
-    <col min="2" max="2" width="0.875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="67.25" style="51" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="50" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="0.875" style="55" customWidth="1"/>
+    <col min="3" max="3" width="67.25" style="48" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="47" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="48" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:6" s="45" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickTop="1">
-      <c r="B2" s="61"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="58"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="35" t="str">
         <f>IF(ISBLANK($B2),"",HYPERLINK($B2,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="E3" s="44"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="35" t="str">
         <f t="shared" ref="F3:F66" si="0">IF(ISBLANK($B3),"",HYPERLINK($B3,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="61"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="58"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="E5" s="44"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="E6" s="44"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="E7" s="44"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="E8" s="44"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="52"/>
-      <c r="E9" s="44"/>
+      <c r="A9" s="49"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="52"/>
-      <c r="E10" s="44"/>
+      <c r="A10" s="49"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="52"/>
-      <c r="E11" s="44"/>
+      <c r="A11" s="49"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="52"/>
-      <c r="E12" s="44"/>
+      <c r="A12" s="49"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="E13" s="44"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="52"/>
-      <c r="E14" s="44"/>
+      <c r="A14" s="49"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="52"/>
-      <c r="E15" s="44"/>
+      <c r="A15" s="49"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="44"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="E17" s="44"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="E18" s="44"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="52"/>
-      <c r="E19" s="44"/>
+      <c r="A19" s="49"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="52"/>
-      <c r="E20" s="44"/>
+      <c r="A20" s="49"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="E21" s="44"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14591,44 +15289,44 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="52" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="0.875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="65.75" style="51" customWidth="1"/>
+    <col min="5" max="5" width="0.875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="65.75" style="48" customWidth="1"/>
     <col min="7" max="7" width="19.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="48" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8" s="45" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -14663,7 +15361,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="F7" s="52"/>
+      <c r="F7" s="49"/>
       <c r="H7" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14964,7 +15662,7 @@
       </c>
     </row>
     <row r="57" spans="6:8">
-      <c r="F57" s="52"/>
+      <c r="F57" s="49"/>
       <c r="H57" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15843,163 +16541,163 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="54.75" style="32" customWidth="1"/>
-    <col min="2" max="2" width="0.875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="0.875" style="55" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="D1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickTop="1">
-      <c r="B2" s="57"/>
+      <c r="B2" s="54"/>
       <c r="E2" s="35" t="str">
         <f>IF(ISBLANK($B2),"",HYPERLINK($B2,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="57"/>
+      <c r="B3" s="54"/>
       <c r="E3" s="35" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(ISBLANK($B3),"",HYPERLINK($B3,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="57"/>
+      <c r="B4" s="54"/>
       <c r="E4" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="57"/>
+      <c r="B5" s="54"/>
       <c r="E5" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="57"/>
+      <c r="B6" s="54"/>
       <c r="E6" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="57"/>
+      <c r="B7" s="54"/>
       <c r="E7" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="57"/>
+      <c r="B8" s="54"/>
       <c r="E8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="57"/>
+      <c r="B9" s="54"/>
       <c r="E9" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="57"/>
+      <c r="B10" s="54"/>
       <c r="E10" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="57"/>
+      <c r="B11" s="54"/>
       <c r="E11" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="57"/>
+      <c r="B12" s="54"/>
       <c r="E12" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="57"/>
+      <c r="B13" s="54"/>
       <c r="E13" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="57"/>
+      <c r="B14" s="54"/>
       <c r="E14" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="57"/>
+      <c r="B15" s="54"/>
       <c r="E15" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="57"/>
+      <c r="B16" s="54"/>
       <c r="E16" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="57"/>
+      <c r="B17" s="54"/>
       <c r="E17" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="57"/>
+      <c r="B18" s="54"/>
       <c r="E18" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="57"/>
+      <c r="B19" s="54"/>
       <c r="E19" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="57"/>
+      <c r="B20" s="54"/>
       <c r="E20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -17099,79 +17797,79 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="54.375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="0.875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="0.875" style="55" customWidth="1"/>
     <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="D1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickTop="1">
-      <c r="B2" s="57"/>
+      <c r="B2" s="54"/>
       <c r="E2" s="35" t="str">
         <f>IF(ISBLANK($B2),"",HYPERLINK($B2,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="57"/>
+      <c r="B3" s="54"/>
       <c r="E3" s="35" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(ISBLANK($B3),"",HYPERLINK($B3,"▶"))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="57"/>
+      <c r="B4" s="54"/>
       <c r="E4" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="57"/>
+      <c r="B5" s="54"/>
       <c r="E5" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="57"/>
+      <c r="B6" s="54"/>
       <c r="E6" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="57"/>
+      <c r="B7" s="54"/>
       <c r="E7" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="57"/>
+      <c r="B8" s="54"/>
       <c r="E8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -18343,36 +19041,36 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" style="32" customWidth="1"/>
     <col min="2" max="2" width="45.625" customWidth="1"/>
-    <col min="3" max="3" width="0.875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="0.875" style="56" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
